--- a/descargas/004_Facturacion_OP.xlsx
+++ b/descargas/004_Facturacion_OP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://corsusaadmin.sharepoint.com/sites/logistica/Documentos compartidos/0001 - Order to Delivery (O2D)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17309" documentId="13_ncr:1_{606EC6C8-0EFB-45A8-B918-4761875D348F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{462FC9B2-7D08-4499-A411-75D6280CA338}"/>
+  <xr:revisionPtr revIDLastSave="17352" documentId="13_ncr:1_{606EC6C8-0EFB-45A8-B918-4761875D348F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDE83960-6132-4182-8F5C-B458E67467FA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3C17B348-FD76-4BC1-AA35-95BA27518FCA}"/>
   </bookViews>
@@ -364,7 +364,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12528" uniqueCount="2186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12563" uniqueCount="2196">
   <si>
     <t>Correlativo_OPCI</t>
   </si>
@@ -6667,6 +6667,36 @@
   </si>
   <si>
     <t>FF01-0009728</t>
+  </si>
+  <si>
+    <t>OPCI-00000921</t>
+  </si>
+  <si>
+    <t>FF01-0009729</t>
+  </si>
+  <si>
+    <t>OPCI-00000879</t>
+  </si>
+  <si>
+    <t>FF01-0009730</t>
+  </si>
+  <si>
+    <t>OPCI-00000763</t>
+  </si>
+  <si>
+    <t>FF01-0009731</t>
+  </si>
+  <si>
+    <t>OPCI-00000961</t>
+  </si>
+  <si>
+    <t>FF01-0009732</t>
+  </si>
+  <si>
+    <t>OPCI-00000922</t>
+  </si>
+  <si>
+    <t>FF01-0009733</t>
   </si>
   <si>
     <t>ID_Producto_CRM</t>
@@ -7215,7 +7245,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{7D2EC11D-0471-498C-8D97-ADF9AE731479}"/>
   </cellStyles>
-  <dxfs count="429">
+  <dxfs count="434">
     <dxf>
       <font>
         <sz val="9"/>
@@ -11672,6 +11702,56 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -11714,8 +11794,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0D5AF52D-47A5-4D5F-A79F-661EA8BB674F}" name="VTS_Facturacion_Cobranza" displayName="VTS_Facturacion_Cobranza" ref="A4:R1277" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
-  <autoFilter ref="A4:R1277" xr:uid="{34696AE4-14CB-4183-B0FB-814ED80D658B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0D5AF52D-47A5-4D5F-A79F-661EA8BB674F}" name="VTS_Facturacion_Cobranza" displayName="VTS_Facturacion_Cobranza" ref="A4:R1286" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
+  <autoFilter ref="A4:R1286" xr:uid="{34696AE4-14CB-4183-B0FB-814ED80D658B}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{BBF36776-9B9A-4B72-B735-884A99521443}" name="Correlativo_OPCI" dataDxfId="58" totalsRowDxfId="59"/>
     <tableColumn id="6" xr3:uid="{DEDB733E-082C-4E8F-9139-2D267E07DCD2}" name="Status_Factura" dataDxfId="56" totalsRowDxfId="57"/>
@@ -12123,11 +12203,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55855E85-EE23-48D0-9C26-185E482A360F}">
-  <dimension ref="A1:U1277"/>
+  <dimension ref="A1:U1286"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A1264" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O1272" sqref="O1272"/>
+      <pane ySplit="4" topLeftCell="A1271" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L1280" sqref="L1280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="11.25"/>
@@ -80906,1227 +80986,1542 @@
       <c r="R1272" s="4"/>
     </row>
     <row r="1273" spans="1:18">
-      <c r="A1273" s="5"/>
-      <c r="B1273" s="2"/>
-      <c r="C1273" s="20"/>
-      <c r="D1273" s="32"/>
+      <c r="A1273" s="16" t="s">
+        <v>2101</v>
+      </c>
+      <c r="B1273" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1273" s="20" t="s">
+        <v>2102</v>
+      </c>
+      <c r="D1273" s="32">
+        <v>46045</v>
+      </c>
       <c r="E1273" s="32"/>
       <c r="F1273" s="32"/>
       <c r="G1273" s="31"/>
-      <c r="H1273" s="2"/>
-      <c r="I1273" s="5"/>
-      <c r="J1273" s="15"/>
-      <c r="K1273" s="20"/>
-      <c r="L1273" s="14"/>
-      <c r="M1273" s="53"/>
-      <c r="N1273" s="53"/>
-      <c r="O1273" s="5"/>
+      <c r="H1273" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1273" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1273" s="15">
+        <v>60</v>
+      </c>
+      <c r="K1273" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1273" s="14">
+        <v>16210.54</v>
+      </c>
+      <c r="M1273" s="37">
+        <v>1.18</v>
+      </c>
+      <c r="N1273" s="37">
+        <v>3.36</v>
+      </c>
+      <c r="O1273" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="P1273" s="4"/>
       <c r="Q1273" s="4"/>
       <c r="R1273" s="4"/>
     </row>
     <row r="1274" spans="1:18">
-      <c r="A1274" s="5"/>
-      <c r="B1274" s="2"/>
-      <c r="C1274" s="20"/>
-      <c r="D1274" s="32"/>
+      <c r="A1274" s="16" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B1274" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1274" s="20" t="s">
+        <v>2104</v>
+      </c>
+      <c r="D1274" s="32">
+        <v>46045</v>
+      </c>
       <c r="E1274" s="32"/>
       <c r="F1274" s="32"/>
       <c r="G1274" s="31"/>
-      <c r="H1274" s="2"/>
-      <c r="I1274" s="5"/>
-      <c r="J1274" s="15"/>
-      <c r="K1274" s="20"/>
-      <c r="L1274" s="14"/>
-      <c r="M1274" s="53"/>
-      <c r="N1274" s="53"/>
-      <c r="O1274" s="5"/>
+      <c r="H1274" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1274" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1274" s="15">
+        <v>30</v>
+      </c>
+      <c r="K1274" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1274" s="14">
+        <v>2365.92</v>
+      </c>
+      <c r="M1274" s="37">
+        <v>1.18</v>
+      </c>
+      <c r="N1274" s="37">
+        <v>3.36</v>
+      </c>
+      <c r="O1274" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="P1274" s="4"/>
       <c r="Q1274" s="4"/>
       <c r="R1274" s="4"/>
     </row>
     <row r="1275" spans="1:18">
-      <c r="A1275" s="5"/>
-      <c r="B1275" s="2"/>
-      <c r="C1275" s="20"/>
-      <c r="D1275" s="32"/>
+      <c r="A1275" s="16" t="s">
+        <v>2105</v>
+      </c>
+      <c r="B1275" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1275" s="20" t="s">
+        <v>2106</v>
+      </c>
+      <c r="D1275" s="32">
+        <v>46045</v>
+      </c>
       <c r="E1275" s="32"/>
       <c r="F1275" s="32"/>
       <c r="G1275" s="31"/>
-      <c r="H1275" s="2"/>
-      <c r="I1275" s="5"/>
-      <c r="J1275" s="15"/>
-      <c r="K1275" s="20"/>
-      <c r="L1275" s="14"/>
-      <c r="M1275" s="53"/>
-      <c r="N1275" s="53"/>
-      <c r="O1275" s="5"/>
+      <c r="H1275" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1275" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1275" s="15">
+        <v>30</v>
+      </c>
+      <c r="K1275" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1275" s="14">
+        <v>7177.6</v>
+      </c>
+      <c r="M1275" s="37">
+        <v>1.18</v>
+      </c>
+      <c r="N1275" s="37">
+        <v>3.36</v>
+      </c>
+      <c r="O1275" s="5" t="s">
+        <v>1452</v>
+      </c>
       <c r="P1275" s="4"/>
       <c r="Q1275" s="4"/>
       <c r="R1275" s="4"/>
     </row>
     <row r="1276" spans="1:18">
-      <c r="A1276" s="5"/>
-      <c r="B1276" s="2"/>
-      <c r="C1276" s="20"/>
-      <c r="D1276" s="32"/>
+      <c r="A1276" s="16" t="s">
+        <v>2107</v>
+      </c>
+      <c r="B1276" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1276" s="20" t="s">
+        <v>2108</v>
+      </c>
+      <c r="D1276" s="32">
+        <v>46045</v>
+      </c>
       <c r="E1276" s="32"/>
       <c r="F1276" s="32"/>
       <c r="G1276" s="31"/>
-      <c r="H1276" s="2"/>
-      <c r="I1276" s="5"/>
-      <c r="J1276" s="15"/>
-      <c r="K1276" s="20"/>
-      <c r="L1276" s="14"/>
-      <c r="M1276" s="53"/>
-      <c r="N1276" s="53"/>
-      <c r="O1276" s="5"/>
+      <c r="H1276" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1276" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1276" s="15">
+        <v>30</v>
+      </c>
+      <c r="K1276" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1276" s="14">
+        <v>2881.17</v>
+      </c>
+      <c r="M1276" s="37">
+        <v>1.18</v>
+      </c>
+      <c r="N1276" s="37">
+        <v>3.36</v>
+      </c>
+      <c r="O1276" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="P1276" s="4"/>
       <c r="Q1276" s="4"/>
       <c r="R1276" s="4"/>
     </row>
     <row r="1277" spans="1:18">
-      <c r="A1277" s="5"/>
-      <c r="B1277" s="2"/>
-      <c r="C1277" s="20"/>
-      <c r="D1277" s="32"/>
+      <c r="A1277" s="16" t="s">
+        <v>2109</v>
+      </c>
+      <c r="B1277" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1277" s="20" t="s">
+        <v>2110</v>
+      </c>
+      <c r="D1277" s="32">
+        <v>46045</v>
+      </c>
       <c r="E1277" s="32"/>
       <c r="F1277" s="32"/>
       <c r="G1277" s="31"/>
-      <c r="H1277" s="2"/>
-      <c r="I1277" s="5"/>
-      <c r="J1277" s="15"/>
-      <c r="K1277" s="20"/>
-      <c r="L1277" s="14"/>
-      <c r="M1277" s="53"/>
-      <c r="N1277" s="53"/>
-      <c r="O1277" s="5"/>
+      <c r="H1277" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1277" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1277" s="15">
+        <v>60</v>
+      </c>
+      <c r="K1277" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1277" s="14">
+        <v>21787.88</v>
+      </c>
+      <c r="M1277" s="37">
+        <v>1.18</v>
+      </c>
+      <c r="N1277" s="37">
+        <v>3.36</v>
+      </c>
+      <c r="O1277" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="P1277" s="4"/>
       <c r="Q1277" s="4"/>
       <c r="R1277" s="4"/>
+    </row>
+    <row r="1278" spans="1:18">
+      <c r="A1278" s="5"/>
+      <c r="B1278" s="2"/>
+      <c r="C1278" s="20"/>
+      <c r="D1278" s="32"/>
+      <c r="E1278" s="32"/>
+      <c r="F1278" s="32"/>
+      <c r="G1278" s="31"/>
+      <c r="H1278" s="2"/>
+      <c r="I1278" s="5"/>
+      <c r="J1278" s="15"/>
+      <c r="K1278" s="20"/>
+      <c r="L1278" s="14"/>
+      <c r="M1278" s="53"/>
+      <c r="N1278" s="53"/>
+      <c r="O1278" s="5"/>
+      <c r="P1278" s="4"/>
+      <c r="Q1278" s="4"/>
+      <c r="R1278" s="4"/>
+    </row>
+    <row r="1279" spans="1:18">
+      <c r="A1279" s="5"/>
+      <c r="B1279" s="2"/>
+      <c r="C1279" s="20"/>
+      <c r="D1279" s="32"/>
+      <c r="E1279" s="32"/>
+      <c r="F1279" s="32"/>
+      <c r="G1279" s="31"/>
+      <c r="H1279" s="2"/>
+      <c r="I1279" s="5"/>
+      <c r="J1279" s="15"/>
+      <c r="K1279" s="20"/>
+      <c r="L1279" s="14"/>
+      <c r="M1279" s="53"/>
+      <c r="N1279" s="53"/>
+      <c r="O1279" s="5"/>
+      <c r="P1279" s="4"/>
+      <c r="Q1279" s="4"/>
+      <c r="R1279" s="4"/>
+    </row>
+    <row r="1280" spans="1:18">
+      <c r="A1280" s="5"/>
+      <c r="B1280" s="2"/>
+      <c r="C1280" s="20"/>
+      <c r="D1280" s="32"/>
+      <c r="E1280" s="32"/>
+      <c r="F1280" s="32"/>
+      <c r="G1280" s="31"/>
+      <c r="H1280" s="2"/>
+      <c r="I1280" s="5"/>
+      <c r="J1280" s="15"/>
+      <c r="K1280" s="20"/>
+      <c r="L1280" s="14"/>
+      <c r="M1280" s="53"/>
+      <c r="N1280" s="53"/>
+      <c r="O1280" s="5"/>
+      <c r="P1280" s="4"/>
+      <c r="Q1280" s="4"/>
+      <c r="R1280" s="4"/>
+    </row>
+    <row r="1281" spans="1:18">
+      <c r="A1281" s="5"/>
+      <c r="B1281" s="2"/>
+      <c r="C1281" s="20"/>
+      <c r="D1281" s="32"/>
+      <c r="E1281" s="32"/>
+      <c r="F1281" s="32"/>
+      <c r="G1281" s="31"/>
+      <c r="H1281" s="2"/>
+      <c r="I1281" s="5"/>
+      <c r="J1281" s="15"/>
+      <c r="K1281" s="20"/>
+      <c r="L1281" s="14"/>
+      <c r="M1281" s="53"/>
+      <c r="N1281" s="53"/>
+      <c r="O1281" s="5"/>
+      <c r="P1281" s="4"/>
+      <c r="Q1281" s="4"/>
+      <c r="R1281" s="4"/>
+    </row>
+    <row r="1282" spans="1:18">
+      <c r="A1282" s="5"/>
+      <c r="B1282" s="2"/>
+      <c r="C1282" s="20"/>
+      <c r="D1282" s="32"/>
+      <c r="E1282" s="32"/>
+      <c r="F1282" s="32"/>
+      <c r="G1282" s="31"/>
+      <c r="H1282" s="2"/>
+      <c r="I1282" s="5"/>
+      <c r="J1282" s="15"/>
+      <c r="K1282" s="20"/>
+      <c r="L1282" s="14"/>
+      <c r="M1282" s="53"/>
+      <c r="N1282" s="53"/>
+      <c r="O1282" s="5"/>
+      <c r="P1282" s="4"/>
+      <c r="Q1282" s="4"/>
+      <c r="R1282" s="4"/>
+    </row>
+    <row r="1283" spans="1:18">
+      <c r="A1283" s="5"/>
+      <c r="B1283" s="2"/>
+      <c r="C1283" s="20"/>
+      <c r="D1283" s="32"/>
+      <c r="E1283" s="32"/>
+      <c r="F1283" s="32"/>
+      <c r="G1283" s="31"/>
+      <c r="H1283" s="2"/>
+      <c r="I1283" s="5"/>
+      <c r="J1283" s="15"/>
+      <c r="K1283" s="20"/>
+      <c r="L1283" s="14"/>
+      <c r="M1283" s="53"/>
+      <c r="N1283" s="53"/>
+      <c r="O1283" s="5"/>
+      <c r="P1283" s="4"/>
+      <c r="Q1283" s="4"/>
+      <c r="R1283" s="4"/>
+    </row>
+    <row r="1284" spans="1:18">
+      <c r="A1284" s="5"/>
+      <c r="B1284" s="2"/>
+      <c r="C1284" s="20"/>
+      <c r="D1284" s="32"/>
+      <c r="E1284" s="32"/>
+      <c r="F1284" s="32"/>
+      <c r="G1284" s="31"/>
+      <c r="H1284" s="2"/>
+      <c r="I1284" s="5"/>
+      <c r="J1284" s="15"/>
+      <c r="K1284" s="20"/>
+      <c r="L1284" s="14"/>
+      <c r="M1284" s="53"/>
+      <c r="N1284" s="53"/>
+      <c r="O1284" s="5"/>
+      <c r="P1284" s="4"/>
+      <c r="Q1284" s="4"/>
+      <c r="R1284" s="4"/>
+    </row>
+    <row r="1285" spans="1:18">
+      <c r="A1285" s="5"/>
+      <c r="B1285" s="2"/>
+      <c r="C1285" s="20"/>
+      <c r="D1285" s="32"/>
+      <c r="E1285" s="32"/>
+      <c r="F1285" s="32"/>
+      <c r="G1285" s="31"/>
+      <c r="H1285" s="2"/>
+      <c r="I1285" s="5"/>
+      <c r="J1285" s="15"/>
+      <c r="K1285" s="20"/>
+      <c r="L1285" s="14"/>
+      <c r="M1285" s="53"/>
+      <c r="N1285" s="53"/>
+      <c r="O1285" s="5"/>
+      <c r="P1285" s="4"/>
+      <c r="Q1285" s="4"/>
+      <c r="R1285" s="4"/>
+    </row>
+    <row r="1286" spans="1:18">
+      <c r="A1286" s="5"/>
+      <c r="B1286" s="2"/>
+      <c r="C1286" s="20"/>
+      <c r="D1286" s="32"/>
+      <c r="E1286" s="32"/>
+      <c r="F1286" s="32"/>
+      <c r="G1286" s="31"/>
+      <c r="H1286" s="2"/>
+      <c r="I1286" s="5"/>
+      <c r="J1286" s="15"/>
+      <c r="K1286" s="20"/>
+      <c r="L1286" s="14"/>
+      <c r="M1286" s="53"/>
+      <c r="N1286" s="53"/>
+      <c r="O1286" s="5"/>
+      <c r="P1286" s="4"/>
+      <c r="Q1286" s="4"/>
+      <c r="R1286" s="4"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H31:H35">
     <sortCondition ref="H31:H35"/>
   </sortState>
   <conditionalFormatting sqref="A1:R1">
-    <cfRule type="cellIs" dxfId="428" priority="791" operator="equal">
+    <cfRule type="cellIs" dxfId="433" priority="796" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A805:A807">
+    <cfRule type="duplicateValues" dxfId="432" priority="378"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A808">
+    <cfRule type="duplicateValues" dxfId="431" priority="377"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A333">
+    <cfRule type="duplicateValues" dxfId="430" priority="376"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A139">
+    <cfRule type="duplicateValues" dxfId="429" priority="375"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A812">
+    <cfRule type="duplicateValues" dxfId="428" priority="374"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A813">
     <cfRule type="duplicateValues" dxfId="427" priority="373"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A808">
+  <conditionalFormatting sqref="A814:A815">
     <cfRule type="duplicateValues" dxfId="426" priority="372"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A333">
+  <conditionalFormatting sqref="A816">
     <cfRule type="duplicateValues" dxfId="425" priority="371"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A139">
+  <conditionalFormatting sqref="A817">
     <cfRule type="duplicateValues" dxfId="424" priority="370"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A812">
+  <conditionalFormatting sqref="A818">
     <cfRule type="duplicateValues" dxfId="423" priority="369"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A813">
+  <conditionalFormatting sqref="A820:A824">
     <cfRule type="duplicateValues" dxfId="422" priority="368"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A814:A815">
+  <conditionalFormatting sqref="A826">
     <cfRule type="duplicateValues" dxfId="421" priority="367"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A816">
+  <conditionalFormatting sqref="A828">
     <cfRule type="duplicateValues" dxfId="420" priority="366"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A817">
+  <conditionalFormatting sqref="A827">
     <cfRule type="duplicateValues" dxfId="419" priority="365"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A818">
+  <conditionalFormatting sqref="A751">
     <cfRule type="duplicateValues" dxfId="418" priority="364"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A820:A824">
+  <conditionalFormatting sqref="A752">
     <cfRule type="duplicateValues" dxfId="417" priority="363"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A826">
+  <conditionalFormatting sqref="A796:A797">
     <cfRule type="duplicateValues" dxfId="416" priority="362"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A828">
+  <conditionalFormatting sqref="A753:A754">
     <cfRule type="duplicateValues" dxfId="415" priority="361"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A827">
+  <conditionalFormatting sqref="A755">
     <cfRule type="duplicateValues" dxfId="414" priority="360"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A751">
+  <conditionalFormatting sqref="A779">
     <cfRule type="duplicateValues" dxfId="413" priority="359"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A752">
+  <conditionalFormatting sqref="A795">
     <cfRule type="duplicateValues" dxfId="412" priority="358"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A796:A797">
+  <conditionalFormatting sqref="A819">
     <cfRule type="duplicateValues" dxfId="411" priority="357"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A753:A754">
+  <conditionalFormatting sqref="A809">
     <cfRule type="duplicateValues" dxfId="410" priority="356"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A755">
+  <conditionalFormatting sqref="A867:A869">
     <cfRule type="duplicateValues" dxfId="409" priority="355"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A779">
+  <conditionalFormatting sqref="A842">
     <cfRule type="duplicateValues" dxfId="408" priority="354"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A795">
+  <conditionalFormatting sqref="A843">
     <cfRule type="duplicateValues" dxfId="407" priority="353"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A819">
+  <conditionalFormatting sqref="A844">
     <cfRule type="duplicateValues" dxfId="406" priority="352"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A809">
+  <conditionalFormatting sqref="A845">
     <cfRule type="duplicateValues" dxfId="405" priority="351"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A867:A869">
+  <conditionalFormatting sqref="A846">
     <cfRule type="duplicateValues" dxfId="404" priority="350"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A842">
+  <conditionalFormatting sqref="A847">
     <cfRule type="duplicateValues" dxfId="403" priority="349"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A843">
+  <conditionalFormatting sqref="A848">
     <cfRule type="duplicateValues" dxfId="402" priority="348"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A844">
+  <conditionalFormatting sqref="A849">
     <cfRule type="duplicateValues" dxfId="401" priority="347"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A845">
+  <conditionalFormatting sqref="A850">
     <cfRule type="duplicateValues" dxfId="400" priority="346"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A846">
+  <conditionalFormatting sqref="A851">
     <cfRule type="duplicateValues" dxfId="399" priority="345"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A847">
+  <conditionalFormatting sqref="A852">
     <cfRule type="duplicateValues" dxfId="398" priority="344"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A848">
+  <conditionalFormatting sqref="A853">
     <cfRule type="duplicateValues" dxfId="397" priority="343"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A849">
+  <conditionalFormatting sqref="A855">
     <cfRule type="duplicateValues" dxfId="396" priority="342"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A850">
+  <conditionalFormatting sqref="A856:A857">
     <cfRule type="duplicateValues" dxfId="395" priority="341"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A851">
+  <conditionalFormatting sqref="A858:A861">
     <cfRule type="duplicateValues" dxfId="394" priority="340"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A852">
+  <conditionalFormatting sqref="A862">
     <cfRule type="duplicateValues" dxfId="393" priority="339"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A853">
+  <conditionalFormatting sqref="A863">
     <cfRule type="duplicateValues" dxfId="392" priority="338"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A855">
+  <conditionalFormatting sqref="A864">
     <cfRule type="duplicateValues" dxfId="391" priority="337"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A856:A857">
+  <conditionalFormatting sqref="A870:A872">
     <cfRule type="duplicateValues" dxfId="390" priority="336"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A858:A861">
+  <conditionalFormatting sqref="A873">
     <cfRule type="duplicateValues" dxfId="389" priority="335"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A862">
+  <conditionalFormatting sqref="A874">
     <cfRule type="duplicateValues" dxfId="388" priority="334"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A863">
+  <conditionalFormatting sqref="A875:A876">
     <cfRule type="duplicateValues" dxfId="387" priority="333"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A864">
+  <conditionalFormatting sqref="A877">
     <cfRule type="duplicateValues" dxfId="386" priority="332"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A870:A872">
+  <conditionalFormatting sqref="A878">
     <cfRule type="duplicateValues" dxfId="385" priority="331"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A873">
+  <conditionalFormatting sqref="A879">
     <cfRule type="duplicateValues" dxfId="384" priority="330"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A874">
+  <conditionalFormatting sqref="A880">
     <cfRule type="duplicateValues" dxfId="383" priority="329"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A875:A876">
+  <conditionalFormatting sqref="A854">
     <cfRule type="duplicateValues" dxfId="382" priority="328"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A877">
+  <conditionalFormatting sqref="A881">
     <cfRule type="duplicateValues" dxfId="381" priority="327"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A878">
+  <conditionalFormatting sqref="A882">
     <cfRule type="duplicateValues" dxfId="380" priority="326"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A879">
+  <conditionalFormatting sqref="A883">
     <cfRule type="duplicateValues" dxfId="379" priority="325"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A880">
+  <conditionalFormatting sqref="A884">
     <cfRule type="duplicateValues" dxfId="378" priority="324"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A854">
+  <conditionalFormatting sqref="A885">
     <cfRule type="duplicateValues" dxfId="377" priority="323"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A881">
+  <conditionalFormatting sqref="A886">
     <cfRule type="duplicateValues" dxfId="376" priority="322"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A882">
+  <conditionalFormatting sqref="A887">
     <cfRule type="duplicateValues" dxfId="375" priority="321"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A883">
+  <conditionalFormatting sqref="A888">
     <cfRule type="duplicateValues" dxfId="374" priority="320"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A884">
+  <conditionalFormatting sqref="A889">
     <cfRule type="duplicateValues" dxfId="373" priority="319"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A885">
+  <conditionalFormatting sqref="A890:A893">
     <cfRule type="duplicateValues" dxfId="372" priority="318"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A886">
+  <conditionalFormatting sqref="A894:A895">
     <cfRule type="duplicateValues" dxfId="371" priority="317"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A887">
+  <conditionalFormatting sqref="A896">
     <cfRule type="duplicateValues" dxfId="370" priority="316"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A888">
+  <conditionalFormatting sqref="A897">
     <cfRule type="duplicateValues" dxfId="369" priority="315"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A889">
+  <conditionalFormatting sqref="A898">
     <cfRule type="duplicateValues" dxfId="368" priority="314"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A890:A893">
+  <conditionalFormatting sqref="A899">
     <cfRule type="duplicateValues" dxfId="367" priority="313"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A894:A895">
+  <conditionalFormatting sqref="A900">
     <cfRule type="duplicateValues" dxfId="366" priority="312"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A896">
+  <conditionalFormatting sqref="A901">
     <cfRule type="duplicateValues" dxfId="365" priority="311"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A897">
+  <conditionalFormatting sqref="A902">
     <cfRule type="duplicateValues" dxfId="364" priority="310"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A898">
+  <conditionalFormatting sqref="A903">
     <cfRule type="duplicateValues" dxfId="363" priority="309"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A899">
+  <conditionalFormatting sqref="A904">
     <cfRule type="duplicateValues" dxfId="362" priority="308"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A900">
+  <conditionalFormatting sqref="A905:A906">
     <cfRule type="duplicateValues" dxfId="361" priority="307"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A901">
-    <cfRule type="duplicateValues" dxfId="360" priority="306"/>
+  <conditionalFormatting sqref="A918">
+    <cfRule type="duplicateValues" dxfId="360" priority="305"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A902">
-    <cfRule type="duplicateValues" dxfId="359" priority="305"/>
+  <conditionalFormatting sqref="A913">
+    <cfRule type="duplicateValues" dxfId="359" priority="304"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A903">
-    <cfRule type="duplicateValues" dxfId="358" priority="304"/>
+  <conditionalFormatting sqref="A914">
+    <cfRule type="duplicateValues" dxfId="358" priority="303"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A904">
-    <cfRule type="duplicateValues" dxfId="357" priority="303"/>
+  <conditionalFormatting sqref="A915">
+    <cfRule type="duplicateValues" dxfId="357" priority="302"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A905:A906">
-    <cfRule type="duplicateValues" dxfId="356" priority="302"/>
+  <conditionalFormatting sqref="A916">
+    <cfRule type="duplicateValues" dxfId="356" priority="301"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A918">
+  <conditionalFormatting sqref="A917">
     <cfRule type="duplicateValues" dxfId="355" priority="300"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A913">
+  <conditionalFormatting sqref="A907">
     <cfRule type="duplicateValues" dxfId="354" priority="299"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A914">
+  <conditionalFormatting sqref="A908:A909">
     <cfRule type="duplicateValues" dxfId="353" priority="298"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A915">
+  <conditionalFormatting sqref="A910">
     <cfRule type="duplicateValues" dxfId="352" priority="297"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A916">
+  <conditionalFormatting sqref="A911">
     <cfRule type="duplicateValues" dxfId="351" priority="296"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A917">
+  <conditionalFormatting sqref="A919">
     <cfRule type="duplicateValues" dxfId="350" priority="295"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A907">
+  <conditionalFormatting sqref="A912">
     <cfRule type="duplicateValues" dxfId="349" priority="294"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A908:A909">
+  <conditionalFormatting sqref="A920:A922">
     <cfRule type="duplicateValues" dxfId="348" priority="293"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A910">
+  <conditionalFormatting sqref="A923">
     <cfRule type="duplicateValues" dxfId="347" priority="292"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A911">
+  <conditionalFormatting sqref="A924">
     <cfRule type="duplicateValues" dxfId="346" priority="291"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A919">
-    <cfRule type="duplicateValues" dxfId="345" priority="290"/>
+  <conditionalFormatting sqref="A925">
+    <cfRule type="duplicateValues" dxfId="345" priority="289"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A912">
-    <cfRule type="duplicateValues" dxfId="344" priority="289"/>
+  <conditionalFormatting sqref="A926">
+    <cfRule type="duplicateValues" dxfId="344" priority="288"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A920:A922">
-    <cfRule type="duplicateValues" dxfId="343" priority="288"/>
+  <conditionalFormatting sqref="A929">
+    <cfRule type="duplicateValues" dxfId="343" priority="287"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A923">
-    <cfRule type="duplicateValues" dxfId="342" priority="287"/>
+  <conditionalFormatting sqref="A930">
+    <cfRule type="duplicateValues" dxfId="342" priority="286"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A924">
-    <cfRule type="duplicateValues" dxfId="341" priority="286"/>
+  <conditionalFormatting sqref="A931">
+    <cfRule type="duplicateValues" dxfId="341" priority="285"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A925">
+  <conditionalFormatting sqref="A932">
     <cfRule type="duplicateValues" dxfId="340" priority="284"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A926">
+  <conditionalFormatting sqref="A933">
     <cfRule type="duplicateValues" dxfId="339" priority="283"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A929">
+  <conditionalFormatting sqref="A927">
     <cfRule type="duplicateValues" dxfId="338" priority="282"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A930">
+  <conditionalFormatting sqref="A928">
     <cfRule type="duplicateValues" dxfId="337" priority="281"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A931">
+  <conditionalFormatting sqref="A934">
     <cfRule type="duplicateValues" dxfId="336" priority="280"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A932">
+  <conditionalFormatting sqref="A935">
     <cfRule type="duplicateValues" dxfId="335" priority="279"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A933">
+  <conditionalFormatting sqref="A936">
     <cfRule type="duplicateValues" dxfId="334" priority="278"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A927">
+  <conditionalFormatting sqref="A937:A938">
     <cfRule type="duplicateValues" dxfId="333" priority="277"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A928">
+  <conditionalFormatting sqref="A939">
     <cfRule type="duplicateValues" dxfId="332" priority="276"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A934">
+  <conditionalFormatting sqref="A940">
     <cfRule type="duplicateValues" dxfId="331" priority="275"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A935">
+  <conditionalFormatting sqref="A941">
     <cfRule type="duplicateValues" dxfId="330" priority="274"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A936">
+  <conditionalFormatting sqref="A942">
     <cfRule type="duplicateValues" dxfId="329" priority="273"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A937:A938">
+  <conditionalFormatting sqref="A943">
     <cfRule type="duplicateValues" dxfId="328" priority="272"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A939">
+  <conditionalFormatting sqref="A944:A945">
     <cfRule type="duplicateValues" dxfId="327" priority="271"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A940">
+  <conditionalFormatting sqref="A946">
     <cfRule type="duplicateValues" dxfId="326" priority="270"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A941">
+  <conditionalFormatting sqref="A947">
     <cfRule type="duplicateValues" dxfId="325" priority="269"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A942">
+  <conditionalFormatting sqref="A948">
     <cfRule type="duplicateValues" dxfId="324" priority="268"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A943">
+  <conditionalFormatting sqref="A949">
     <cfRule type="duplicateValues" dxfId="323" priority="267"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A944:A945">
+  <conditionalFormatting sqref="A953">
     <cfRule type="duplicateValues" dxfId="322" priority="266"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A946">
+  <conditionalFormatting sqref="A954">
     <cfRule type="duplicateValues" dxfId="321" priority="265"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A947">
+  <conditionalFormatting sqref="A955">
     <cfRule type="duplicateValues" dxfId="320" priority="264"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A948">
+  <conditionalFormatting sqref="A952">
     <cfRule type="duplicateValues" dxfId="319" priority="263"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A949">
+  <conditionalFormatting sqref="A951">
     <cfRule type="duplicateValues" dxfId="318" priority="262"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A953">
+  <conditionalFormatting sqref="A956">
     <cfRule type="duplicateValues" dxfId="317" priority="261"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A954">
+  <conditionalFormatting sqref="A957:A958">
     <cfRule type="duplicateValues" dxfId="316" priority="260"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A955">
+  <conditionalFormatting sqref="A959">
     <cfRule type="duplicateValues" dxfId="315" priority="259"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A952">
+  <conditionalFormatting sqref="A960">
     <cfRule type="duplicateValues" dxfId="314" priority="258"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A951">
+  <conditionalFormatting sqref="A961">
     <cfRule type="duplicateValues" dxfId="313" priority="257"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A956">
+  <conditionalFormatting sqref="A964">
     <cfRule type="duplicateValues" dxfId="312" priority="256"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A957:A958">
+  <conditionalFormatting sqref="A965">
     <cfRule type="duplicateValues" dxfId="311" priority="255"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A959">
+  <conditionalFormatting sqref="A966">
     <cfRule type="duplicateValues" dxfId="310" priority="254"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A960">
+  <conditionalFormatting sqref="A967">
     <cfRule type="duplicateValues" dxfId="309" priority="253"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A961">
+  <conditionalFormatting sqref="A969">
     <cfRule type="duplicateValues" dxfId="308" priority="252"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A964">
+  <conditionalFormatting sqref="A970">
     <cfRule type="duplicateValues" dxfId="307" priority="251"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A965">
+  <conditionalFormatting sqref="A971">
     <cfRule type="duplicateValues" dxfId="306" priority="250"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A966">
+  <conditionalFormatting sqref="A972">
     <cfRule type="duplicateValues" dxfId="305" priority="249"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A967">
+  <conditionalFormatting sqref="A976">
     <cfRule type="duplicateValues" dxfId="304" priority="248"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A969">
+  <conditionalFormatting sqref="A977">
     <cfRule type="duplicateValues" dxfId="303" priority="247"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A970">
+  <conditionalFormatting sqref="A978">
     <cfRule type="duplicateValues" dxfId="302" priority="246"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A971">
+  <conditionalFormatting sqref="A979">
     <cfRule type="duplicateValues" dxfId="301" priority="245"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A972">
+  <conditionalFormatting sqref="A980">
     <cfRule type="duplicateValues" dxfId="300" priority="244"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A976">
+  <conditionalFormatting sqref="A981">
     <cfRule type="duplicateValues" dxfId="299" priority="243"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A977">
+  <conditionalFormatting sqref="A982">
     <cfRule type="duplicateValues" dxfId="298" priority="242"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A978">
+  <conditionalFormatting sqref="A973:A974">
     <cfRule type="duplicateValues" dxfId="297" priority="241"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A979">
+  <conditionalFormatting sqref="A975">
     <cfRule type="duplicateValues" dxfId="296" priority="240"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A980">
+  <conditionalFormatting sqref="A983:A985">
     <cfRule type="duplicateValues" dxfId="295" priority="239"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A981">
+  <conditionalFormatting sqref="A987">
     <cfRule type="duplicateValues" dxfId="294" priority="238"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A982">
-    <cfRule type="duplicateValues" dxfId="293" priority="237"/>
+  <conditionalFormatting sqref="A986">
+    <cfRule type="duplicateValues" dxfId="293" priority="236"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A973:A974">
-    <cfRule type="duplicateValues" dxfId="292" priority="236"/>
+  <conditionalFormatting sqref="A962">
+    <cfRule type="duplicateValues" dxfId="292" priority="235"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A975">
-    <cfRule type="duplicateValues" dxfId="291" priority="235"/>
+  <conditionalFormatting sqref="A963">
+    <cfRule type="duplicateValues" dxfId="291" priority="234"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A983:A985">
-    <cfRule type="duplicateValues" dxfId="290" priority="234"/>
+  <conditionalFormatting sqref="A989:A990">
+    <cfRule type="duplicateValues" dxfId="290" priority="233"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A987">
-    <cfRule type="duplicateValues" dxfId="289" priority="233"/>
+  <conditionalFormatting sqref="A991">
+    <cfRule type="duplicateValues" dxfId="289" priority="232"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A986">
+  <conditionalFormatting sqref="A992">
     <cfRule type="duplicateValues" dxfId="288" priority="231"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A962">
+  <conditionalFormatting sqref="A993">
     <cfRule type="duplicateValues" dxfId="287" priority="230"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A963">
+  <conditionalFormatting sqref="A994:A996">
     <cfRule type="duplicateValues" dxfId="286" priority="229"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A989:A990">
+  <conditionalFormatting sqref="A997">
     <cfRule type="duplicateValues" dxfId="285" priority="228"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A991">
-    <cfRule type="duplicateValues" dxfId="284" priority="227"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A992">
-    <cfRule type="duplicateValues" dxfId="283" priority="226"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A993">
-    <cfRule type="duplicateValues" dxfId="282" priority="225"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A994:A996">
-    <cfRule type="duplicateValues" dxfId="281" priority="224"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A997">
-    <cfRule type="duplicateValues" dxfId="280" priority="223"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A988">
-    <cfRule type="duplicateValues" dxfId="279" priority="903"/>
+    <cfRule type="duplicateValues" dxfId="284" priority="908"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A998">
+    <cfRule type="duplicateValues" dxfId="283" priority="227"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A999">
+    <cfRule type="duplicateValues" dxfId="282" priority="226"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1000">
+    <cfRule type="duplicateValues" dxfId="281" priority="225"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1001">
+    <cfRule type="duplicateValues" dxfId="280" priority="224"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1002:A1004">
+    <cfRule type="duplicateValues" dxfId="279" priority="223"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1010:A1011">
     <cfRule type="duplicateValues" dxfId="278" priority="222"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A999">
+  <conditionalFormatting sqref="A1012:A1013">
     <cfRule type="duplicateValues" dxfId="277" priority="221"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1000">
+  <conditionalFormatting sqref="A1014">
     <cfRule type="duplicateValues" dxfId="276" priority="220"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1001">
-    <cfRule type="duplicateValues" dxfId="275" priority="219"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1002:A1004">
-    <cfRule type="duplicateValues" dxfId="274" priority="218"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1010:A1011">
-    <cfRule type="duplicateValues" dxfId="273" priority="217"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1012:A1013">
-    <cfRule type="duplicateValues" dxfId="272" priority="216"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1014">
-    <cfRule type="duplicateValues" dxfId="271" priority="215"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A1016">
-    <cfRule type="duplicateValues" dxfId="270" priority="213"/>
+    <cfRule type="duplicateValues" dxfId="275" priority="218"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1020">
+    <cfRule type="duplicateValues" dxfId="274" priority="217"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1021">
+    <cfRule type="duplicateValues" dxfId="273" priority="215"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1018">
+    <cfRule type="duplicateValues" dxfId="272" priority="214"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1019">
+    <cfRule type="duplicateValues" dxfId="271" priority="213"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1015">
+    <cfRule type="duplicateValues" dxfId="270" priority="924"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1017">
     <cfRule type="duplicateValues" dxfId="269" priority="212"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1021">
-    <cfRule type="duplicateValues" dxfId="268" priority="210"/>
+  <conditionalFormatting sqref="A1023">
+    <cfRule type="duplicateValues" dxfId="268" priority="211"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1018">
-    <cfRule type="duplicateValues" dxfId="267" priority="209"/>
+  <conditionalFormatting sqref="A1024:A1025">
+    <cfRule type="duplicateValues" dxfId="267" priority="210"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1019">
-    <cfRule type="duplicateValues" dxfId="266" priority="208"/>
+  <conditionalFormatting sqref="A1026">
+    <cfRule type="duplicateValues" dxfId="266" priority="209"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1015">
-    <cfRule type="duplicateValues" dxfId="265" priority="919"/>
+  <conditionalFormatting sqref="A1028">
+    <cfRule type="duplicateValues" dxfId="265" priority="208"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1017">
+  <conditionalFormatting sqref="A1029">
     <cfRule type="duplicateValues" dxfId="264" priority="207"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1023">
+  <conditionalFormatting sqref="A1030">
     <cfRule type="duplicateValues" dxfId="263" priority="206"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1024:A1025">
+  <conditionalFormatting sqref="A1033">
     <cfRule type="duplicateValues" dxfId="262" priority="205"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1026">
+  <conditionalFormatting sqref="A1034:A1035">
     <cfRule type="duplicateValues" dxfId="261" priority="204"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1028">
+  <conditionalFormatting sqref="A1036">
     <cfRule type="duplicateValues" dxfId="260" priority="203"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1029">
+  <conditionalFormatting sqref="A1037">
     <cfRule type="duplicateValues" dxfId="259" priority="202"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1030">
+  <conditionalFormatting sqref="A1038">
     <cfRule type="duplicateValues" dxfId="258" priority="201"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1033">
+  <conditionalFormatting sqref="A1039">
     <cfRule type="duplicateValues" dxfId="257" priority="200"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1034:A1035">
+  <conditionalFormatting sqref="A1040">
     <cfRule type="duplicateValues" dxfId="256" priority="199"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1036">
+  <conditionalFormatting sqref="A1031">
     <cfRule type="duplicateValues" dxfId="255" priority="198"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1037">
+  <conditionalFormatting sqref="A1032">
     <cfRule type="duplicateValues" dxfId="254" priority="197"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1038">
+  <conditionalFormatting sqref="A1041">
     <cfRule type="duplicateValues" dxfId="253" priority="196"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1039">
+  <conditionalFormatting sqref="A1043">
     <cfRule type="duplicateValues" dxfId="252" priority="195"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1040">
+  <conditionalFormatting sqref="A1042">
     <cfRule type="duplicateValues" dxfId="251" priority="194"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1031">
+  <conditionalFormatting sqref="A1044:A1045">
     <cfRule type="duplicateValues" dxfId="250" priority="193"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1032">
+  <conditionalFormatting sqref="A1046">
     <cfRule type="duplicateValues" dxfId="249" priority="192"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1041">
+  <conditionalFormatting sqref="A1047">
     <cfRule type="duplicateValues" dxfId="248" priority="191"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1043">
-    <cfRule type="duplicateValues" dxfId="247" priority="190"/>
+  <conditionalFormatting sqref="A1049:A1050">
+    <cfRule type="duplicateValues" dxfId="247" priority="189"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1042">
-    <cfRule type="duplicateValues" dxfId="246" priority="189"/>
+  <conditionalFormatting sqref="A1051">
+    <cfRule type="duplicateValues" dxfId="246" priority="956"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1044:A1045">
-    <cfRule type="duplicateValues" dxfId="245" priority="188"/>
+  <conditionalFormatting sqref="A1052">
+    <cfRule type="duplicateValues" dxfId="245" priority="187"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1046">
-    <cfRule type="duplicateValues" dxfId="244" priority="187"/>
+  <conditionalFormatting sqref="A1053">
+    <cfRule type="duplicateValues" dxfId="244" priority="186"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1047">
-    <cfRule type="duplicateValues" dxfId="243" priority="186"/>
+  <conditionalFormatting sqref="A1054">
+    <cfRule type="duplicateValues" dxfId="243" priority="185"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1049:A1050">
+  <conditionalFormatting sqref="A1055">
     <cfRule type="duplicateValues" dxfId="242" priority="184"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1051">
-    <cfRule type="duplicateValues" dxfId="241" priority="951"/>
+  <conditionalFormatting sqref="A1056">
+    <cfRule type="duplicateValues" dxfId="241" priority="183"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1052">
+  <conditionalFormatting sqref="A1057">
     <cfRule type="duplicateValues" dxfId="240" priority="182"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1053">
+  <conditionalFormatting sqref="A1058">
     <cfRule type="duplicateValues" dxfId="239" priority="181"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1054">
+  <conditionalFormatting sqref="A1059:A1060">
     <cfRule type="duplicateValues" dxfId="238" priority="180"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1055">
+  <conditionalFormatting sqref="A1022">
     <cfRule type="duplicateValues" dxfId="237" priority="179"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1056">
+  <conditionalFormatting sqref="A1068">
     <cfRule type="duplicateValues" dxfId="236" priority="178"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1057">
+  <conditionalFormatting sqref="A1069">
     <cfRule type="duplicateValues" dxfId="235" priority="177"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1058">
+  <conditionalFormatting sqref="A1070">
     <cfRule type="duplicateValues" dxfId="234" priority="176"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1059:A1060">
+  <conditionalFormatting sqref="A1071">
     <cfRule type="duplicateValues" dxfId="233" priority="175"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1022">
+  <conditionalFormatting sqref="A1072">
     <cfRule type="duplicateValues" dxfId="232" priority="174"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1068">
-    <cfRule type="duplicateValues" dxfId="231" priority="173"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1069">
-    <cfRule type="duplicateValues" dxfId="230" priority="172"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1070">
-    <cfRule type="duplicateValues" dxfId="229" priority="171"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1071">
-    <cfRule type="duplicateValues" dxfId="228" priority="170"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1072">
-    <cfRule type="duplicateValues" dxfId="227" priority="169"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A1063:A1066">
-    <cfRule type="duplicateValues" dxfId="226" priority="970"/>
+    <cfRule type="duplicateValues" dxfId="231" priority="975"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1067">
+    <cfRule type="duplicateValues" dxfId="230" priority="171"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1073">
+    <cfRule type="duplicateValues" dxfId="229" priority="170"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1061">
+    <cfRule type="duplicateValues" dxfId="228" priority="169"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1062">
+    <cfRule type="duplicateValues" dxfId="227" priority="168"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1074">
+    <cfRule type="duplicateValues" dxfId="226" priority="167"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1075">
     <cfRule type="duplicateValues" dxfId="225" priority="166"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1073">
+  <conditionalFormatting sqref="A1076:A1080">
     <cfRule type="duplicateValues" dxfId="224" priority="165"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1061">
+  <conditionalFormatting sqref="A1082">
     <cfRule type="duplicateValues" dxfId="223" priority="164"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1062">
+  <conditionalFormatting sqref="A1086">
     <cfRule type="duplicateValues" dxfId="222" priority="163"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1074">
+  <conditionalFormatting sqref="A1087">
     <cfRule type="duplicateValues" dxfId="221" priority="162"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1075">
+  <conditionalFormatting sqref="A1089">
     <cfRule type="duplicateValues" dxfId="220" priority="161"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1076:A1080">
+  <conditionalFormatting sqref="A1088">
     <cfRule type="duplicateValues" dxfId="219" priority="160"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1082">
+  <conditionalFormatting sqref="A1085">
     <cfRule type="duplicateValues" dxfId="218" priority="159"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1086">
+  <conditionalFormatting sqref="A1048">
     <cfRule type="duplicateValues" dxfId="217" priority="158"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1087">
+  <conditionalFormatting sqref="A1090">
     <cfRule type="duplicateValues" dxfId="216" priority="157"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1089">
+  <conditionalFormatting sqref="A1091">
     <cfRule type="duplicateValues" dxfId="215" priority="156"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1088">
+  <conditionalFormatting sqref="A1092">
     <cfRule type="duplicateValues" dxfId="214" priority="155"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1085">
+  <conditionalFormatting sqref="A1093">
     <cfRule type="duplicateValues" dxfId="213" priority="154"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1048">
+  <conditionalFormatting sqref="A1094">
     <cfRule type="duplicateValues" dxfId="212" priority="153"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1090">
+  <conditionalFormatting sqref="A1095">
     <cfRule type="duplicateValues" dxfId="211" priority="152"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1091">
+  <conditionalFormatting sqref="A1096">
     <cfRule type="duplicateValues" dxfId="210" priority="151"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1092">
+  <conditionalFormatting sqref="A1103">
     <cfRule type="duplicateValues" dxfId="209" priority="150"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1093">
+  <conditionalFormatting sqref="A1097">
     <cfRule type="duplicateValues" dxfId="208" priority="149"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1094">
+  <conditionalFormatting sqref="A1098:A1099">
     <cfRule type="duplicateValues" dxfId="207" priority="148"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1095">
+  <conditionalFormatting sqref="A1100:A1102">
     <cfRule type="duplicateValues" dxfId="206" priority="147"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1096">
+  <conditionalFormatting sqref="A1105">
     <cfRule type="duplicateValues" dxfId="205" priority="146"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1103">
+  <conditionalFormatting sqref="A1106">
     <cfRule type="duplicateValues" dxfId="204" priority="145"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1097">
+  <conditionalFormatting sqref="A1108">
     <cfRule type="duplicateValues" dxfId="203" priority="144"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1098:A1099">
+  <conditionalFormatting sqref="A1130">
     <cfRule type="duplicateValues" dxfId="202" priority="143"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1100:A1102">
+  <conditionalFormatting sqref="A1131">
     <cfRule type="duplicateValues" dxfId="201" priority="142"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1105">
+  <conditionalFormatting sqref="A1132:A1133">
     <cfRule type="duplicateValues" dxfId="200" priority="141"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1106">
+  <conditionalFormatting sqref="A1136">
     <cfRule type="duplicateValues" dxfId="199" priority="140"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1108">
+  <conditionalFormatting sqref="A1137">
     <cfRule type="duplicateValues" dxfId="198" priority="139"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1130">
+  <conditionalFormatting sqref="A1138">
     <cfRule type="duplicateValues" dxfId="197" priority="138"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1131">
+  <conditionalFormatting sqref="A1109">
     <cfRule type="duplicateValues" dxfId="196" priority="137"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1132:A1133">
+  <conditionalFormatting sqref="A1110">
     <cfRule type="duplicateValues" dxfId="195" priority="136"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1136">
+  <conditionalFormatting sqref="A1111">
     <cfRule type="duplicateValues" dxfId="194" priority="135"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1137">
+  <conditionalFormatting sqref="A1112">
     <cfRule type="duplicateValues" dxfId="193" priority="134"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1138">
+  <conditionalFormatting sqref="A1113">
     <cfRule type="duplicateValues" dxfId="192" priority="133"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1109">
+  <conditionalFormatting sqref="A1116">
     <cfRule type="duplicateValues" dxfId="191" priority="132"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1110">
-    <cfRule type="duplicateValues" dxfId="190" priority="131"/>
+  <conditionalFormatting sqref="A1118">
+    <cfRule type="duplicateValues" dxfId="190" priority="130"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1111">
-    <cfRule type="duplicateValues" dxfId="189" priority="130"/>
+  <conditionalFormatting sqref="A1127">
+    <cfRule type="duplicateValues" dxfId="189" priority="129"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1112">
-    <cfRule type="duplicateValues" dxfId="188" priority="129"/>
+  <conditionalFormatting sqref="A1119">
+    <cfRule type="duplicateValues" dxfId="188" priority="128"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1113">
-    <cfRule type="duplicateValues" dxfId="187" priority="128"/>
+  <conditionalFormatting sqref="A1128">
+    <cfRule type="duplicateValues" dxfId="187" priority="127"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1116">
-    <cfRule type="duplicateValues" dxfId="186" priority="127"/>
+  <conditionalFormatting sqref="A1120">
+    <cfRule type="duplicateValues" dxfId="186" priority="126"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1118">
+  <conditionalFormatting sqref="A1121">
     <cfRule type="duplicateValues" dxfId="185" priority="125"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1127">
+  <conditionalFormatting sqref="A1122">
     <cfRule type="duplicateValues" dxfId="184" priority="124"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1119">
+  <conditionalFormatting sqref="A1123">
     <cfRule type="duplicateValues" dxfId="183" priority="123"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1128">
+  <conditionalFormatting sqref="A1124">
     <cfRule type="duplicateValues" dxfId="182" priority="122"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1120">
+  <conditionalFormatting sqref="A1125">
     <cfRule type="duplicateValues" dxfId="181" priority="121"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1121">
+  <conditionalFormatting sqref="A1126">
     <cfRule type="duplicateValues" dxfId="180" priority="120"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1122">
-    <cfRule type="duplicateValues" dxfId="179" priority="119"/>
+  <conditionalFormatting sqref="A1117">
+    <cfRule type="duplicateValues" dxfId="179" priority="1037"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1123">
+  <conditionalFormatting sqref="A1114">
     <cfRule type="duplicateValues" dxfId="178" priority="118"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1124">
+  <conditionalFormatting sqref="A1148">
     <cfRule type="duplicateValues" dxfId="177" priority="117"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1125">
+  <conditionalFormatting sqref="A1139">
     <cfRule type="duplicateValues" dxfId="176" priority="116"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1126">
+  <conditionalFormatting sqref="A1140">
     <cfRule type="duplicateValues" dxfId="175" priority="115"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1117">
-    <cfRule type="duplicateValues" dxfId="174" priority="1032"/>
+  <conditionalFormatting sqref="A1141:A1142">
+    <cfRule type="duplicateValues" dxfId="174" priority="114"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1114">
+  <conditionalFormatting sqref="A1143">
     <cfRule type="duplicateValues" dxfId="173" priority="113"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1148">
+  <conditionalFormatting sqref="A1145">
     <cfRule type="duplicateValues" dxfId="172" priority="112"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1139">
+  <conditionalFormatting sqref="A1146">
     <cfRule type="duplicateValues" dxfId="171" priority="111"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1140">
+  <conditionalFormatting sqref="A1147">
     <cfRule type="duplicateValues" dxfId="170" priority="110"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1141:A1142">
+  <conditionalFormatting sqref="A1149:A1152">
     <cfRule type="duplicateValues" dxfId="169" priority="109"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1143">
+  <conditionalFormatting sqref="A457">
     <cfRule type="duplicateValues" dxfId="168" priority="108"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1145">
-    <cfRule type="duplicateValues" dxfId="167" priority="107"/>
+  <conditionalFormatting sqref="A1144 A1027 A1008:A1009 A950 A865:A866 A5:A138 A810:A811 A140:A332 A825 A756:A778 A798:A804 A780:A794 A829 A968 A1084 A1104 A1107 A334:A456 A1158 A458:A505 A507:A556 A558:A750">
+    <cfRule type="duplicateValues" dxfId="167" priority="1104"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1146">
-    <cfRule type="duplicateValues" dxfId="166" priority="106"/>
+  <conditionalFormatting sqref="A1161">
+    <cfRule type="duplicateValues" dxfId="166" priority="107"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1147">
-    <cfRule type="duplicateValues" dxfId="165" priority="105"/>
+  <conditionalFormatting sqref="A1159:A1160">
+    <cfRule type="duplicateValues" dxfId="165" priority="106"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1149:A1152">
+  <conditionalFormatting sqref="A1162:A1164">
     <cfRule type="duplicateValues" dxfId="164" priority="104"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A457">
+  <conditionalFormatting sqref="A1165">
     <cfRule type="duplicateValues" dxfId="163" priority="103"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1144 A1027 A1008:A1009 A950 A865:A866 A5:A138 A810:A811 A140:A332 A825 A756:A778 A798:A804 A780:A794 A829 A968 A1084 A1104 A1107 A334:A456 A1158 A458:A505 A507:A556 A558:A750">
-    <cfRule type="duplicateValues" dxfId="162" priority="1099"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1161">
-    <cfRule type="duplicateValues" dxfId="161" priority="102"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1159:A1160">
-    <cfRule type="duplicateValues" dxfId="160" priority="101"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1162:A1164">
-    <cfRule type="duplicateValues" dxfId="159" priority="99"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1165">
-    <cfRule type="duplicateValues" dxfId="158" priority="98"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A1166">
-    <cfRule type="duplicateValues" dxfId="157" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1167">
-    <cfRule type="duplicateValues" dxfId="156" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1153">
-    <cfRule type="duplicateValues" dxfId="155" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1157">
-    <cfRule type="duplicateValues" dxfId="154" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1154">
-    <cfRule type="duplicateValues" dxfId="153" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1155">
-    <cfRule type="duplicateValues" dxfId="152" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1156">
-    <cfRule type="duplicateValues" dxfId="151" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A830:A841">
-    <cfRule type="duplicateValues" dxfId="150" priority="1122"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="1127"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:C1277">
-    <cfRule type="duplicateValues" dxfId="149" priority="1144"/>
+  <conditionalFormatting sqref="C5:C1286">
+    <cfRule type="duplicateValues" dxfId="154" priority="1149"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A506">
+    <cfRule type="duplicateValues" dxfId="153" priority="94"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1115">
+    <cfRule type="duplicateValues" dxfId="152" priority="93"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1083">
+    <cfRule type="duplicateValues" dxfId="151" priority="92"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A557">
+    <cfRule type="duplicateValues" dxfId="150" priority="91"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1129">
+    <cfRule type="duplicateValues" dxfId="149" priority="90"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1134:A1135">
     <cfRule type="duplicateValues" dxfId="148" priority="89"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1115">
+  <conditionalFormatting sqref="A1081">
     <cfRule type="duplicateValues" dxfId="147" priority="88"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1083">
+  <conditionalFormatting sqref="A1168">
     <cfRule type="duplicateValues" dxfId="146" priority="87"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A557">
+  <conditionalFormatting sqref="A1169">
     <cfRule type="duplicateValues" dxfId="145" priority="86"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1129">
+  <conditionalFormatting sqref="A1170">
     <cfRule type="duplicateValues" dxfId="144" priority="85"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1134:A1135">
+  <conditionalFormatting sqref="A1171">
     <cfRule type="duplicateValues" dxfId="143" priority="84"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1081">
+  <conditionalFormatting sqref="A1172">
     <cfRule type="duplicateValues" dxfId="142" priority="83"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1168">
+  <conditionalFormatting sqref="A1173">
     <cfRule type="duplicateValues" dxfId="141" priority="82"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1169">
+  <conditionalFormatting sqref="A1242 A1193:A1194 A1210:A1213 A1249">
     <cfRule type="duplicateValues" dxfId="140" priority="81"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1170">
+  <conditionalFormatting sqref="A1174">
     <cfRule type="duplicateValues" dxfId="139" priority="80"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1171">
+  <conditionalFormatting sqref="A1175">
     <cfRule type="duplicateValues" dxfId="138" priority="79"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1172">
+  <conditionalFormatting sqref="A1176">
     <cfRule type="duplicateValues" dxfId="137" priority="78"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1173">
+  <conditionalFormatting sqref="A1177">
     <cfRule type="duplicateValues" dxfId="136" priority="77"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1242 A1193:A1194 A1210:A1213 A1249">
+  <conditionalFormatting sqref="A1184">
     <cfRule type="duplicateValues" dxfId="135" priority="76"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1174">
+  <conditionalFormatting sqref="A1178">
     <cfRule type="duplicateValues" dxfId="134" priority="75"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1175">
+  <conditionalFormatting sqref="A1183">
     <cfRule type="duplicateValues" dxfId="133" priority="74"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1176">
+  <conditionalFormatting sqref="A1179:A1182">
     <cfRule type="duplicateValues" dxfId="132" priority="73"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1177">
+  <conditionalFormatting sqref="A1185">
     <cfRule type="duplicateValues" dxfId="131" priority="72"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1184">
+  <conditionalFormatting sqref="A1186">
     <cfRule type="duplicateValues" dxfId="130" priority="71"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1178">
+  <conditionalFormatting sqref="A1187">
     <cfRule type="duplicateValues" dxfId="129" priority="70"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1183">
+  <conditionalFormatting sqref="A1188">
     <cfRule type="duplicateValues" dxfId="128" priority="69"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1179:A1182">
+  <conditionalFormatting sqref="A1189">
     <cfRule type="duplicateValues" dxfId="127" priority="68"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1185">
+  <conditionalFormatting sqref="A1190">
     <cfRule type="duplicateValues" dxfId="126" priority="67"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1186">
+  <conditionalFormatting sqref="A1191">
     <cfRule type="duplicateValues" dxfId="125" priority="66"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1187">
+  <conditionalFormatting sqref="A1192">
     <cfRule type="duplicateValues" dxfId="124" priority="65"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1188">
+  <conditionalFormatting sqref="A1195:A1198">
     <cfRule type="duplicateValues" dxfId="123" priority="64"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1189">
+  <conditionalFormatting sqref="A1199">
     <cfRule type="duplicateValues" dxfId="122" priority="63"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1190">
+  <conditionalFormatting sqref="A1200">
     <cfRule type="duplicateValues" dxfId="121" priority="62"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1191">
+  <conditionalFormatting sqref="A1201">
     <cfRule type="duplicateValues" dxfId="120" priority="61"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1192">
+  <conditionalFormatting sqref="A1202">
     <cfRule type="duplicateValues" dxfId="119" priority="60"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1195:A1198">
+  <conditionalFormatting sqref="A1203:A1204">
     <cfRule type="duplicateValues" dxfId="118" priority="59"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1199">
+  <conditionalFormatting sqref="A1205">
     <cfRule type="duplicateValues" dxfId="117" priority="58"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1200">
+  <conditionalFormatting sqref="A1206">
     <cfRule type="duplicateValues" dxfId="116" priority="57"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1201">
-    <cfRule type="duplicateValues" dxfId="115" priority="56"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1202">
-    <cfRule type="duplicateValues" dxfId="114" priority="55"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1203:A1204">
-    <cfRule type="duplicateValues" dxfId="113" priority="54"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1205">
-    <cfRule type="duplicateValues" dxfId="112" priority="53"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1206">
-    <cfRule type="duplicateValues" dxfId="111" priority="52"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A1207">
-    <cfRule type="duplicateValues" dxfId="110" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1208">
-    <cfRule type="duplicateValues" dxfId="109" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1215">
-    <cfRule type="duplicateValues" dxfId="108" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1214">
-    <cfRule type="duplicateValues" dxfId="107" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1216">
+    <cfRule type="duplicateValues" dxfId="111" priority="50"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1217">
+    <cfRule type="duplicateValues" dxfId="110" priority="49"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1218">
+    <cfRule type="duplicateValues" dxfId="109" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1219">
+    <cfRule type="duplicateValues" dxfId="108" priority="47"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1220:A1221">
+    <cfRule type="duplicateValues" dxfId="107" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1222:A1223">
     <cfRule type="duplicateValues" dxfId="106" priority="45"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1217">
+  <conditionalFormatting sqref="A1224">
     <cfRule type="duplicateValues" dxfId="105" priority="44"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1218">
+  <conditionalFormatting sqref="A1225">
     <cfRule type="duplicateValues" dxfId="104" priority="43"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1219">
+  <conditionalFormatting sqref="A1226">
     <cfRule type="duplicateValues" dxfId="103" priority="42"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1220:A1221">
+  <conditionalFormatting sqref="A1227">
     <cfRule type="duplicateValues" dxfId="102" priority="41"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1222:A1223">
+  <conditionalFormatting sqref="A1228">
     <cfRule type="duplicateValues" dxfId="101" priority="40"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1224">
+  <conditionalFormatting sqref="A1229:A1230">
     <cfRule type="duplicateValues" dxfId="100" priority="39"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1225">
+  <conditionalFormatting sqref="A1231">
     <cfRule type="duplicateValues" dxfId="99" priority="38"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1226">
+  <conditionalFormatting sqref="A1232">
     <cfRule type="duplicateValues" dxfId="98" priority="37"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1227">
+  <conditionalFormatting sqref="A1233">
     <cfRule type="duplicateValues" dxfId="97" priority="36"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1228">
+  <conditionalFormatting sqref="A1234">
     <cfRule type="duplicateValues" dxfId="96" priority="35"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1229:A1230">
+  <conditionalFormatting sqref="A1235">
     <cfRule type="duplicateValues" dxfId="95" priority="34"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1231">
+  <conditionalFormatting sqref="A1236">
     <cfRule type="duplicateValues" dxfId="94" priority="33"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1232">
+  <conditionalFormatting sqref="A1209">
     <cfRule type="duplicateValues" dxfId="93" priority="32"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1233">
+  <conditionalFormatting sqref="A1237">
     <cfRule type="duplicateValues" dxfId="92" priority="31"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1234">
+  <conditionalFormatting sqref="A1238">
     <cfRule type="duplicateValues" dxfId="91" priority="30"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1235">
+  <conditionalFormatting sqref="A1239">
     <cfRule type="duplicateValues" dxfId="90" priority="29"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1236">
+  <conditionalFormatting sqref="A1240">
     <cfRule type="duplicateValues" dxfId="89" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1209">
+  <conditionalFormatting sqref="A1241">
     <cfRule type="duplicateValues" dxfId="88" priority="27"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1237">
+  <conditionalFormatting sqref="A1243">
     <cfRule type="duplicateValues" dxfId="87" priority="26"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1238">
+  <conditionalFormatting sqref="A1244:A1245">
     <cfRule type="duplicateValues" dxfId="86" priority="25"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1239">
+  <conditionalFormatting sqref="A1246">
     <cfRule type="duplicateValues" dxfId="85" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1240">
+  <conditionalFormatting sqref="A1247">
     <cfRule type="duplicateValues" dxfId="84" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1241">
+  <conditionalFormatting sqref="A1248">
     <cfRule type="duplicateValues" dxfId="83" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1243">
+  <conditionalFormatting sqref="A1250">
     <cfRule type="duplicateValues" dxfId="82" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1244:A1245">
+  <conditionalFormatting sqref="A1251:A1252">
     <cfRule type="duplicateValues" dxfId="81" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1246">
+  <conditionalFormatting sqref="A1253">
     <cfRule type="duplicateValues" dxfId="80" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1247">
+  <conditionalFormatting sqref="A1255">
     <cfRule type="duplicateValues" dxfId="79" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1248">
+  <conditionalFormatting sqref="A1256:A1258">
     <cfRule type="duplicateValues" dxfId="78" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1250">
+  <conditionalFormatting sqref="A1259">
     <cfRule type="duplicateValues" dxfId="77" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1251:A1252">
+  <conditionalFormatting sqref="A1260">
     <cfRule type="duplicateValues" dxfId="76" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1253">
+  <conditionalFormatting sqref="A1261">
     <cfRule type="duplicateValues" dxfId="75" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1255">
+  <conditionalFormatting sqref="A1262">
     <cfRule type="duplicateValues" dxfId="74" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1256:A1258">
+  <conditionalFormatting sqref="A1263">
     <cfRule type="duplicateValues" dxfId="73" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1259">
+  <conditionalFormatting sqref="A1264">
     <cfRule type="duplicateValues" dxfId="72" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1260">
+  <conditionalFormatting sqref="A1267">
     <cfRule type="duplicateValues" dxfId="71" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1261">
+  <conditionalFormatting sqref="A1268:A1269">
     <cfRule type="duplicateValues" dxfId="70" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1262">
+  <conditionalFormatting sqref="A1270">
     <cfRule type="duplicateValues" dxfId="69" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1263">
+  <conditionalFormatting sqref="A1271">
     <cfRule type="duplicateValues" dxfId="68" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1264">
+  <conditionalFormatting sqref="A1272">
     <cfRule type="duplicateValues" dxfId="67" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1267">
+  <conditionalFormatting sqref="A1273">
     <cfRule type="duplicateValues" dxfId="66" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1268:A1269">
+  <conditionalFormatting sqref="A1274">
     <cfRule type="duplicateValues" dxfId="65" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1270">
+  <conditionalFormatting sqref="A1275">
     <cfRule type="duplicateValues" dxfId="64" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1271">
+  <conditionalFormatting sqref="A1276">
     <cfRule type="duplicateValues" dxfId="63" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1272">
+  <conditionalFormatting sqref="A1277">
     <cfRule type="duplicateValues" dxfId="62" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H442 H445:H1272" xr:uid="{D78E5263-009F-4169-9D43-5AC7F53EA8E4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H442 H445:H1277" xr:uid="{D78E5263-009F-4169-9D43-5AC7F53EA8E4}">
       <formula1>L_Categoria_Forma_Pago</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J442 J445:J1253 J1255:J1264" xr:uid="{872D18BB-0B5C-46BF-82A3-D08D1154E2FE}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O5:O523 O1159:O1160 O1162:O1165 O525:O1157 O1168:O1277" xr:uid="{1BFDD124-CCE9-4570-868F-5B263AD53025}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O5:O523 O1159:O1160 O1162:O1165 O525:O1157 O1168:O1286" xr:uid="{1BFDD124-CCE9-4570-868F-5B263AD53025}">
       <formula1>L_CRM_Productos</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K1277" xr:uid="{58405B9E-20DF-454D-BC62-E451163F9E41}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K1286" xr:uid="{58405B9E-20DF-454D-BC62-E451163F9E41}">
       <formula1>L_Moneda</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I1277" xr:uid="{A0979DBF-EEDC-4D67-A284-CA018BD1E8B8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I1286" xr:uid="{A0979DBF-EEDC-4D67-A284-CA018BD1E8B8}">
       <formula1>L_Forma_Pago</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B1277" xr:uid="{97AE782A-CC4E-4AA8-8CE3-8093060E1D19}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B1286" xr:uid="{97AE782A-CC4E-4AA8-8CE3-8093060E1D19}">
       <formula1>L_Status_Factura</formula1>
     </dataValidation>
   </dataValidations>
@@ -82165,23 +82560,23 @@
     </row>
     <row r="2" spans="1:2" ht="30" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>2101</v>
+        <v>2111</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>2102</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="10" t="s">
-        <v>2101</v>
+        <v>2111</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>2102</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
-        <v>2103</v>
+        <v>2113</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>113</v>
@@ -82189,7 +82584,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
-        <v>2104</v>
+        <v>2114</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>30</v>
@@ -82197,7 +82592,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
-        <v>2105</v>
+        <v>2115</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>48</v>
@@ -82205,7 +82600,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
-        <v>2106</v>
+        <v>2116</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>24</v>
@@ -82213,7 +82608,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="5" t="s">
-        <v>2107</v>
+        <v>2117</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>34</v>
@@ -82221,7 +82616,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="5" t="s">
-        <v>2108</v>
+        <v>2118</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>42</v>
@@ -82229,7 +82624,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>43</v>
@@ -82237,7 +82632,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="5" t="s">
-        <v>2110</v>
+        <v>2120</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>52</v>
@@ -82245,7 +82640,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
-        <v>2111</v>
+        <v>2121</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>60</v>
@@ -82253,7 +82648,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="5" t="s">
-        <v>2112</v>
+        <v>2122</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>61</v>
@@ -82261,7 +82656,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
-        <v>2113</v>
+        <v>2123</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>74</v>
@@ -82269,7 +82664,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="5" t="s">
-        <v>2114</v>
+        <v>2124</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>79</v>
@@ -82277,7 +82672,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="5" t="s">
-        <v>2115</v>
+        <v>2125</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>81</v>
@@ -82285,7 +82680,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="5" t="s">
-        <v>2116</v>
+        <v>2126</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>86</v>
@@ -82293,7 +82688,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="5" t="s">
-        <v>2117</v>
+        <v>2127</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>90</v>
@@ -82301,7 +82696,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="5" t="s">
-        <v>2118</v>
+        <v>2128</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>104</v>
@@ -82309,7 +82704,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="5" t="s">
-        <v>2119</v>
+        <v>2129</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>120</v>
@@ -82317,7 +82712,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="5" t="s">
-        <v>2120</v>
+        <v>2130</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>129</v>
@@ -82325,7 +82720,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="5" t="s">
-        <v>2121</v>
+        <v>2131</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>127</v>
@@ -82333,7 +82728,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="5" t="s">
-        <v>2122</v>
+        <v>2132</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>139</v>
@@ -82341,7 +82736,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="5" t="s">
-        <v>2123</v>
+        <v>2133</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>163</v>
@@ -82349,7 +82744,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="5" t="s">
-        <v>2124</v>
+        <v>2134</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>232</v>
@@ -82357,7 +82752,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="5" t="s">
-        <v>2125</v>
+        <v>2135</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>249</v>
@@ -82365,7 +82760,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="5" t="s">
-        <v>2126</v>
+        <v>2136</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>290</v>
@@ -82373,7 +82768,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="5" t="s">
-        <v>2127</v>
+        <v>2137</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>351</v>
@@ -82381,7 +82776,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="5" t="s">
-        <v>2128</v>
+        <v>2138</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>1519</v>
@@ -82389,7 +82784,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="5" t="s">
-        <v>2129</v>
+        <v>2139</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>816</v>
@@ -82397,7 +82792,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="5" t="s">
-        <v>2130</v>
+        <v>2140</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>819</v>
@@ -82405,7 +82800,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="5" t="s">
-        <v>2131</v>
+        <v>2141</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>355</v>
@@ -82413,7 +82808,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="5" t="s">
-        <v>2132</v>
+        <v>2142</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>371</v>
@@ -82421,7 +82816,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="5" t="s">
-        <v>2133</v>
+        <v>2143</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>376</v>
@@ -82429,7 +82824,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="5" t="s">
-        <v>2134</v>
+        <v>2144</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>423</v>
@@ -82437,7 +82832,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="5" t="s">
-        <v>2135</v>
+        <v>2145</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>500</v>
@@ -82445,7 +82840,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="5" t="s">
-        <v>2136</v>
+        <v>2146</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>550</v>
@@ -82453,7 +82848,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="5" t="s">
-        <v>2137</v>
+        <v>2147</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>552</v>
@@ -82461,7 +82856,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="5" t="s">
-        <v>2138</v>
+        <v>2148</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>553</v>
@@ -82469,7 +82864,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="5" t="s">
-        <v>2139</v>
+        <v>2149</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>576</v>
@@ -82477,7 +82872,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="5" t="s">
-        <v>2140</v>
+        <v>2150</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>624</v>
@@ -82485,7 +82880,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="5" t="s">
-        <v>2141</v>
+        <v>2151</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>629</v>
@@ -82493,7 +82888,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="5" t="s">
-        <v>2142</v>
+        <v>2152</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>663</v>
@@ -82501,7 +82896,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="5" t="s">
-        <v>2143</v>
+        <v>2153</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>668</v>
@@ -82509,7 +82904,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="5" t="s">
-        <v>2144</v>
+        <v>2154</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>718</v>
@@ -82517,7 +82912,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="5" t="s">
-        <v>2145</v>
+        <v>2155</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>719</v>
@@ -82525,7 +82920,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="5" t="s">
-        <v>2146</v>
+        <v>2156</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>741</v>
@@ -82533,7 +82928,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="5" t="s">
-        <v>2147</v>
+        <v>2157</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>783</v>
@@ -82541,7 +82936,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="5" t="s">
-        <v>2148</v>
+        <v>2158</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>775</v>
@@ -82549,7 +82944,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="5" t="s">
-        <v>2149</v>
+        <v>2159</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>817</v>
@@ -82557,7 +82952,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="5" t="s">
-        <v>2150</v>
+        <v>2160</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>818</v>
@@ -82571,7 +82966,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="5" t="s">
-        <v>2151</v>
+        <v>2161</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>1125</v>
@@ -82579,7 +82974,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="5" t="s">
-        <v>2152</v>
+        <v>2162</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>1182</v>
@@ -82587,7 +82982,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="5" t="s">
-        <v>2153</v>
+        <v>2163</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>1192</v>
@@ -82595,7 +82990,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="5" t="s">
-        <v>2154</v>
+        <v>2164</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>1195</v>
@@ -82603,7 +82998,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="5" t="s">
-        <v>2155</v>
+        <v>2165</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>1196</v>
@@ -82611,7 +83006,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="5" t="s">
-        <v>2156</v>
+        <v>2166</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>789</v>
@@ -82625,7 +83020,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="5" t="s">
-        <v>2157</v>
+        <v>2167</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>836</v>
@@ -82633,7 +83028,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="5" t="s">
-        <v>2158</v>
+        <v>2168</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>873</v>
@@ -82641,7 +83036,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="5" t="s">
-        <v>2159</v>
+        <v>2169</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>895</v>
@@ -82649,7 +83044,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="5" t="s">
-        <v>2160</v>
+        <v>2170</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>906</v>
@@ -82657,7 +83052,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="5" t="s">
-        <v>2161</v>
+        <v>2171</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>503</v>
@@ -82665,7 +83060,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="5" t="s">
-        <v>2162</v>
+        <v>2172</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>926</v>
@@ -82673,7 +83068,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="5" t="s">
-        <v>2163</v>
+        <v>2173</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>1310</v>
@@ -82681,7 +83076,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="5" t="s">
-        <v>2164</v>
+        <v>2174</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>1328</v>
@@ -82695,7 +83090,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="5" t="s">
-        <v>2165</v>
+        <v>2175</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>1452</v>
@@ -82703,7 +83098,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="5" t="s">
-        <v>2166</v>
+        <v>2176</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>1479</v>
@@ -82711,7 +83106,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="5" t="s">
-        <v>2167</v>
+        <v>2177</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>1534</v>
@@ -82719,7 +83114,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="5" t="s">
-        <v>2168</v>
+        <v>2178</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>1537</v>
@@ -82727,7 +83122,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="5" t="s">
-        <v>2169</v>
+        <v>2179</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>1538</v>
@@ -82741,7 +83136,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="5" t="s">
-        <v>2170</v>
+        <v>2180</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>1656</v>
@@ -82749,7 +83144,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="5" t="s">
-        <v>2171</v>
+        <v>2181</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>1768</v>
@@ -82757,7 +83152,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="5" t="s">
-        <v>2172</v>
+        <v>2182</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>1899</v>
@@ -82765,7 +83160,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="5" t="s">
-        <v>2173</v>
+        <v>2183</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>1408</v>
@@ -82773,7 +83168,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="5" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>1981</v>
@@ -83313,7 +83708,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>2174</v>
+        <v>2184</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>10</v>
@@ -83322,7 +83717,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>2175</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -83333,13 +83728,13 @@
         <v>305</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>2176</v>
+        <v>2186</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>2177</v>
+        <v>2187</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>27</v>
@@ -83353,7 +83748,7 @@
         <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>2178</v>
+        <v>2188</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>138</v>
@@ -83374,25 +83769,25 @@
       </c>
       <c r="E5" s="2"/>
       <c r="G5" s="5" t="s">
-        <v>2179</v>
+        <v>2189</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>1366</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>2180</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>2181</v>
+        <v>2191</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>221</v>
       </c>
       <c r="E6" s="2"/>
       <c r="G6" s="5" t="s">
-        <v>2182</v>
+        <v>2192</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>19</v>
@@ -83400,7 +83795,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="12" t="s">
-        <v>2183</v>
+        <v>2193</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>469</v>
@@ -83408,7 +83803,7 @@
       <c r="E7" s="2"/>
       <c r="G7" s="2"/>
       <c r="I7" s="1" t="s">
-        <v>2184</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -83421,7 +83816,7 @@
       <c r="E8" s="2"/>
       <c r="G8" s="2"/>
       <c r="I8" s="4" t="s">
-        <v>2185</v>
+        <v>2195</v>
       </c>
       <c r="K8" s="4"/>
     </row>

--- a/descargas/004_Facturacion_OP.xlsx
+++ b/descargas/004_Facturacion_OP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29721"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://corsusaadmin.sharepoint.com/sites/logistica/Documentos compartidos/0001 - Order to Delivery (O2D)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17352" documentId="13_ncr:1_{606EC6C8-0EFB-45A8-B918-4761875D348F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDE83960-6132-4182-8F5C-B458E67467FA}"/>
+  <xr:revisionPtr revIDLastSave="17470" documentId="13_ncr:1_{606EC6C8-0EFB-45A8-B918-4761875D348F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1102C49-B33C-437F-8F4A-A6C1ADA66275}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3C17B348-FD76-4BC1-AA35-95BA27518FCA}"/>
   </bookViews>
@@ -364,7 +364,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12563" uniqueCount="2196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12591" uniqueCount="2198">
   <si>
     <t>Correlativo_OPCI</t>
   </si>
@@ -6031,6 +6031,12 @@
   </si>
   <si>
     <t>FF01-0009623</t>
+  </si>
+  <si>
+    <t>OPCI-00001011</t>
+  </si>
+  <si>
+    <t>FF01-0009624</t>
   </si>
   <si>
     <t>OPCI-00000718</t>
@@ -11794,8 +11800,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0D5AF52D-47A5-4D5F-A79F-661EA8BB674F}" name="VTS_Facturacion_Cobranza" displayName="VTS_Facturacion_Cobranza" ref="A4:R1286" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
-  <autoFilter ref="A4:R1286" xr:uid="{34696AE4-14CB-4183-B0FB-814ED80D658B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0D5AF52D-47A5-4D5F-A79F-661EA8BB674F}" name="VTS_Facturacion_Cobranza" displayName="VTS_Facturacion_Cobranza" ref="A4:R1287" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
+  <autoFilter ref="A4:R1287" xr:uid="{34696AE4-14CB-4183-B0FB-814ED80D658B}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{BBF36776-9B9A-4B72-B735-884A99521443}" name="Correlativo_OPCI" dataDxfId="58" totalsRowDxfId="59"/>
     <tableColumn id="6" xr3:uid="{DEDB733E-082C-4E8F-9139-2D267E07DCD2}" name="Status_Factura" dataDxfId="56" totalsRowDxfId="57"/>
@@ -12203,11 +12209,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55855E85-EE23-48D0-9C26-185E482A360F}">
-  <dimension ref="A1:U1286"/>
+  <dimension ref="A1:U1287"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A1271" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L1280" sqref="L1280"/>
+      <pane ySplit="4" topLeftCell="A1125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T1144" sqref="T1144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="11.25"/>
@@ -60366,7 +60372,7 @@
         <v>1455</v>
       </c>
       <c r="B874" s="2" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C874" s="20" t="s">
         <v>1456</v>
@@ -60380,7 +60386,9 @@
       <c r="F874" s="32">
         <v>46042</v>
       </c>
-      <c r="G874" s="31"/>
+      <c r="G874" s="31">
+        <v>46044</v>
+      </c>
       <c r="H874" s="2" t="s">
         <v>46</v>
       </c>
@@ -60408,8 +60416,12 @@
       <c r="P874" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q874" s="4"/>
-      <c r="R874" s="4"/>
+      <c r="Q874" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R874" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="S874" s="4"/>
     </row>
     <row r="875" spans="1:19">
@@ -68728,7 +68740,7 @@
         <v>1716</v>
       </c>
       <c r="B1028" s="2" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C1028" s="20" t="s">
         <v>1717</v>
@@ -68742,7 +68754,9 @@
       <c r="F1028" s="32">
         <v>46044</v>
       </c>
-      <c r="G1028" s="31"/>
+      <c r="G1028" s="32">
+        <v>46044</v>
+      </c>
       <c r="H1028" s="2" t="s">
         <v>46</v>
       </c>
@@ -68770,8 +68784,12 @@
       <c r="P1028" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q1028" s="4"/>
-      <c r="R1028" s="4"/>
+      <c r="Q1028" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R1028" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="S1028" s="4"/>
     </row>
     <row r="1029" spans="1:19">
@@ -68836,7 +68854,7 @@
         <v>1720</v>
       </c>
       <c r="B1030" s="2" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C1030" s="20" t="s">
         <v>1721</v>
@@ -68850,7 +68868,9 @@
       <c r="F1030" s="32">
         <v>46044</v>
       </c>
-      <c r="G1030" s="31"/>
+      <c r="G1030" s="32">
+        <v>46044</v>
+      </c>
       <c r="H1030" s="2" t="s">
         <v>46</v>
       </c>
@@ -68878,8 +68898,12 @@
       <c r="P1030" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q1030" s="4"/>
-      <c r="R1030" s="4"/>
+      <c r="Q1030" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R1030" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="S1030" s="4"/>
     </row>
     <row r="1031" spans="1:19">
@@ -69531,7 +69555,7 @@
         <v>1740</v>
       </c>
       <c r="B1043" s="2" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C1043" s="20" t="s">
         <v>1741</v>
@@ -69543,7 +69567,9 @@
         <v>45987</v>
       </c>
       <c r="F1043" s="32"/>
-      <c r="G1043" s="31"/>
+      <c r="G1043" s="31">
+        <v>46044</v>
+      </c>
       <c r="H1043" s="2" t="s">
         <v>46</v>
       </c>
@@ -69571,8 +69597,12 @@
       <c r="P1043" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q1043" s="4"/>
-      <c r="R1043" s="4"/>
+      <c r="Q1043" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1043" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="S1043" s="4"/>
     </row>
     <row r="1044" spans="1:19">
@@ -70222,7 +70252,7 @@
         <v>867</v>
       </c>
       <c r="B1056" s="2" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C1056" s="20" t="s">
         <v>1761</v>
@@ -70236,7 +70266,9 @@
       <c r="F1056" s="32">
         <v>46044</v>
       </c>
-      <c r="G1056" s="31"/>
+      <c r="G1056" s="32">
+        <v>46044</v>
+      </c>
       <c r="H1056" s="2" t="s">
         <v>46</v>
       </c>
@@ -70264,8 +70296,12 @@
       <c r="P1056" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q1056" s="4"/>
-      <c r="R1056" s="4"/>
+      <c r="Q1056" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R1056" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="S1056" s="4"/>
     </row>
     <row r="1057" spans="1:19">
@@ -70273,7 +70309,7 @@
         <v>1762</v>
       </c>
       <c r="B1057" s="2" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C1057" s="20" t="s">
         <v>1763</v>
@@ -70287,7 +70323,9 @@
       <c r="F1057" s="32">
         <v>46044</v>
       </c>
-      <c r="G1057" s="31"/>
+      <c r="G1057" s="32">
+        <v>46044</v>
+      </c>
       <c r="H1057" s="2" t="s">
         <v>46</v>
       </c>
@@ -70315,8 +70353,12 @@
       <c r="P1057" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q1057" s="4"/>
-      <c r="R1057" s="4"/>
+      <c r="Q1057" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R1057" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="S1057" s="4"/>
     </row>
     <row r="1058" spans="1:19">
@@ -74596,38 +74638,38 @@
         <v>1890</v>
       </c>
       <c r="D1140" s="32">
-        <v>46005</v>
+        <v>46003</v>
       </c>
       <c r="E1140" s="32">
-        <v>46005</v>
+        <v>46003</v>
       </c>
       <c r="F1140" s="32"/>
       <c r="G1140" s="31">
-        <v>46015</v>
+        <v>46002</v>
       </c>
       <c r="H1140" s="2" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="I1140" s="5" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="J1140" s="15">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="K1140" s="20" t="s">
         <v>23</v>
       </c>
       <c r="L1140" s="14">
-        <v>21981.84</v>
+        <v>2688.14</v>
       </c>
       <c r="M1140" s="37">
         <v>1.18</v>
       </c>
       <c r="N1140" s="37">
-        <v>3.3730000000000002</v>
+        <v>3.37</v>
       </c>
       <c r="O1140" s="5" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="P1140" s="4" t="s">
         <v>25</v>
@@ -74636,7 +74678,7 @@
         <v>26</v>
       </c>
       <c r="R1140" s="4" t="s">
-        <v>683</v>
+        <v>27</v>
       </c>
       <c r="S1140" s="4"/>
     </row>
@@ -74673,7 +74715,7 @@
         <v>23</v>
       </c>
       <c r="L1141" s="14">
-        <v>7693.92</v>
+        <v>21981.84</v>
       </c>
       <c r="M1141" s="37">
         <v>1.18</v>
@@ -74682,7 +74724,7 @@
         <v>3.3730000000000002</v>
       </c>
       <c r="O1141" s="5" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="P1141" s="4" t="s">
         <v>25</v>
@@ -74697,13 +74739,13 @@
     </row>
     <row r="1142" spans="1:19">
       <c r="A1142" s="16" t="s">
-        <v>1891</v>
+        <v>1893</v>
       </c>
       <c r="B1142" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C1142" s="20" t="s">
-        <v>1892</v>
+        <v>1894</v>
       </c>
       <c r="D1142" s="32">
         <v>46005</v>
@@ -74728,7 +74770,7 @@
         <v>23</v>
       </c>
       <c r="L1142" s="14">
-        <v>722.4</v>
+        <v>7693.92</v>
       </c>
       <c r="M1142" s="37">
         <v>1.18</v>
@@ -74737,7 +74779,7 @@
         <v>3.3730000000000002</v>
       </c>
       <c r="O1142" s="5" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="P1142" s="4" t="s">
         <v>25</v>
@@ -74761,16 +74803,14 @@
         <v>1894</v>
       </c>
       <c r="D1143" s="32">
-        <v>46006</v>
+        <v>46005</v>
       </c>
       <c r="E1143" s="32">
-        <v>46006</v>
-      </c>
-      <c r="F1143" s="32">
-        <v>46044</v>
-      </c>
+        <v>46005</v>
+      </c>
+      <c r="F1143" s="32"/>
       <c r="G1143" s="31">
-        <v>46044</v>
+        <v>46015</v>
       </c>
       <c r="H1143" s="2" t="s">
         <v>46</v>
@@ -74785,7 +74825,7 @@
         <v>23</v>
       </c>
       <c r="L1143" s="14">
-        <v>3429.64</v>
+        <v>722.4</v>
       </c>
       <c r="M1143" s="37">
         <v>1.18</v>
@@ -74794,7 +74834,7 @@
         <v>3.3730000000000002</v>
       </c>
       <c r="O1143" s="5" t="s">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="P1143" s="4" t="s">
         <v>25</v>
@@ -74803,16 +74843,16 @@
         <v>26</v>
       </c>
       <c r="R1143" s="4" t="s">
-        <v>27</v>
+        <v>683</v>
       </c>
       <c r="S1143" s="4"/>
     </row>
     <row r="1144" spans="1:19">
-      <c r="A1144" s="50" t="s">
+      <c r="A1144" s="16" t="s">
         <v>1895</v>
       </c>
       <c r="B1144" s="2" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C1144" s="20" t="s">
         <v>1896</v>
@@ -74826,7 +74866,9 @@
       <c r="F1144" s="32">
         <v>46044</v>
       </c>
-      <c r="G1144" s="31"/>
+      <c r="G1144" s="31">
+        <v>46044</v>
+      </c>
       <c r="H1144" s="2" t="s">
         <v>46</v>
       </c>
@@ -74840,7 +74882,7 @@
         <v>23</v>
       </c>
       <c r="L1144" s="14">
-        <v>4351.42</v>
+        <v>3429.64</v>
       </c>
       <c r="M1144" s="37">
         <v>1.18</v>
@@ -74849,17 +74891,21 @@
         <v>3.3730000000000002</v>
       </c>
       <c r="O1144" s="5" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="P1144" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q1144" s="4"/>
-      <c r="R1144" s="4"/>
+      <c r="Q1144" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1144" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="S1144" s="4"/>
     </row>
     <row r="1145" spans="1:19">
-      <c r="A1145" s="16" t="s">
+      <c r="A1145" s="50" t="s">
         <v>1897</v>
       </c>
       <c r="B1145" s="2" t="s">
@@ -74875,10 +74921,10 @@
         <v>46006</v>
       </c>
       <c r="F1145" s="32">
-        <v>46036</v>
+        <v>46044</v>
       </c>
       <c r="G1145" s="31">
-        <v>46031</v>
+        <v>46044</v>
       </c>
       <c r="H1145" s="2" t="s">
         <v>46</v>
@@ -74893,7 +74939,7 @@
         <v>23</v>
       </c>
       <c r="L1145" s="14">
-        <v>45119.43</v>
+        <v>4351.42</v>
       </c>
       <c r="M1145" s="37">
         <v>1.18</v>
@@ -74902,7 +74948,7 @@
         <v>3.3730000000000002</v>
       </c>
       <c r="O1145" s="5" t="s">
-        <v>1899</v>
+        <v>48</v>
       </c>
       <c r="P1145" s="4" t="s">
         <v>25</v>
@@ -74917,38 +74963,40 @@
     </row>
     <row r="1146" spans="1:19">
       <c r="A1146" s="16" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B1146" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1146" s="20" t="s">
         <v>1900</v>
-      </c>
-      <c r="B1146" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1146" s="20" t="s">
-        <v>1901</v>
       </c>
       <c r="D1146" s="32">
         <v>46006</v>
       </c>
       <c r="E1146" s="32">
-        <v>46009</v>
-      </c>
-      <c r="F1146" s="32"/>
+        <v>46006</v>
+      </c>
+      <c r="F1146" s="32">
+        <v>46036</v>
+      </c>
       <c r="G1146" s="31">
-        <v>46038</v>
+        <v>46031</v>
       </c>
       <c r="H1146" s="2" t="s">
         <v>46</v>
       </c>
       <c r="I1146" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J1146" s="15">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K1146" s="20" t="s">
         <v>23</v>
       </c>
       <c r="L1146" s="14">
-        <v>98029.84</v>
+        <v>45119.43</v>
       </c>
       <c r="M1146" s="37">
         <v>1.18</v>
@@ -74957,16 +75005,16 @@
         <v>3.3730000000000002</v>
       </c>
       <c r="O1146" s="5" t="s">
-        <v>74</v>
+        <v>1901</v>
       </c>
       <c r="P1146" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q1146" s="4" t="s">
-        <v>1306</v>
+        <v>26</v>
       </c>
       <c r="R1146" s="4" t="s">
-        <v>683</v>
+        <v>27</v>
       </c>
       <c r="S1146" s="4"/>
     </row>
@@ -74975,7 +75023,7 @@
         <v>1902</v>
       </c>
       <c r="B1147" s="2" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C1147" s="20" t="s">
         <v>1903</v>
@@ -74984,10 +75032,12 @@
         <v>46006</v>
       </c>
       <c r="E1147" s="32">
-        <v>46008</v>
+        <v>46009</v>
       </c>
       <c r="F1147" s="32"/>
-      <c r="G1147" s="31"/>
+      <c r="G1147" s="31">
+        <v>46038</v>
+      </c>
       <c r="H1147" s="2" t="s">
         <v>46</v>
       </c>
@@ -75001,7 +75051,7 @@
         <v>23</v>
       </c>
       <c r="L1147" s="14">
-        <v>5858.11</v>
+        <v>98029.84</v>
       </c>
       <c r="M1147" s="37">
         <v>1.18</v>
@@ -75015,8 +75065,12 @@
       <c r="P1147" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q1147" s="4"/>
-      <c r="R1147" s="4"/>
+      <c r="Q1147" s="4" t="s">
+        <v>1306</v>
+      </c>
+      <c r="R1147" s="4" t="s">
+        <v>683</v>
+      </c>
       <c r="S1147" s="4"/>
     </row>
     <row r="1148" spans="1:19">
@@ -75033,11 +75087,9 @@
         <v>46006</v>
       </c>
       <c r="E1148" s="32">
-        <v>46006</v>
-      </c>
-      <c r="F1148" s="32">
-        <v>46073</v>
-      </c>
+        <v>46008</v>
+      </c>
+      <c r="F1148" s="32"/>
       <c r="G1148" s="31"/>
       <c r="H1148" s="2" t="s">
         <v>46</v>
@@ -75052,7 +75104,7 @@
         <v>23</v>
       </c>
       <c r="L1148" s="14">
-        <v>30792.98</v>
+        <v>5858.11</v>
       </c>
       <c r="M1148" s="37">
         <v>1.18</v>
@@ -75061,7 +75113,7 @@
         <v>3.3730000000000002</v>
       </c>
       <c r="O1148" s="5" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="P1148" s="4" t="s">
         <v>25</v>
@@ -75071,69 +75123,65 @@
       <c r="S1148" s="4"/>
     </row>
     <row r="1149" spans="1:19">
-      <c r="A1149" s="13" t="s">
+      <c r="A1149" s="16" t="s">
         <v>1906</v>
       </c>
       <c r="B1149" s="2" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C1149" s="20" t="s">
         <v>1907</v>
       </c>
       <c r="D1149" s="32">
-        <v>46007</v>
+        <v>46006</v>
       </c>
       <c r="E1149" s="32">
-        <v>46007</v>
-      </c>
-      <c r="F1149" s="32"/>
-      <c r="G1149" s="31">
-        <v>46021</v>
-      </c>
+        <v>46006</v>
+      </c>
+      <c r="F1149" s="32">
+        <v>46073</v>
+      </c>
+      <c r="G1149" s="31"/>
       <c r="H1149" s="2" t="s">
         <v>46</v>
       </c>
       <c r="I1149" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J1149" s="15">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K1149" s="20" t="s">
         <v>23</v>
       </c>
       <c r="L1149" s="14">
-        <v>5547.76</v>
+        <v>30792.98</v>
       </c>
       <c r="M1149" s="37">
         <v>1.18</v>
       </c>
       <c r="N1149" s="37">
-        <v>3.375</v>
+        <v>3.3730000000000002</v>
       </c>
       <c r="O1149" s="5" t="s">
-        <v>371</v>
+        <v>113</v>
       </c>
       <c r="P1149" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q1149" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="R1149" s="4" t="s">
-        <v>683</v>
-      </c>
+      <c r="Q1149" s="4"/>
+      <c r="R1149" s="4"/>
       <c r="S1149" s="4"/>
     </row>
     <row r="1150" spans="1:19">
       <c r="A1150" s="13" t="s">
-        <v>1906</v>
+        <v>1908</v>
       </c>
       <c r="B1150" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C1150" s="20" t="s">
-        <v>1907</v>
+        <v>1909</v>
       </c>
       <c r="D1150" s="32">
         <v>46007</v>
@@ -75158,7 +75206,7 @@
         <v>23</v>
       </c>
       <c r="L1150" s="14">
-        <v>56461.84</v>
+        <v>5547.76</v>
       </c>
       <c r="M1150" s="37">
         <v>1.18</v>
@@ -75167,7 +75215,7 @@
         <v>3.375</v>
       </c>
       <c r="O1150" s="5" t="s">
-        <v>1656</v>
+        <v>371</v>
       </c>
       <c r="P1150" s="4" t="s">
         <v>25</v>
@@ -75182,13 +75230,13 @@
     </row>
     <row r="1151" spans="1:19">
       <c r="A1151" s="13" t="s">
-        <v>1906</v>
+        <v>1908</v>
       </c>
       <c r="B1151" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C1151" s="20" t="s">
-        <v>1907</v>
+        <v>1909</v>
       </c>
       <c r="D1151" s="32">
         <v>46007</v>
@@ -75213,7 +75261,7 @@
         <v>23</v>
       </c>
       <c r="L1151" s="14">
-        <v>185827.76</v>
+        <v>56461.84</v>
       </c>
       <c r="M1151" s="37">
         <v>1.18</v>
@@ -75222,7 +75270,7 @@
         <v>3.375</v>
       </c>
       <c r="O1151" s="5" t="s">
-        <v>86</v>
+        <v>1656</v>
       </c>
       <c r="P1151" s="4" t="s">
         <v>25</v>
@@ -75237,13 +75285,13 @@
     </row>
     <row r="1152" spans="1:19">
       <c r="A1152" s="13" t="s">
-        <v>1906</v>
+        <v>1908</v>
       </c>
       <c r="B1152" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C1152" s="20" t="s">
-        <v>1907</v>
+        <v>1909</v>
       </c>
       <c r="D1152" s="32">
         <v>46007</v>
@@ -75268,7 +75316,7 @@
         <v>23</v>
       </c>
       <c r="L1152" s="14">
-        <v>2000</v>
+        <v>185827.76</v>
       </c>
       <c r="M1152" s="37">
         <v>1.18</v>
@@ -75277,7 +75325,7 @@
         <v>3.375</v>
       </c>
       <c r="O1152" s="5" t="s">
-        <v>368</v>
+        <v>86</v>
       </c>
       <c r="P1152" s="4" t="s">
         <v>25</v>
@@ -75291,7 +75339,7 @@
       <c r="S1152" s="4"/>
     </row>
     <row r="1153" spans="1:20">
-      <c r="A1153" s="17" t="s">
+      <c r="A1153" s="13" t="s">
         <v>1908</v>
       </c>
       <c r="B1153" s="2" t="s">
@@ -75306,11 +75354,9 @@
       <c r="E1153" s="32">
         <v>46007</v>
       </c>
-      <c r="F1153" s="32">
-        <v>46037</v>
-      </c>
+      <c r="F1153" s="32"/>
       <c r="G1153" s="31">
-        <v>46036</v>
+        <v>46021</v>
       </c>
       <c r="H1153" s="2" t="s">
         <v>46</v>
@@ -75325,7 +75371,7 @@
         <v>23</v>
       </c>
       <c r="L1153" s="14">
-        <v>3349</v>
+        <v>2000</v>
       </c>
       <c r="M1153" s="37">
         <v>1.18</v>
@@ -75334,7 +75380,7 @@
         <v>3.375</v>
       </c>
       <c r="O1153" s="5" t="s">
-        <v>34</v>
+        <v>368</v>
       </c>
       <c r="P1153" s="4" t="s">
         <v>25</v>
@@ -75343,12 +75389,12 @@
         <v>26</v>
       </c>
       <c r="R1153" s="4" t="s">
-        <v>27</v>
+        <v>683</v>
       </c>
       <c r="S1153" s="4"/>
     </row>
     <row r="1154" spans="1:20">
-      <c r="A1154" s="16" t="s">
+      <c r="A1154" s="17" t="s">
         <v>1910</v>
       </c>
       <c r="B1154" s="2" t="s">
@@ -75361,13 +75407,13 @@
         <v>46007</v>
       </c>
       <c r="E1154" s="32">
-        <v>46006</v>
+        <v>46007</v>
       </c>
       <c r="F1154" s="32">
         <v>46037</v>
       </c>
       <c r="G1154" s="31">
-        <v>46038</v>
+        <v>46036</v>
       </c>
       <c r="H1154" s="2" t="s">
         <v>46</v>
@@ -75382,7 +75428,7 @@
         <v>23</v>
       </c>
       <c r="L1154" s="14">
-        <v>3957.33</v>
+        <v>3349</v>
       </c>
       <c r="M1154" s="37">
         <v>1.18</v>
@@ -75391,7 +75437,7 @@
         <v>3.375</v>
       </c>
       <c r="O1154" s="5" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="P1154" s="4" t="s">
         <v>25</v>
@@ -75418,11 +75464,13 @@
         <v>46007</v>
       </c>
       <c r="E1155" s="32">
-        <v>46009</v>
-      </c>
-      <c r="F1155" s="32"/>
+        <v>46006</v>
+      </c>
+      <c r="F1155" s="32">
+        <v>46037</v>
+      </c>
       <c r="G1155" s="31">
-        <v>46037</v>
+        <v>46038</v>
       </c>
       <c r="H1155" s="2" t="s">
         <v>46</v>
@@ -75437,7 +75485,7 @@
         <v>23</v>
       </c>
       <c r="L1155" s="14">
-        <v>41678.519999999997</v>
+        <v>3957.33</v>
       </c>
       <c r="M1155" s="37">
         <v>1.18</v>
@@ -75446,7 +75494,7 @@
         <v>3.375</v>
       </c>
       <c r="O1155" s="5" t="s">
-        <v>1074</v>
+        <v>60</v>
       </c>
       <c r="P1155" s="4" t="s">
         <v>25</v>
@@ -75461,59 +75509,65 @@
     </row>
     <row r="1156" spans="1:20">
       <c r="A1156" s="16" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B1156" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1156" s="20" t="s">
+        <v>1915</v>
+      </c>
+      <c r="D1156" s="32">
+        <v>46007</v>
+      </c>
+      <c r="E1156" s="32">
+        <v>46009</v>
+      </c>
+      <c r="F1156" s="32"/>
+      <c r="G1156" s="31">
+        <v>46037</v>
+      </c>
+      <c r="H1156" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1156" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1156" s="15">
+        <v>30</v>
+      </c>
+      <c r="K1156" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1156" s="14">
+        <v>41678.519999999997</v>
+      </c>
+      <c r="M1156" s="37">
+        <v>1.18</v>
+      </c>
+      <c r="N1156" s="37">
+        <v>3.375</v>
+      </c>
+      <c r="O1156" s="5" t="s">
+        <v>1074</v>
+      </c>
+      <c r="P1156" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1156" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1156" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1156" s="4"/>
+    </row>
+    <row r="1157" spans="1:20">
+      <c r="A1157" s="16" t="s">
         <v>1517</v>
       </c>
-      <c r="B1156" s="2" t="s">
+      <c r="B1157" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C1156" s="20" t="s">
-        <v>1914</v>
-      </c>
-      <c r="D1156" s="32">
-        <v>46008</v>
-      </c>
-      <c r="E1156" s="32">
-        <v>46010</v>
-      </c>
-      <c r="F1156" s="32"/>
-      <c r="G1156" s="31"/>
-      <c r="H1156" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1156" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="J1156" s="15">
-        <v>90</v>
-      </c>
-      <c r="K1156" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1156" s="14">
-        <v>28729.13</v>
-      </c>
-      <c r="M1156" s="37">
-        <v>1.18</v>
-      </c>
-      <c r="N1156" s="37">
-        <v>3.3740000000000001</v>
-      </c>
-      <c r="O1156" s="5" t="s">
-        <v>1519</v>
-      </c>
-      <c r="P1156" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q1156" s="4"/>
-      <c r="R1156" s="4"/>
-      <c r="S1156" s="4"/>
-    </row>
-    <row r="1157" spans="1:20">
-      <c r="A1157" s="39" t="s">
-        <v>1915</v>
-      </c>
-      <c r="B1157" s="2" t="s">
-        <v>427</v>
       </c>
       <c r="C1157" s="20" t="s">
         <v>1916</v>
@@ -75521,23 +75575,25 @@
       <c r="D1157" s="32">
         <v>46008</v>
       </c>
-      <c r="E1157" s="32"/>
+      <c r="E1157" s="32">
+        <v>46010</v>
+      </c>
       <c r="F1157" s="32"/>
       <c r="G1157" s="31"/>
       <c r="H1157" s="2" t="s">
         <v>46</v>
       </c>
       <c r="I1157" s="5" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="J1157" s="15">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="K1157" s="20" t="s">
         <v>23</v>
       </c>
       <c r="L1157" s="14">
-        <v>4690</v>
+        <v>28729.13</v>
       </c>
       <c r="M1157" s="37">
         <v>1.18</v>
@@ -75546,7 +75602,7 @@
         <v>3.3740000000000001</v>
       </c>
       <c r="O1157" s="5" t="s">
-        <v>129</v>
+        <v>1519</v>
       </c>
       <c r="P1157" s="4" t="s">
         <v>25</v>
@@ -75556,79 +75612,74 @@
       <c r="S1157" s="4"/>
     </row>
     <row r="1158" spans="1:20">
-      <c r="A1158" s="17" t="s">
+      <c r="A1158" s="39" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B1158" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C1158" s="20" t="s">
+        <v>1918</v>
+      </c>
+      <c r="D1158" s="32">
+        <v>46008</v>
+      </c>
+      <c r="E1158" s="32"/>
+      <c r="F1158" s="32"/>
+      <c r="G1158" s="31"/>
+      <c r="H1158" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1158" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1158" s="15">
+        <v>30</v>
+      </c>
+      <c r="K1158" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1158" s="14">
+        <v>4690</v>
+      </c>
+      <c r="M1158" s="37">
+        <v>1.18</v>
+      </c>
+      <c r="N1158" s="37">
+        <v>3.3740000000000001</v>
+      </c>
+      <c r="O1158" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="P1158" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1158" s="4"/>
+      <c r="R1158" s="4"/>
+      <c r="S1158" s="4"/>
+    </row>
+    <row r="1159" spans="1:20">
+      <c r="A1159" s="17" t="s">
         <v>828</v>
       </c>
-      <c r="B1158" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1158" s="20" t="s">
+      <c r="B1159" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1159" s="20" t="s">
         <v>754</v>
       </c>
-      <c r="D1158" s="32">
+      <c r="D1159" s="32">
         <v>45835</v>
       </c>
-      <c r="E1158" s="32">
+      <c r="E1159" s="32">
         <v>45835</v>
       </c>
-      <c r="F1158" s="32">
+      <c r="F1159" s="32">
         <v>45898</v>
       </c>
-      <c r="G1158" s="31">
+      <c r="G1159" s="31">
         <v>45904</v>
       </c>
-      <c r="H1158" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1158" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1158" s="15">
-        <v>60</v>
-      </c>
-      <c r="K1158" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1158" s="14">
-        <v>718.32</v>
-      </c>
-      <c r="M1158" s="37">
-        <v>1.18</v>
-      </c>
-      <c r="N1158" s="37">
-        <v>3.5720000000000001</v>
-      </c>
-      <c r="O1158" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="P1158" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q1158" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="R1158" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="1159" spans="1:20">
-      <c r="A1159" s="13" t="s">
-        <v>1917</v>
-      </c>
-      <c r="B1159" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1159" s="20" t="s">
-        <v>1918</v>
-      </c>
-      <c r="D1159" s="32">
-        <v>46009</v>
-      </c>
-      <c r="E1159" s="32">
-        <v>46011</v>
-      </c>
-      <c r="F1159" s="32"/>
-      <c r="G1159" s="31"/>
       <c r="H1159" s="2" t="s">
         <v>46</v>
       </c>
@@ -75642,22 +75693,26 @@
         <v>23</v>
       </c>
       <c r="L1159" s="14">
-        <v>7793.88</v>
+        <v>718.32</v>
       </c>
       <c r="M1159" s="37">
         <v>1.18</v>
       </c>
       <c r="N1159" s="37">
-        <v>3.3719999999999999</v>
+        <v>3.5720000000000001</v>
       </c>
       <c r="O1159" s="5" t="s">
-        <v>52</v>
+        <v>306</v>
       </c>
       <c r="P1159" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q1159" s="4"/>
-      <c r="R1159" s="4"/>
+      <c r="Q1159" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1159" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="1160" spans="1:20">
       <c r="A1160" s="13" t="s">
@@ -75690,7 +75745,7 @@
         <v>23</v>
       </c>
       <c r="L1160" s="14">
-        <v>11690.79</v>
+        <v>7793.88</v>
       </c>
       <c r="M1160" s="37">
         <v>1.18</v>
@@ -75712,7 +75767,7 @@
         <v>1921</v>
       </c>
       <c r="B1161" s="2" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C1161" s="20" t="s">
         <v>1922</v>
@@ -75720,25 +75775,25 @@
       <c r="D1161" s="32">
         <v>46009</v>
       </c>
-      <c r="E1161" s="32"/>
+      <c r="E1161" s="32">
+        <v>46011</v>
+      </c>
       <c r="F1161" s="32"/>
-      <c r="G1161" s="31">
-        <v>46009</v>
-      </c>
+      <c r="G1161" s="31"/>
       <c r="H1161" s="2" t="s">
-        <v>221</v>
+        <v>46</v>
       </c>
       <c r="I1161" s="5" t="s">
-        <v>305</v>
+        <v>47</v>
       </c>
       <c r="J1161" s="15">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="K1161" s="20" t="s">
         <v>23</v>
       </c>
       <c r="L1161" s="14">
-        <v>1190.99</v>
+        <v>11690.79</v>
       </c>
       <c r="M1161" s="37">
         <v>1.18</v>
@@ -75747,24 +75802,20 @@
         <v>3.3719999999999999</v>
       </c>
       <c r="O1161" s="5" t="s">
-        <v>306</v>
+        <v>52</v>
       </c>
       <c r="P1161" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q1161" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="R1161" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="Q1161" s="4"/>
+      <c r="R1161" s="4"/>
     </row>
     <row r="1162" spans="1:20">
       <c r="A1162" s="13" t="s">
         <v>1923</v>
       </c>
       <c r="B1162" s="2" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C1162" s="20" t="s">
         <v>1924</v>
@@ -75772,25 +75823,25 @@
       <c r="D1162" s="32">
         <v>46009</v>
       </c>
-      <c r="E1162" s="32">
+      <c r="E1162" s="32"/>
+      <c r="F1162" s="32"/>
+      <c r="G1162" s="31">
         <v>46009</v>
       </c>
-      <c r="F1162" s="32"/>
-      <c r="G1162" s="31"/>
       <c r="H1162" s="2" t="s">
-        <v>46</v>
+        <v>221</v>
       </c>
       <c r="I1162" s="5" t="s">
-        <v>47</v>
+        <v>305</v>
       </c>
       <c r="J1162" s="15">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="K1162" s="20" t="s">
         <v>23</v>
       </c>
       <c r="L1162" s="14">
-        <v>17036.580000000002</v>
+        <v>1190.99</v>
       </c>
       <c r="M1162" s="37">
         <v>1.18</v>
@@ -75799,13 +75850,17 @@
         <v>3.3719999999999999</v>
       </c>
       <c r="O1162" s="5" t="s">
-        <v>48</v>
+        <v>306</v>
       </c>
       <c r="P1162" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q1162" s="4"/>
-      <c r="R1162" s="4"/>
+      <c r="Q1162" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1162" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="1163" spans="1:20">
       <c r="A1163" s="13" t="s">
@@ -75838,7 +75893,7 @@
         <v>23</v>
       </c>
       <c r="L1163" s="14">
-        <v>15814.8</v>
+        <v>17036.580000000002</v>
       </c>
       <c r="M1163" s="37">
         <v>1.18</v>
@@ -75860,43 +75915,39 @@
         <v>1927</v>
       </c>
       <c r="B1164" s="2" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C1164" s="20" t="s">
         <v>1928</v>
       </c>
       <c r="D1164" s="32">
-        <v>46010</v>
+        <v>46009</v>
       </c>
       <c r="E1164" s="32">
-        <v>46010</v>
-      </c>
-      <c r="F1164" s="32">
-        <v>46044</v>
-      </c>
-      <c r="G1164" s="31">
-        <v>45679</v>
-      </c>
+        <v>46009</v>
+      </c>
+      <c r="F1164" s="32"/>
+      <c r="G1164" s="31"/>
       <c r="H1164" s="2" t="s">
         <v>46</v>
       </c>
       <c r="I1164" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J1164" s="15">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K1164" s="20" t="s">
         <v>23</v>
       </c>
       <c r="L1164" s="14">
-        <v>6394.38</v>
+        <v>15814.8</v>
       </c>
       <c r="M1164" s="37">
         <v>1.18</v>
       </c>
       <c r="N1164" s="37">
-        <v>3.371</v>
+        <v>3.3719999999999999</v>
       </c>
       <c r="O1164" s="5" t="s">
         <v>48</v>
@@ -75904,19 +75955,15 @@
       <c r="P1164" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q1164" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="R1164" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="Q1164" s="4"/>
+      <c r="R1164" s="4"/>
     </row>
     <row r="1165" spans="1:20">
-      <c r="A1165" s="16" t="s">
+      <c r="A1165" s="13" t="s">
         <v>1929</v>
       </c>
       <c r="B1165" s="2" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C1165" s="20" t="s">
         <v>1930</v>
@@ -75925,24 +75972,28 @@
         <v>46010</v>
       </c>
       <c r="E1165" s="32">
-        <v>46011</v>
-      </c>
-      <c r="F1165" s="32"/>
-      <c r="G1165" s="31"/>
+        <v>46010</v>
+      </c>
+      <c r="F1165" s="32">
+        <v>46044</v>
+      </c>
+      <c r="G1165" s="31">
+        <v>46044</v>
+      </c>
       <c r="H1165" s="2" t="s">
         <v>46</v>
       </c>
       <c r="I1165" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J1165" s="15">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K1165" s="20" t="s">
         <v>23</v>
       </c>
       <c r="L1165" s="14">
-        <v>5817.84</v>
+        <v>6394.38</v>
       </c>
       <c r="M1165" s="37">
         <v>1.18</v>
@@ -75956,27 +76007,31 @@
       <c r="P1165" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q1165" s="4"/>
-      <c r="R1165" s="4"/>
+      <c r="Q1165" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1165" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="1166" spans="1:20">
       <c r="A1166" s="16" t="s">
-        <v>1748</v>
+        <v>1931</v>
       </c>
       <c r="B1166" s="2" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C1166" s="20" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="D1166" s="32">
+        <v>46010</v>
+      </c>
+      <c r="E1166" s="32">
         <v>46011</v>
       </c>
-      <c r="E1166" s="32"/>
       <c r="F1166" s="32"/>
-      <c r="G1166" s="31">
-        <v>46029</v>
-      </c>
+      <c r="G1166" s="31"/>
       <c r="H1166" s="2" t="s">
         <v>46</v>
       </c>
@@ -75990,7 +76045,7 @@
         <v>23</v>
       </c>
       <c r="L1166" s="14">
-        <v>7523.27</v>
+        <v>5817.84</v>
       </c>
       <c r="M1166" s="37">
         <v>1.18</v>
@@ -75998,19 +76053,14 @@
       <c r="N1166" s="37">
         <v>3.371</v>
       </c>
-      <c r="O1166" s="5"/>
+      <c r="O1166" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="P1166" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q1166" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="R1166" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="T1166" s="1" t="s">
-        <v>1932</v>
-      </c>
+      <c r="Q1166" s="4"/>
+      <c r="R1166" s="4"/>
     </row>
     <row r="1167" spans="1:20">
       <c r="A1167" s="16" t="s">
@@ -76043,7 +76093,7 @@
         <v>23</v>
       </c>
       <c r="L1167" s="14">
-        <v>11259.67</v>
+        <v>7523.27</v>
       </c>
       <c r="M1167" s="37">
         <v>1.18</v>
@@ -76062,12 +76112,12 @@
         <v>27</v>
       </c>
       <c r="T1167" s="1" t="s">
-        <v>1932</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1168" spans="1:20">
       <c r="A1168" s="16" t="s">
-        <v>1934</v>
+        <v>1748</v>
       </c>
       <c r="B1168" s="2" t="s">
         <v>19</v>
@@ -76076,39 +76126,35 @@
         <v>1935</v>
       </c>
       <c r="D1168" s="32">
-        <v>46013</v>
-      </c>
-      <c r="E1168" s="32">
-        <v>46013</v>
-      </c>
+        <v>46011</v>
+      </c>
+      <c r="E1168" s="32"/>
       <c r="F1168" s="32"/>
       <c r="G1168" s="31">
-        <v>46038</v>
+        <v>46029</v>
       </c>
       <c r="H1168" s="2" t="s">
         <v>46</v>
       </c>
       <c r="I1168" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J1168" s="15">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K1168" s="20" t="s">
         <v>23</v>
       </c>
       <c r="L1168" s="14">
-        <v>80823.5</v>
+        <v>11259.67</v>
       </c>
       <c r="M1168" s="37">
         <v>1.18</v>
       </c>
       <c r="N1168" s="37">
-        <v>3.3719999999999999</v>
-      </c>
-      <c r="O1168" s="5" t="s">
-        <v>139</v>
-      </c>
+        <v>3.371</v>
+      </c>
+      <c r="O1168" s="5"/>
       <c r="P1168" s="4" t="s">
         <v>25</v>
       </c>
@@ -76117,6 +76163,9 @@
       </c>
       <c r="R1168" s="4" t="s">
         <v>27</v>
+      </c>
+      <c r="T1168" s="1" t="s">
+        <v>1934</v>
       </c>
     </row>
     <row r="1169" spans="1:18">
@@ -76124,7 +76173,7 @@
         <v>1936</v>
       </c>
       <c r="B1169" s="2" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C1169" s="20" t="s">
         <v>1937</v>
@@ -76136,21 +76185,23 @@
         <v>46013</v>
       </c>
       <c r="F1169" s="32"/>
-      <c r="G1169" s="31"/>
+      <c r="G1169" s="31">
+        <v>46038</v>
+      </c>
       <c r="H1169" s="2" t="s">
         <v>46</v>
       </c>
       <c r="I1169" s="5" t="s">
-        <v>132</v>
+        <v>51</v>
       </c>
       <c r="J1169" s="15">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="K1169" s="20" t="s">
         <v>23</v>
       </c>
       <c r="L1169" s="14">
-        <v>5364.36</v>
+        <v>80823.5</v>
       </c>
       <c r="M1169" s="37">
         <v>1.18</v>
@@ -76159,16 +76210,20 @@
         <v>3.3719999999999999</v>
       </c>
       <c r="O1169" s="5" t="s">
-        <v>1328</v>
+        <v>139</v>
       </c>
       <c r="P1169" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q1169" s="4"/>
-      <c r="R1169" s="4"/>
+      <c r="Q1169" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1169" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="1170" spans="1:18">
-      <c r="A1170" s="50" t="s">
+      <c r="A1170" s="16" t="s">
         <v>1938</v>
       </c>
       <c r="B1170" s="2" t="s">
@@ -76180,23 +76235,25 @@
       <c r="D1170" s="32">
         <v>46013</v>
       </c>
-      <c r="E1170" s="32"/>
+      <c r="E1170" s="32">
+        <v>46013</v>
+      </c>
       <c r="F1170" s="32"/>
       <c r="G1170" s="31"/>
       <c r="H1170" s="2" t="s">
         <v>46</v>
       </c>
       <c r="I1170" s="5" t="s">
-        <v>51</v>
+        <v>132</v>
       </c>
       <c r="J1170" s="15">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="K1170" s="20" t="s">
         <v>23</v>
       </c>
       <c r="L1170" s="14">
-        <v>1033.1400000000001</v>
+        <v>5364.36</v>
       </c>
       <c r="M1170" s="37">
         <v>1.18</v>
@@ -76205,7 +76262,7 @@
         <v>3.3719999999999999</v>
       </c>
       <c r="O1170" s="5" t="s">
-        <v>48</v>
+        <v>1328</v>
       </c>
       <c r="P1170" s="4" t="s">
         <v>25</v>
@@ -76224,15 +76281,11 @@
         <v>1941</v>
       </c>
       <c r="D1171" s="32">
-        <v>46014</v>
-      </c>
-      <c r="E1171" s="32">
-        <v>46014</v>
-      </c>
-      <c r="F1171" s="32">
-        <v>46044</v>
-      </c>
-      <c r="G1171" s="32">
+        <v>46013</v>
+      </c>
+      <c r="E1171" s="32"/>
+      <c r="F1171" s="32"/>
+      <c r="G1171" s="31">
         <v>46044</v>
       </c>
       <c r="H1171" s="2" t="s">
@@ -76248,7 +76301,7 @@
         <v>23</v>
       </c>
       <c r="L1171" s="14">
-        <v>28875.5</v>
+        <v>1033.1400000000001</v>
       </c>
       <c r="M1171" s="37">
         <v>1.18</v>
@@ -76257,7 +76310,7 @@
         <v>3.3719999999999999</v>
       </c>
       <c r="O1171" s="5" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="P1171" s="4" t="s">
         <v>25</v>
@@ -76304,7 +76357,7 @@
         <v>23</v>
       </c>
       <c r="L1172" s="14">
-        <v>10894.84</v>
+        <v>28875.5</v>
       </c>
       <c r="M1172" s="37">
         <v>1.18</v>
@@ -76360,7 +76413,7 @@
         <v>23</v>
       </c>
       <c r="L1173" s="14">
-        <v>25488</v>
+        <v>10894.84</v>
       </c>
       <c r="M1173" s="37">
         <v>1.18</v>
@@ -76369,7 +76422,7 @@
         <v>3.3719999999999999</v>
       </c>
       <c r="O1173" s="5" t="s">
-        <v>503</v>
+        <v>86</v>
       </c>
       <c r="P1173" s="4" t="s">
         <v>25</v>
@@ -76382,7 +76435,7 @@
       </c>
     </row>
     <row r="1174" spans="1:18">
-      <c r="A1174" s="16" t="s">
+      <c r="A1174" s="50" t="s">
         <v>1946</v>
       </c>
       <c r="B1174" s="2" t="s">
@@ -76395,11 +76448,13 @@
         <v>46014</v>
       </c>
       <c r="E1174" s="32">
-        <v>46027</v>
-      </c>
-      <c r="F1174" s="32"/>
-      <c r="G1174" s="31">
-        <v>46043</v>
+        <v>46014</v>
+      </c>
+      <c r="F1174" s="32">
+        <v>46044</v>
+      </c>
+      <c r="G1174" s="32">
+        <v>46044</v>
       </c>
       <c r="H1174" s="2" t="s">
         <v>46</v>
@@ -76414,7 +76469,7 @@
         <v>23</v>
       </c>
       <c r="L1174" s="14">
-        <v>8390.25</v>
+        <v>25488</v>
       </c>
       <c r="M1174" s="37">
         <v>1.18</v>
@@ -76423,7 +76478,7 @@
         <v>3.3719999999999999</v>
       </c>
       <c r="O1174" s="5" t="s">
-        <v>48</v>
+        <v>503</v>
       </c>
       <c r="P1174" s="4" t="s">
         <v>25</v>
@@ -76448,25 +76503,27 @@
       <c r="D1175" s="32">
         <v>46014</v>
       </c>
-      <c r="E1175" s="32"/>
+      <c r="E1175" s="32">
+        <v>46027</v>
+      </c>
       <c r="F1175" s="32"/>
       <c r="G1175" s="31">
-        <v>46028</v>
+        <v>46043</v>
       </c>
       <c r="H1175" s="2" t="s">
         <v>46</v>
       </c>
       <c r="I1175" s="5" t="s">
-        <v>469</v>
+        <v>51</v>
       </c>
       <c r="J1175" s="15">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K1175" s="20" t="s">
-        <v>138</v>
+        <v>23</v>
       </c>
       <c r="L1175" s="14">
-        <v>27851.81</v>
+        <v>8390.25</v>
       </c>
       <c r="M1175" s="37">
         <v>1.18</v>
@@ -76474,7 +76531,9 @@
       <c r="N1175" s="37">
         <v>3.3719999999999999</v>
       </c>
-      <c r="O1175" s="5"/>
+      <c r="O1175" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="P1175" s="4" t="s">
         <v>25</v>
       </c>
@@ -76496,12 +76555,12 @@
         <v>1951</v>
       </c>
       <c r="D1176" s="32">
-        <v>46017</v>
+        <v>46014</v>
       </c>
       <c r="E1176" s="32"/>
       <c r="F1176" s="32"/>
       <c r="G1176" s="31">
-        <v>46022</v>
+        <v>46028</v>
       </c>
       <c r="H1176" s="2" t="s">
         <v>46</v>
@@ -76516,20 +76575,20 @@
         <v>138</v>
       </c>
       <c r="L1176" s="14">
-        <v>14642.44</v>
+        <v>27851.81</v>
       </c>
       <c r="M1176" s="37">
         <v>1.18</v>
       </c>
       <c r="N1176" s="37">
-        <v>3.371</v>
+        <v>3.3719999999999999</v>
       </c>
       <c r="O1176" s="5"/>
       <c r="P1176" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q1176" s="4" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="R1176" s="4" t="s">
         <v>27</v>
@@ -76566,7 +76625,7 @@
         <v>138</v>
       </c>
       <c r="L1177" s="14">
-        <v>17400.71</v>
+        <v>14642.44</v>
       </c>
       <c r="M1177" s="37">
         <v>1.18</v>
@@ -76587,13 +76646,13 @@
     </row>
     <row r="1178" spans="1:18">
       <c r="A1178" s="16" t="s">
-        <v>921</v>
+        <v>1954</v>
       </c>
       <c r="B1178" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C1178" s="20" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="D1178" s="32">
         <v>46017</v>
@@ -76601,32 +76660,30 @@
       <c r="E1178" s="32"/>
       <c r="F1178" s="32"/>
       <c r="G1178" s="31">
-        <v>46035</v>
+        <v>46022</v>
       </c>
       <c r="H1178" s="2" t="s">
         <v>46</v>
       </c>
       <c r="I1178" s="5" t="s">
-        <v>137</v>
+        <v>469</v>
       </c>
       <c r="J1178" s="15">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="K1178" s="20" t="s">
-        <v>23</v>
+        <v>138</v>
       </c>
       <c r="L1178" s="14">
-        <v>4527.01</v>
+        <v>17400.71</v>
       </c>
       <c r="M1178" s="37">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="N1178" s="37">
         <v>3.371</v>
       </c>
-      <c r="O1178" s="5" t="s">
-        <v>906</v>
-      </c>
+      <c r="O1178" s="5"/>
       <c r="P1178" s="4" t="s">
         <v>25</v>
       </c>
@@ -76638,64 +76695,66 @@
       </c>
     </row>
     <row r="1179" spans="1:18">
-      <c r="A1179" s="35" t="s">
-        <v>1955</v>
+      <c r="A1179" s="16" t="s">
+        <v>921</v>
       </c>
       <c r="B1179" s="2" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C1179" s="20" t="s">
         <v>1956</v>
       </c>
       <c r="D1179" s="32">
-        <v>46020</v>
-      </c>
-      <c r="E1179" s="32">
-        <v>46020</v>
-      </c>
-      <c r="F1179" s="32">
-        <v>46052</v>
-      </c>
-      <c r="G1179" s="31"/>
+        <v>46017</v>
+      </c>
+      <c r="E1179" s="32"/>
+      <c r="F1179" s="32"/>
+      <c r="G1179" s="31">
+        <v>46035</v>
+      </c>
       <c r="H1179" s="2" t="s">
         <v>46</v>
       </c>
       <c r="I1179" s="5" t="s">
-        <v>51</v>
+        <v>137</v>
       </c>
       <c r="J1179" s="15">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="K1179" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="L1179" s="22">
-        <v>2243.13</v>
+      <c r="L1179" s="14">
+        <v>4527.01</v>
       </c>
       <c r="M1179" s="37">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="N1179" s="37">
-        <v>3.3690000000000002</v>
+        <v>3.371</v>
       </c>
       <c r="O1179" s="5" t="s">
-        <v>48</v>
+        <v>906</v>
       </c>
       <c r="P1179" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q1179" s="4"/>
-      <c r="R1179" s="4"/>
+      <c r="Q1179" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R1179" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="1180" spans="1:18">
       <c r="A1180" s="35" t="s">
-        <v>1955</v>
+        <v>1957</v>
       </c>
       <c r="B1180" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C1180" s="20" t="s">
-        <v>1956</v>
+        <v>1958</v>
       </c>
       <c r="D1180" s="32">
         <v>46020</v>
@@ -76720,7 +76779,7 @@
         <v>23</v>
       </c>
       <c r="L1180" s="22">
-        <v>2111.4499999999998</v>
+        <v>2243.13</v>
       </c>
       <c r="M1180" s="37">
         <v>1.18</v>
@@ -76729,7 +76788,7 @@
         <v>3.3690000000000002</v>
       </c>
       <c r="O1180" s="5" t="s">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="P1180" s="4" t="s">
         <v>25</v>
@@ -76738,14 +76797,14 @@
       <c r="R1180" s="4"/>
     </row>
     <row r="1181" spans="1:18">
-      <c r="A1181" s="50" t="s">
+      <c r="A1181" s="35" t="s">
         <v>1957</v>
       </c>
       <c r="B1181" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C1181" s="20" t="s">
-        <v>1956</v>
+        <v>1958</v>
       </c>
       <c r="D1181" s="32">
         <v>46020</v>
@@ -76769,8 +76828,8 @@
       <c r="K1181" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="L1181" s="52">
-        <v>3387.63</v>
+      <c r="L1181" s="22">
+        <v>2111.4499999999998</v>
       </c>
       <c r="M1181" s="37">
         <v>1.18</v>
@@ -76779,7 +76838,7 @@
         <v>3.3690000000000002</v>
       </c>
       <c r="O1181" s="5" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="P1181" s="4" t="s">
         <v>25</v>
@@ -76789,13 +76848,13 @@
     </row>
     <row r="1182" spans="1:18">
       <c r="A1182" s="50" t="s">
-        <v>1957</v>
+        <v>1959</v>
       </c>
       <c r="B1182" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C1182" s="20" t="s">
-        <v>1956</v>
+        <v>1958</v>
       </c>
       <c r="D1182" s="32">
         <v>46020</v>
@@ -76820,7 +76879,7 @@
         <v>23</v>
       </c>
       <c r="L1182" s="52">
-        <v>2451.39</v>
+        <v>3387.63</v>
       </c>
       <c r="M1182" s="37">
         <v>1.18</v>
@@ -76829,7 +76888,7 @@
         <v>3.3690000000000002</v>
       </c>
       <c r="O1182" s="5" t="s">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="P1182" s="4" t="s">
         <v>25</v>
@@ -76838,14 +76897,14 @@
       <c r="R1182" s="4"/>
     </row>
     <row r="1183" spans="1:18">
-      <c r="A1183" s="16" t="s">
-        <v>1958</v>
+      <c r="A1183" s="50" t="s">
+        <v>1959</v>
       </c>
       <c r="B1183" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C1183" s="20" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="D1183" s="32">
         <v>46020</v>
@@ -76854,7 +76913,7 @@
         <v>46020</v>
       </c>
       <c r="F1183" s="32">
-        <v>46050</v>
+        <v>46052</v>
       </c>
       <c r="G1183" s="31"/>
       <c r="H1183" s="2" t="s">
@@ -76869,8 +76928,8 @@
       <c r="K1183" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="L1183" s="14">
-        <v>3294.27</v>
+      <c r="L1183" s="52">
+        <v>2451.39</v>
       </c>
       <c r="M1183" s="37">
         <v>1.18</v>
@@ -76879,7 +76938,7 @@
         <v>3.3690000000000002</v>
       </c>
       <c r="O1183" s="5" t="s">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="P1183" s="4" t="s">
         <v>25</v>
@@ -76892,39 +76951,43 @@
         <v>1960</v>
       </c>
       <c r="B1184" s="2" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C1184" s="20" t="s">
         <v>1961</v>
       </c>
       <c r="D1184" s="32">
-        <v>46021</v>
+        <v>46020</v>
       </c>
       <c r="E1184" s="32">
-        <v>46022</v>
-      </c>
-      <c r="F1184" s="32"/>
-      <c r="G1184" s="31"/>
+        <v>46020</v>
+      </c>
+      <c r="F1184" s="32">
+        <v>46050</v>
+      </c>
+      <c r="G1184" s="31">
+        <v>46045</v>
+      </c>
       <c r="H1184" s="2" t="s">
         <v>46</v>
       </c>
       <c r="I1184" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J1184" s="15">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K1184" s="20" t="s">
         <v>23</v>
       </c>
       <c r="L1184" s="14">
-        <v>1208.5999999999999</v>
+        <v>3294.27</v>
       </c>
       <c r="M1184" s="37">
         <v>1.18</v>
       </c>
       <c r="N1184" s="37">
-        <v>3.3719999999999999</v>
+        <v>3.3690000000000002</v>
       </c>
       <c r="O1184" s="5" t="s">
         <v>48</v>
@@ -76932,8 +76995,12 @@
       <c r="P1184" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q1184" s="4"/>
-      <c r="R1184" s="4"/>
+      <c r="Q1184" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1184" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="1185" spans="1:18">
       <c r="A1185" s="16" t="s">
@@ -76946,10 +77013,10 @@
         <v>1963</v>
       </c>
       <c r="D1185" s="32">
-        <v>46027</v>
+        <v>46021</v>
       </c>
       <c r="E1185" s="32">
-        <v>46029</v>
+        <v>46022</v>
       </c>
       <c r="F1185" s="32"/>
       <c r="G1185" s="31"/>
@@ -76966,13 +77033,13 @@
         <v>23</v>
       </c>
       <c r="L1185" s="14">
-        <v>3127.2</v>
+        <v>1208.5999999999999</v>
       </c>
       <c r="M1185" s="37">
         <v>1.18</v>
       </c>
       <c r="N1185" s="37">
-        <v>3.3679999999999999</v>
+        <v>3.3719999999999999</v>
       </c>
       <c r="O1185" s="5" t="s">
         <v>48</v>
@@ -77014,7 +77081,7 @@
         <v>23</v>
       </c>
       <c r="L1186" s="14">
-        <v>12175.64</v>
+        <v>3127.2</v>
       </c>
       <c r="M1186" s="37">
         <v>1.18</v>
@@ -77023,7 +77090,7 @@
         <v>3.3679999999999999</v>
       </c>
       <c r="O1186" s="5" t="s">
-        <v>718</v>
+        <v>48</v>
       </c>
       <c r="P1186" s="4" t="s">
         <v>25</v>
@@ -77062,7 +77129,7 @@
         <v>23</v>
       </c>
       <c r="L1187" s="14">
-        <v>49017.919999999998</v>
+        <v>12175.64</v>
       </c>
       <c r="M1187" s="37">
         <v>1.18</v>
@@ -77071,7 +77138,7 @@
         <v>3.3679999999999999</v>
       </c>
       <c r="O1187" s="5" t="s">
-        <v>74</v>
+        <v>718</v>
       </c>
       <c r="P1187" s="4" t="s">
         <v>25</v>
@@ -77093,7 +77160,7 @@
         <v>46027</v>
       </c>
       <c r="E1188" s="32">
-        <v>46038</v>
+        <v>46029</v>
       </c>
       <c r="F1188" s="32"/>
       <c r="G1188" s="31"/>
@@ -77110,7 +77177,7 @@
         <v>23</v>
       </c>
       <c r="L1188" s="14">
-        <v>16725.28</v>
+        <v>49017.919999999998</v>
       </c>
       <c r="M1188" s="37">
         <v>1.18</v>
@@ -77119,7 +77186,7 @@
         <v>3.3679999999999999</v>
       </c>
       <c r="O1188" s="5" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="P1188" s="4" t="s">
         <v>25</v>
@@ -77128,7 +77195,7 @@
       <c r="R1188" s="4"/>
     </row>
     <row r="1189" spans="1:18">
-      <c r="A1189" s="17" t="s">
+      <c r="A1189" s="16" t="s">
         <v>1970</v>
       </c>
       <c r="B1189" s="2" t="s">
@@ -77141,7 +77208,7 @@
         <v>46027</v>
       </c>
       <c r="E1189" s="32">
-        <v>46027</v>
+        <v>46038</v>
       </c>
       <c r="F1189" s="32"/>
       <c r="G1189" s="31"/>
@@ -77149,16 +77216,16 @@
         <v>46</v>
       </c>
       <c r="I1189" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J1189" s="15">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K1189" s="20" t="s">
         <v>23</v>
       </c>
       <c r="L1189" s="14">
-        <v>1011.78</v>
+        <v>16725.28</v>
       </c>
       <c r="M1189" s="37">
         <v>1.18</v>
@@ -77176,14 +77243,14 @@
       <c r="R1189" s="4"/>
     </row>
     <row r="1190" spans="1:18">
-      <c r="A1190" s="16" t="s">
-        <v>1616</v>
+      <c r="A1190" s="17" t="s">
+        <v>1972</v>
       </c>
       <c r="B1190" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C1190" s="20" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="D1190" s="32">
         <v>46027</v>
@@ -77206,7 +77273,7 @@
         <v>23</v>
       </c>
       <c r="L1190" s="14">
-        <v>13238.61</v>
+        <v>1011.78</v>
       </c>
       <c r="M1190" s="37">
         <v>1.18</v>
@@ -77225,7 +77292,7 @@
     </row>
     <row r="1191" spans="1:18">
       <c r="A1191" s="16" t="s">
-        <v>1973</v>
+        <v>1616</v>
       </c>
       <c r="B1191" s="2" t="s">
         <v>39</v>
@@ -77234,34 +77301,36 @@
         <v>1974</v>
       </c>
       <c r="D1191" s="32">
-        <v>46028</v>
-      </c>
-      <c r="E1191" s="32"/>
+        <v>46027</v>
+      </c>
+      <c r="E1191" s="32">
+        <v>46027</v>
+      </c>
       <c r="F1191" s="32"/>
       <c r="G1191" s="31"/>
       <c r="H1191" s="2" t="s">
         <v>46</v>
       </c>
       <c r="I1191" s="5" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="J1191" s="15">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="K1191" s="20" t="s">
         <v>23</v>
       </c>
       <c r="L1191" s="14">
-        <v>2871.2</v>
+        <v>13238.61</v>
       </c>
       <c r="M1191" s="37">
         <v>1.18</v>
       </c>
       <c r="N1191" s="37">
-        <v>3.3719999999999999</v>
+        <v>3.3679999999999999</v>
       </c>
       <c r="O1191" s="5" t="s">
-        <v>232</v>
+        <v>48</v>
       </c>
       <c r="P1191" s="4" t="s">
         <v>25</v>
@@ -77298,7 +77367,7 @@
         <v>23</v>
       </c>
       <c r="L1192" s="14">
-        <v>800</v>
+        <v>2871.2</v>
       </c>
       <c r="M1192" s="37">
         <v>1.18</v>
@@ -77307,7 +77376,7 @@
         <v>3.3719999999999999</v>
       </c>
       <c r="O1192" s="5" t="s">
-        <v>663</v>
+        <v>232</v>
       </c>
       <c r="P1192" s="4" t="s">
         <v>25</v>
@@ -77316,39 +77385,35 @@
       <c r="R1192" s="4"/>
     </row>
     <row r="1193" spans="1:18">
-      <c r="A1193" s="13" t="s">
-        <v>1875</v>
+      <c r="A1193" s="16" t="s">
+        <v>1977</v>
       </c>
       <c r="B1193" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C1193" s="20" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="D1193" s="32">
         <v>46028</v>
       </c>
-      <c r="E1193" s="32">
-        <v>46028</v>
-      </c>
-      <c r="F1193" s="32">
-        <v>46089</v>
-      </c>
+      <c r="E1193" s="32"/>
+      <c r="F1193" s="32"/>
       <c r="G1193" s="31"/>
       <c r="H1193" s="2" t="s">
         <v>46</v>
       </c>
       <c r="I1193" s="5" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="J1193" s="15">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="K1193" s="20" t="s">
         <v>23</v>
       </c>
       <c r="L1193" s="14">
-        <v>192.53</v>
+        <v>800</v>
       </c>
       <c r="M1193" s="37">
         <v>1.18</v>
@@ -77357,7 +77422,7 @@
         <v>3.3719999999999999</v>
       </c>
       <c r="O1193" s="5" t="s">
-        <v>553</v>
+        <v>663</v>
       </c>
       <c r="P1193" s="4" t="s">
         <v>25</v>
@@ -77367,21 +77432,23 @@
     </row>
     <row r="1194" spans="1:18">
       <c r="A1194" s="13" t="s">
-        <v>1900</v>
+        <v>1875</v>
       </c>
       <c r="B1194" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C1194" s="20" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="D1194" s="32">
         <v>46028</v>
       </c>
       <c r="E1194" s="32">
-        <v>46030</v>
-      </c>
-      <c r="F1194" s="32"/>
+        <v>46028</v>
+      </c>
+      <c r="F1194" s="32">
+        <v>46089</v>
+      </c>
       <c r="G1194" s="31"/>
       <c r="H1194" s="2" t="s">
         <v>46</v>
@@ -77396,7 +77463,7 @@
         <v>23</v>
       </c>
       <c r="L1194" s="14">
-        <v>70746.84</v>
+        <v>192.53</v>
       </c>
       <c r="M1194" s="37">
         <v>1.18</v>
@@ -77405,7 +77472,7 @@
         <v>3.3719999999999999</v>
       </c>
       <c r="O1194" s="5" t="s">
-        <v>74</v>
+        <v>553</v>
       </c>
       <c r="P1194" s="4" t="s">
         <v>25</v>
@@ -77414,8 +77481,8 @@
       <c r="R1194" s="4"/>
     </row>
     <row r="1195" spans="1:18">
-      <c r="A1195" s="17" t="s">
-        <v>1979</v>
+      <c r="A1195" s="13" t="s">
+        <v>1902</v>
       </c>
       <c r="B1195" s="2" t="s">
         <v>39</v>
@@ -77424,34 +77491,36 @@
         <v>1980</v>
       </c>
       <c r="D1195" s="32">
-        <v>46029</v>
-      </c>
-      <c r="E1195" s="32"/>
+        <v>46028</v>
+      </c>
+      <c r="E1195" s="32">
+        <v>46030</v>
+      </c>
       <c r="F1195" s="32"/>
       <c r="G1195" s="31"/>
       <c r="H1195" s="2" t="s">
         <v>46</v>
       </c>
       <c r="I1195" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J1195" s="15">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K1195" s="20" t="s">
         <v>23</v>
       </c>
       <c r="L1195" s="14">
-        <v>2995.59</v>
+        <v>70746.84</v>
       </c>
       <c r="M1195" s="37">
         <v>1.18</v>
       </c>
       <c r="N1195" s="37">
-        <v>3.3660000000000001</v>
+        <v>3.3719999999999999</v>
       </c>
       <c r="O1195" s="5" t="s">
-        <v>1981</v>
+        <v>74</v>
       </c>
       <c r="P1195" s="4" t="s">
         <v>25</v>
@@ -77461,13 +77530,13 @@
     </row>
     <row r="1196" spans="1:18">
       <c r="A1196" s="17" t="s">
-        <v>1979</v>
+        <v>1981</v>
       </c>
       <c r="B1196" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C1196" s="20" t="s">
-        <v>1980</v>
+        <v>1982</v>
       </c>
       <c r="D1196" s="32">
         <v>46029</v>
@@ -77488,7 +77557,7 @@
         <v>23</v>
       </c>
       <c r="L1196" s="14">
-        <v>155.97</v>
+        <v>2995.59</v>
       </c>
       <c r="M1196" s="37">
         <v>1.18</v>
@@ -77497,7 +77566,7 @@
         <v>3.3660000000000001</v>
       </c>
       <c r="O1196" s="5" t="s">
-        <v>550</v>
+        <v>1983</v>
       </c>
       <c r="P1196" s="4" t="s">
         <v>25</v>
@@ -77507,13 +77576,13 @@
     </row>
     <row r="1197" spans="1:18">
       <c r="A1197" s="17" t="s">
-        <v>1979</v>
+        <v>1981</v>
       </c>
       <c r="B1197" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C1197" s="20" t="s">
-        <v>1980</v>
+        <v>1982</v>
       </c>
       <c r="D1197" s="32">
         <v>46029</v>
@@ -77534,7 +77603,7 @@
         <v>23</v>
       </c>
       <c r="L1197" s="14">
-        <v>3388.46</v>
+        <v>155.97</v>
       </c>
       <c r="M1197" s="37">
         <v>1.18</v>
@@ -77543,7 +77612,7 @@
         <v>3.3660000000000001</v>
       </c>
       <c r="O1197" s="5" t="s">
-        <v>86</v>
+        <v>550</v>
       </c>
       <c r="P1197" s="4" t="s">
         <v>25</v>
@@ -77553,13 +77622,13 @@
     </row>
     <row r="1198" spans="1:18">
       <c r="A1198" s="17" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="B1198" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C1198" s="20" t="s">
-        <v>1980</v>
+        <v>1982</v>
       </c>
       <c r="D1198" s="32">
         <v>46029</v>
@@ -77580,7 +77649,7 @@
         <v>23</v>
       </c>
       <c r="L1198" s="14">
-        <v>305.97000000000003</v>
+        <v>3388.46</v>
       </c>
       <c r="M1198" s="37">
         <v>1.18</v>
@@ -77589,7 +77658,7 @@
         <v>3.3660000000000001</v>
       </c>
       <c r="O1198" s="5" t="s">
-        <v>789</v>
+        <v>86</v>
       </c>
       <c r="P1198" s="4" t="s">
         <v>25</v>
@@ -77598,37 +77667,35 @@
       <c r="R1198" s="4"/>
     </row>
     <row r="1199" spans="1:18">
-      <c r="A1199" s="16" t="s">
-        <v>1983</v>
+      <c r="A1199" s="17" t="s">
+        <v>1984</v>
       </c>
       <c r="B1199" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C1199" s="20" t="s">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="D1199" s="32">
         <v>46029</v>
       </c>
-      <c r="E1199" s="32">
-        <v>46030</v>
-      </c>
+      <c r="E1199" s="32"/>
       <c r="F1199" s="32"/>
       <c r="G1199" s="31"/>
       <c r="H1199" s="2" t="s">
         <v>46</v>
       </c>
       <c r="I1199" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J1199" s="15">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K1199" s="20" t="s">
         <v>23</v>
       </c>
       <c r="L1199" s="14">
-        <v>6258.63</v>
+        <v>305.97000000000003</v>
       </c>
       <c r="M1199" s="37">
         <v>1.18</v>
@@ -77637,7 +77704,7 @@
         <v>3.3660000000000001</v>
       </c>
       <c r="O1199" s="5" t="s">
-        <v>30</v>
+        <v>789</v>
       </c>
       <c r="P1199" s="4" t="s">
         <v>25</v>
@@ -77646,7 +77713,7 @@
       <c r="R1199" s="4"/>
     </row>
     <row r="1200" spans="1:18">
-      <c r="A1200" s="17" t="s">
+      <c r="A1200" s="16" t="s">
         <v>1985</v>
       </c>
       <c r="B1200" s="2" t="s">
@@ -77656,7 +77723,7 @@
         <v>1986</v>
       </c>
       <c r="D1200" s="32">
-        <v>46030</v>
+        <v>46029</v>
       </c>
       <c r="E1200" s="32">
         <v>46030</v>
@@ -77667,16 +77734,16 @@
         <v>46</v>
       </c>
       <c r="I1200" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J1200" s="15">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K1200" s="20" t="s">
         <v>23</v>
       </c>
       <c r="L1200" s="14">
-        <v>3735.87</v>
+        <v>6258.63</v>
       </c>
       <c r="M1200" s="37">
         <v>1.18</v>
@@ -77685,7 +77752,7 @@
         <v>3.3660000000000001</v>
       </c>
       <c r="O1200" s="5" t="s">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="P1200" s="4" t="s">
         <v>25</v>
@@ -77698,7 +77765,7 @@
         <v>1987</v>
       </c>
       <c r="B1201" s="2" t="s">
-        <v>498</v>
+        <v>39</v>
       </c>
       <c r="C1201" s="20" t="s">
         <v>1988</v>
@@ -77706,7 +77773,9 @@
       <c r="D1201" s="32">
         <v>46030</v>
       </c>
-      <c r="E1201" s="32"/>
+      <c r="E1201" s="32">
+        <v>46030</v>
+      </c>
       <c r="F1201" s="32"/>
       <c r="G1201" s="31"/>
       <c r="H1201" s="2" t="s">
@@ -77722,7 +77791,7 @@
         <v>23</v>
       </c>
       <c r="L1201" s="14">
-        <v>6150</v>
+        <v>3735.87</v>
       </c>
       <c r="M1201" s="37">
         <v>1.18</v>
@@ -77731,7 +77800,7 @@
         <v>3.3660000000000001</v>
       </c>
       <c r="O1201" s="5" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="P1201" s="4" t="s">
         <v>25</v>
@@ -77740,21 +77809,19 @@
       <c r="R1201" s="4"/>
     </row>
     <row r="1202" spans="1:18">
-      <c r="A1202" s="16" t="s">
-        <v>1889</v>
+      <c r="A1202" s="17" t="s">
+        <v>1989</v>
       </c>
       <c r="B1202" s="2" t="s">
-        <v>39</v>
+        <v>498</v>
       </c>
       <c r="C1202" s="20" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="D1202" s="32">
         <v>46030</v>
       </c>
-      <c r="E1202" s="32">
-        <v>46030</v>
-      </c>
+      <c r="E1202" s="32"/>
       <c r="F1202" s="32"/>
       <c r="G1202" s="31"/>
       <c r="H1202" s="2" t="s">
@@ -77770,7 +77837,7 @@
         <v>23</v>
       </c>
       <c r="L1202" s="14">
-        <v>8172.04</v>
+        <v>6150</v>
       </c>
       <c r="M1202" s="37">
         <v>1.18</v>
@@ -77779,7 +77846,7 @@
         <v>3.3660000000000001</v>
       </c>
       <c r="O1202" s="5" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="P1202" s="4" t="s">
         <v>25</v>
@@ -77788,8 +77855,8 @@
       <c r="R1202" s="4"/>
     </row>
     <row r="1203" spans="1:18">
-      <c r="A1203" s="50" t="s">
-        <v>1990</v>
+      <c r="A1203" s="16" t="s">
+        <v>1891</v>
       </c>
       <c r="B1203" s="2" t="s">
         <v>39</v>
@@ -77800,7 +77867,9 @@
       <c r="D1203" s="32">
         <v>46030</v>
       </c>
-      <c r="E1203" s="32"/>
+      <c r="E1203" s="32">
+        <v>46030</v>
+      </c>
       <c r="F1203" s="32"/>
       <c r="G1203" s="31"/>
       <c r="H1203" s="2" t="s">
@@ -77816,7 +77885,7 @@
         <v>23</v>
       </c>
       <c r="L1203" s="14">
-        <v>10525.27</v>
+        <v>8172.04</v>
       </c>
       <c r="M1203" s="37">
         <v>1.18</v>
@@ -77825,7 +77894,7 @@
         <v>3.3660000000000001</v>
       </c>
       <c r="O1203" s="5" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="P1203" s="4" t="s">
         <v>25</v>
@@ -77835,13 +77904,13 @@
     </row>
     <row r="1204" spans="1:18">
       <c r="A1204" s="50" t="s">
-        <v>1990</v>
+        <v>1992</v>
       </c>
       <c r="B1204" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C1204" s="20" t="s">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="D1204" s="32">
         <v>46030</v>
@@ -77862,7 +77931,7 @@
         <v>23</v>
       </c>
       <c r="L1204" s="14">
-        <v>5427.57</v>
+        <v>10525.27</v>
       </c>
       <c r="M1204" s="37">
         <v>1.18</v>
@@ -77871,7 +77940,7 @@
         <v>3.3660000000000001</v>
       </c>
       <c r="O1204" s="5" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="P1204" s="4" t="s">
         <v>25</v>
@@ -77880,7 +77949,7 @@
       <c r="R1204" s="4"/>
     </row>
     <row r="1205" spans="1:18">
-      <c r="A1205" s="16" t="s">
+      <c r="A1205" s="50" t="s">
         <v>1992</v>
       </c>
       <c r="B1205" s="2" t="s">
@@ -77892,9 +77961,7 @@
       <c r="D1205" s="32">
         <v>46030</v>
       </c>
-      <c r="E1205" s="32">
-        <v>46030</v>
-      </c>
+      <c r="E1205" s="32"/>
       <c r="F1205" s="32"/>
       <c r="G1205" s="31"/>
       <c r="H1205" s="2" t="s">
@@ -77910,7 +77977,7 @@
         <v>23</v>
       </c>
       <c r="L1205" s="14">
-        <v>3021.04</v>
+        <v>5427.57</v>
       </c>
       <c r="M1205" s="37">
         <v>1.18</v>
@@ -77919,7 +77986,7 @@
         <v>3.3660000000000001</v>
       </c>
       <c r="O1205" s="5" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="P1205" s="4" t="s">
         <v>25</v>
@@ -77928,19 +77995,21 @@
       <c r="R1205" s="4"/>
     </row>
     <row r="1206" spans="1:18">
-      <c r="A1206" s="39" t="s">
-        <v>1915</v>
+      <c r="A1206" s="16" t="s">
+        <v>1994</v>
       </c>
       <c r="B1206" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C1206" s="20" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="D1206" s="32">
-        <v>46031</v>
-      </c>
-      <c r="E1206" s="32"/>
+        <v>46030</v>
+      </c>
+      <c r="E1206" s="32">
+        <v>46030</v>
+      </c>
       <c r="F1206" s="32"/>
       <c r="G1206" s="31"/>
       <c r="H1206" s="2" t="s">
@@ -77956,16 +78025,16 @@
         <v>23</v>
       </c>
       <c r="L1206" s="14">
-        <v>4690</v>
+        <v>3021.04</v>
       </c>
       <c r="M1206" s="37">
         <v>1.18</v>
       </c>
       <c r="N1206" s="37">
-        <v>3.3740000000000001</v>
+        <v>3.3660000000000001</v>
       </c>
       <c r="O1206" s="5" t="s">
-        <v>129</v>
+        <v>52</v>
       </c>
       <c r="P1206" s="4" t="s">
         <v>25</v>
@@ -77974,65 +78043,57 @@
       <c r="R1206" s="4"/>
     </row>
     <row r="1207" spans="1:18">
-      <c r="A1207" s="16" t="s">
-        <v>1006</v>
+      <c r="A1207" s="39" t="s">
+        <v>1917</v>
       </c>
       <c r="B1207" s="2" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C1207" s="20" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="D1207" s="32">
         <v>46031</v>
       </c>
-      <c r="E1207" s="32">
-        <v>46031</v>
-      </c>
+      <c r="E1207" s="32"/>
       <c r="F1207" s="32"/>
-      <c r="G1207" s="32">
-        <v>46031</v>
-      </c>
+      <c r="G1207" s="31"/>
       <c r="H1207" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I1207" s="5" t="s">
-        <v>137</v>
+        <v>51</v>
       </c>
       <c r="J1207" s="15">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="K1207" s="20" t="s">
         <v>23</v>
       </c>
       <c r="L1207" s="14">
-        <v>2431.4</v>
+        <v>4690</v>
       </c>
       <c r="M1207" s="37">
         <v>1.18</v>
       </c>
       <c r="N1207" s="37">
-        <v>3.3679999999999999</v>
+        <v>3.3740000000000001</v>
       </c>
       <c r="O1207" s="5" t="s">
-        <v>553</v>
+        <v>129</v>
       </c>
       <c r="P1207" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q1207" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="R1207" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="Q1207" s="4"/>
+      <c r="R1207" s="4"/>
     </row>
     <row r="1208" spans="1:18">
-      <c r="A1208" s="13" t="s">
-        <v>1996</v>
+      <c r="A1208" s="16" t="s">
+        <v>1006</v>
       </c>
       <c r="B1208" s="2" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C1208" s="20" t="s">
         <v>1997</v>
@@ -78041,24 +78102,26 @@
         <v>46031</v>
       </c>
       <c r="E1208" s="32">
-        <v>46034</v>
+        <v>46031</v>
       </c>
       <c r="F1208" s="32"/>
-      <c r="G1208" s="31"/>
+      <c r="G1208" s="32">
+        <v>46031</v>
+      </c>
       <c r="H1208" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="I1208" s="5" t="s">
-        <v>51</v>
+        <v>137</v>
       </c>
       <c r="J1208" s="15">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="K1208" s="20" t="s">
         <v>23</v>
       </c>
       <c r="L1208" s="14">
-        <v>2770.8</v>
+        <v>2431.4</v>
       </c>
       <c r="M1208" s="37">
         <v>1.18</v>
@@ -78067,20 +78130,24 @@
         <v>3.3679999999999999</v>
       </c>
       <c r="O1208" s="5" t="s">
-        <v>113</v>
+        <v>553</v>
       </c>
       <c r="P1208" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q1208" s="4"/>
-      <c r="R1208" s="4"/>
+      <c r="Q1208" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1208" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="1209" spans="1:18">
       <c r="A1209" s="13" t="s">
         <v>1998</v>
       </c>
       <c r="B1209" s="2" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C1209" s="20" t="s">
         <v>1999</v>
@@ -78088,23 +78155,25 @@
       <c r="D1209" s="32">
         <v>46031</v>
       </c>
-      <c r="E1209" s="32"/>
+      <c r="E1209" s="32">
+        <v>46034</v>
+      </c>
       <c r="F1209" s="32"/>
       <c r="G1209" s="31"/>
       <c r="H1209" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="I1209" s="5" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="J1209" s="15">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="K1209" s="20" t="s">
         <v>23</v>
       </c>
       <c r="L1209" s="14">
-        <v>181.1</v>
+        <v>2770.8</v>
       </c>
       <c r="M1209" s="37">
         <v>1.18</v>
@@ -78113,73 +78182,75 @@
         <v>3.3679999999999999</v>
       </c>
       <c r="O1209" s="5" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="P1209" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q1209" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="R1209" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="Q1209" s="4"/>
+      <c r="R1209" s="4"/>
     </row>
     <row r="1210" spans="1:18">
       <c r="A1210" s="13" t="s">
-        <v>1588</v>
+        <v>2000</v>
       </c>
       <c r="B1210" s="2" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C1210" s="20" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="D1210" s="32">
-        <v>46034</v>
+        <v>46031</v>
       </c>
       <c r="E1210" s="32"/>
       <c r="F1210" s="32"/>
-      <c r="G1210" s="31"/>
+      <c r="G1210" s="31">
+        <v>46031</v>
+      </c>
       <c r="H1210" s="2" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="I1210" s="5" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="J1210" s="15">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="K1210" s="20" t="s">
         <v>23</v>
       </c>
       <c r="L1210" s="14">
-        <v>28645.95</v>
+        <v>181.1</v>
       </c>
       <c r="M1210" s="37">
         <v>1.18</v>
       </c>
       <c r="N1210" s="37">
-        <v>3.3650000000000002</v>
+        <v>3.3679999999999999</v>
       </c>
       <c r="O1210" s="5" t="s">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="P1210" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q1210" s="4"/>
-      <c r="R1210" s="4"/>
+      <c r="Q1210" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1210" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="1211" spans="1:18">
-      <c r="A1211" s="16" t="s">
-        <v>2001</v>
+      <c r="A1211" s="13" t="s">
+        <v>1588</v>
       </c>
       <c r="B1211" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C1211" s="20" t="s">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="D1211" s="32">
         <v>46034</v>
@@ -78200,7 +78271,7 @@
         <v>23</v>
       </c>
       <c r="L1211" s="14">
-        <v>3005.97</v>
+        <v>28645.95</v>
       </c>
       <c r="M1211" s="37">
         <v>1.18</v>
@@ -78209,7 +78280,7 @@
         <v>3.3650000000000002</v>
       </c>
       <c r="O1211" s="5" t="s">
-        <v>368</v>
+        <v>113</v>
       </c>
       <c r="P1211" s="4" t="s">
         <v>25</v>
@@ -78219,36 +78290,34 @@
     </row>
     <row r="1212" spans="1:18">
       <c r="A1212" s="16" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B1212" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C1212" s="20" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D1212" s="32">
         <v>46034</v>
       </c>
-      <c r="E1212" s="32">
-        <v>46035</v>
-      </c>
+      <c r="E1212" s="32"/>
       <c r="F1212" s="32"/>
       <c r="G1212" s="31"/>
       <c r="H1212" s="2" t="s">
         <v>46</v>
       </c>
       <c r="I1212" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J1212" s="15">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K1212" s="20" t="s">
         <v>23</v>
       </c>
       <c r="L1212" s="14">
-        <v>12460.8</v>
+        <v>3005.97</v>
       </c>
       <c r="M1212" s="37">
         <v>1.18</v>
@@ -78257,7 +78326,7 @@
         <v>3.3650000000000002</v>
       </c>
       <c r="O1212" s="5" t="s">
-        <v>48</v>
+        <v>368</v>
       </c>
       <c r="P1212" s="4" t="s">
         <v>25</v>
@@ -78267,19 +78336,19 @@
     </row>
     <row r="1213" spans="1:18">
       <c r="A1213" s="16" t="s">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="B1213" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C1213" s="20" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="D1213" s="32">
+        <v>46034</v>
+      </c>
+      <c r="E1213" s="32">
         <v>46035</v>
-      </c>
-      <c r="E1213" s="32">
-        <v>46036</v>
       </c>
       <c r="F1213" s="32"/>
       <c r="G1213" s="31"/>
@@ -78296,7 +78365,7 @@
         <v>23</v>
       </c>
       <c r="L1213" s="14">
-        <v>41120.639999999999</v>
+        <v>12460.8</v>
       </c>
       <c r="M1213" s="37">
         <v>1.18</v>
@@ -78314,45 +78383,43 @@
       <c r="R1213" s="4"/>
     </row>
     <row r="1214" spans="1:18">
-      <c r="A1214" s="13" t="s">
-        <v>1877</v>
+      <c r="A1214" s="16" t="s">
+        <v>2004</v>
       </c>
       <c r="B1214" s="2" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C1214" s="20" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="D1214" s="32">
-        <v>46036</v>
+        <v>46035</v>
       </c>
       <c r="E1214" s="32">
         <v>46036</v>
       </c>
       <c r="F1214" s="32"/>
-      <c r="G1214" s="31">
-        <v>45996</v>
-      </c>
+      <c r="G1214" s="31"/>
       <c r="H1214" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="I1214" s="5" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="J1214" s="15">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="K1214" s="20" t="s">
         <v>23</v>
       </c>
       <c r="L1214" s="14">
-        <v>6588.17</v>
+        <v>41120.639999999999</v>
       </c>
       <c r="M1214" s="37">
         <v>1.18</v>
       </c>
       <c r="N1214" s="37">
-        <v>3.3780000000000001</v>
+        <v>3.3650000000000002</v>
       </c>
       <c r="O1214" s="5" t="s">
         <v>48</v>
@@ -78360,58 +78427,62 @@
       <c r="P1214" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q1214" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="R1214" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="Q1214" s="4"/>
+      <c r="R1214" s="4"/>
     </row>
     <row r="1215" spans="1:18">
-      <c r="A1215" s="16" t="s">
-        <v>2006</v>
+      <c r="A1215" s="13" t="s">
+        <v>1877</v>
       </c>
       <c r="B1215" s="2" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C1215" s="20" t="s">
         <v>2007</v>
       </c>
       <c r="D1215" s="32">
-        <v>46038</v>
-      </c>
-      <c r="E1215" s="32"/>
+        <v>46036</v>
+      </c>
+      <c r="E1215" s="32">
+        <v>46036</v>
+      </c>
       <c r="F1215" s="32"/>
-      <c r="G1215" s="31"/>
+      <c r="G1215" s="31">
+        <v>45996</v>
+      </c>
       <c r="H1215" s="2" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="I1215" s="5" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="J1215" s="15">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="K1215" s="20" t="s">
         <v>23</v>
       </c>
       <c r="L1215" s="14">
-        <v>15746.28</v>
+        <v>6588.17</v>
       </c>
       <c r="M1215" s="37">
         <v>1.18</v>
       </c>
       <c r="N1215" s="37">
-        <v>3.3660000000000001</v>
+        <v>3.3780000000000001</v>
       </c>
       <c r="O1215" s="5" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="P1215" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q1215" s="4"/>
-      <c r="R1215" s="4"/>
+      <c r="Q1215" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1215" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="1216" spans="1:18">
       <c r="A1216" s="16" t="s">
@@ -78442,7 +78513,7 @@
         <v>23</v>
       </c>
       <c r="L1216" s="14">
-        <v>1238.76</v>
+        <v>15746.28</v>
       </c>
       <c r="M1216" s="37">
         <v>1.18</v>
@@ -78451,7 +78522,7 @@
         <v>3.3660000000000001</v>
       </c>
       <c r="O1216" s="5" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="P1216" s="4" t="s">
         <v>25</v>
@@ -78460,7 +78531,7 @@
       <c r="R1216" s="4"/>
     </row>
     <row r="1217" spans="1:18">
-      <c r="A1217" s="50" t="s">
+      <c r="A1217" s="16" t="s">
         <v>2010</v>
       </c>
       <c r="B1217" s="2" t="s">
@@ -78488,7 +78559,7 @@
         <v>23</v>
       </c>
       <c r="L1217" s="14">
-        <v>4955.04</v>
+        <v>1238.76</v>
       </c>
       <c r="M1217" s="37">
         <v>1.18</v>
@@ -78506,7 +78577,7 @@
       <c r="R1217" s="4"/>
     </row>
     <row r="1218" spans="1:18">
-      <c r="A1218" s="16" t="s">
+      <c r="A1218" s="50" t="s">
         <v>2012</v>
       </c>
       <c r="B1218" s="2" t="s">
@@ -78534,7 +78605,7 @@
         <v>23</v>
       </c>
       <c r="L1218" s="14">
-        <v>825.44</v>
+        <v>4955.04</v>
       </c>
       <c r="M1218" s="37">
         <v>1.18</v>
@@ -78543,7 +78614,7 @@
         <v>3.3660000000000001</v>
       </c>
       <c r="O1218" s="5" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="P1218" s="4" t="s">
         <v>25</v>
@@ -78580,7 +78651,7 @@
         <v>23</v>
       </c>
       <c r="L1219" s="14">
-        <v>2558.4299999999998</v>
+        <v>825.44</v>
       </c>
       <c r="M1219" s="37">
         <v>1.18</v>
@@ -78626,7 +78697,7 @@
         <v>23</v>
       </c>
       <c r="L1220" s="14">
-        <v>19901.439999999999</v>
+        <v>2558.4299999999998</v>
       </c>
       <c r="M1220" s="37">
         <v>1.18</v>
@@ -78635,7 +78706,7 @@
         <v>3.3660000000000001</v>
       </c>
       <c r="O1220" s="5" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="P1220" s="4" t="s">
         <v>25</v>
@@ -78645,13 +78716,13 @@
     </row>
     <row r="1221" spans="1:18">
       <c r="A1221" s="16" t="s">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="B1221" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C1221" s="20" t="s">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D1221" s="32">
         <v>46038</v>
@@ -78672,7 +78743,7 @@
         <v>23</v>
       </c>
       <c r="L1221" s="14">
-        <v>1576.18</v>
+        <v>19901.439999999999</v>
       </c>
       <c r="M1221" s="37">
         <v>1.18</v>
@@ -78681,7 +78752,7 @@
         <v>3.3660000000000001</v>
       </c>
       <c r="O1221" s="5" t="s">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="P1221" s="4" t="s">
         <v>25</v>
@@ -78690,7 +78761,7 @@
       <c r="R1221" s="4"/>
     </row>
     <row r="1222" spans="1:18">
-      <c r="A1222" s="13" t="s">
+      <c r="A1222" s="16" t="s">
         <v>2018</v>
       </c>
       <c r="B1222" s="2" t="s">
@@ -78718,7 +78789,7 @@
         <v>23</v>
       </c>
       <c r="L1222" s="14">
-        <v>2308</v>
+        <v>1576.18</v>
       </c>
       <c r="M1222" s="37">
         <v>1.18</v>
@@ -78727,7 +78798,7 @@
         <v>3.3660000000000001</v>
       </c>
       <c r="O1222" s="5" t="s">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="P1222" s="4" t="s">
         <v>25</v>
@@ -78736,14 +78807,14 @@
       <c r="R1222" s="4"/>
     </row>
     <row r="1223" spans="1:18">
-      <c r="A1223" s="16" t="s">
+      <c r="A1223" s="13" t="s">
         <v>2020</v>
       </c>
       <c r="B1223" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C1223" s="20" t="s">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D1223" s="32">
         <v>46038</v>
@@ -78764,7 +78835,7 @@
         <v>23</v>
       </c>
       <c r="L1223" s="14">
-        <v>6193.8</v>
+        <v>2308</v>
       </c>
       <c r="M1223" s="37">
         <v>1.18</v>
@@ -78773,21 +78844,23 @@
         <v>3.3660000000000001</v>
       </c>
       <c r="O1223" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="P1223" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="P1223" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="Q1223" s="4"/>
       <c r="R1223" s="4"/>
     </row>
     <row r="1224" spans="1:18">
-      <c r="A1224" s="13" t="s">
-        <v>2021</v>
+      <c r="A1224" s="16" t="s">
+        <v>2022</v>
       </c>
       <c r="B1224" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C1224" s="20" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D1224" s="32">
         <v>46038</v>
@@ -78799,16 +78872,16 @@
         <v>46</v>
       </c>
       <c r="I1224" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J1224" s="15">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K1224" s="20" t="s">
         <v>23</v>
       </c>
       <c r="L1224" s="14">
-        <v>1279.72</v>
+        <v>6193.8</v>
       </c>
       <c r="M1224" s="37">
         <v>1.18</v>
@@ -78817,11 +78890,9 @@
         <v>3.3660000000000001</v>
       </c>
       <c r="O1224" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1224" s="4" t="s">
-        <v>25</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="P1224" s="4"/>
       <c r="Q1224" s="4"/>
       <c r="R1224" s="4"/>
     </row>
@@ -78854,7 +78925,7 @@
         <v>23</v>
       </c>
       <c r="L1225" s="14">
-        <v>21021.360000000001</v>
+        <v>1279.72</v>
       </c>
       <c r="M1225" s="37">
         <v>1.18</v>
@@ -78863,7 +78934,7 @@
         <v>3.3660000000000001</v>
       </c>
       <c r="O1225" s="5" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="P1225" s="4" t="s">
         <v>25</v>
@@ -78900,7 +78971,7 @@
         <v>23</v>
       </c>
       <c r="L1226" s="14">
-        <v>4393.3900000000003</v>
+        <v>21021.360000000001</v>
       </c>
       <c r="M1226" s="37">
         <v>1.18</v>
@@ -78937,16 +79008,16 @@
         <v>46</v>
       </c>
       <c r="I1227" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J1227" s="15">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K1227" s="20" t="s">
         <v>23</v>
       </c>
       <c r="L1227" s="14">
-        <v>716.76</v>
+        <v>4393.3900000000003</v>
       </c>
       <c r="M1227" s="37">
         <v>1.18</v>
@@ -78983,16 +79054,16 @@
         <v>46</v>
       </c>
       <c r="I1228" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J1228" s="15">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K1228" s="20" t="s">
         <v>23</v>
       </c>
       <c r="L1228" s="14">
-        <v>4393.3900000000003</v>
+        <v>716.76</v>
       </c>
       <c r="M1228" s="37">
         <v>1.18</v>
@@ -79038,7 +79109,7 @@
         <v>23</v>
       </c>
       <c r="L1229" s="14">
-        <v>15926.43</v>
+        <v>4393.3900000000003</v>
       </c>
       <c r="M1229" s="37">
         <v>1.18</v>
@@ -79047,7 +79118,7 @@
         <v>3.3660000000000001</v>
       </c>
       <c r="O1229" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="P1229" s="4" t="s">
         <v>25</v>
@@ -79057,13 +79128,13 @@
     </row>
     <row r="1230" spans="1:18">
       <c r="A1230" s="13" t="s">
-        <v>2031</v>
+        <v>2033</v>
       </c>
       <c r="B1230" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C1230" s="20" t="s">
-        <v>2032</v>
+        <v>2034</v>
       </c>
       <c r="D1230" s="32">
         <v>46038</v>
@@ -79084,7 +79155,7 @@
         <v>23</v>
       </c>
       <c r="L1230" s="14">
-        <v>3001.06</v>
+        <v>15926.43</v>
       </c>
       <c r="M1230" s="37">
         <v>1.18</v>
@@ -79093,7 +79164,7 @@
         <v>3.3660000000000001</v>
       </c>
       <c r="O1230" s="5" t="s">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="P1230" s="4" t="s">
         <v>25</v>
@@ -79130,7 +79201,7 @@
         <v>23</v>
       </c>
       <c r="L1231" s="14">
-        <v>7561.18</v>
+        <v>3001.06</v>
       </c>
       <c r="M1231" s="37">
         <v>1.18</v>
@@ -79139,7 +79210,7 @@
         <v>3.3660000000000001</v>
       </c>
       <c r="O1231" s="5" t="s">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="P1231" s="4" t="s">
         <v>25</v>
@@ -79176,7 +79247,7 @@
         <v>23</v>
       </c>
       <c r="L1232" s="14">
-        <v>2429.44</v>
+        <v>7561.18</v>
       </c>
       <c r="M1232" s="37">
         <v>1.18</v>
@@ -79222,7 +79293,7 @@
         <v>23</v>
       </c>
       <c r="L1233" s="14">
-        <v>607.36</v>
+        <v>2429.44</v>
       </c>
       <c r="M1233" s="37">
         <v>1.18</v>
@@ -79268,7 +79339,7 @@
         <v>23</v>
       </c>
       <c r="L1234" s="14">
-        <v>2559.65</v>
+        <v>607.36</v>
       </c>
       <c r="M1234" s="37">
         <v>1.18</v>
@@ -79305,16 +79376,16 @@
         <v>46</v>
       </c>
       <c r="I1235" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J1235" s="15">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K1235" s="20" t="s">
         <v>23</v>
       </c>
       <c r="L1235" s="14">
-        <v>13454.71</v>
+        <v>2559.65</v>
       </c>
       <c r="M1235" s="37">
         <v>1.18</v>
@@ -79332,7 +79403,7 @@
       <c r="R1235" s="4"/>
     </row>
     <row r="1236" spans="1:18">
-      <c r="A1236" s="16" t="s">
+      <c r="A1236" s="13" t="s">
         <v>2043</v>
       </c>
       <c r="B1236" s="2" t="s">
@@ -79351,16 +79422,16 @@
         <v>46</v>
       </c>
       <c r="I1236" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J1236" s="15">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K1236" s="20" t="s">
         <v>23</v>
       </c>
       <c r="L1236" s="14">
-        <v>17442.04</v>
+        <v>13454.71</v>
       </c>
       <c r="M1236" s="37">
         <v>1.18</v>
@@ -79369,7 +79440,7 @@
         <v>3.3660000000000001</v>
       </c>
       <c r="O1236" s="5" t="s">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="P1236" s="4" t="s">
         <v>25</v>
@@ -79378,7 +79449,7 @@
       <c r="R1236" s="4"/>
     </row>
     <row r="1237" spans="1:18">
-      <c r="A1237" s="17" t="s">
+      <c r="A1237" s="16" t="s">
         <v>2045</v>
       </c>
       <c r="B1237" s="2" t="s">
@@ -79388,7 +79459,7 @@
         <v>2046</v>
       </c>
       <c r="D1237" s="32">
-        <v>46041</v>
+        <v>46038</v>
       </c>
       <c r="E1237" s="32"/>
       <c r="F1237" s="32"/>
@@ -79397,25 +79468,25 @@
         <v>46</v>
       </c>
       <c r="I1237" s="5" t="s">
-        <v>469</v>
+        <v>51</v>
       </c>
       <c r="J1237" s="15">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K1237" s="20" t="s">
         <v>23</v>
       </c>
       <c r="L1237" s="14">
-        <v>5905.6</v>
+        <v>17442.04</v>
       </c>
       <c r="M1237" s="37">
         <v>1.18</v>
       </c>
       <c r="N1237" s="37">
-        <v>3.363</v>
+        <v>3.3660000000000001</v>
       </c>
       <c r="O1237" s="5" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="P1237" s="4" t="s">
         <v>25</v>
@@ -79424,14 +79495,14 @@
       <c r="R1237" s="4"/>
     </row>
     <row r="1238" spans="1:18">
-      <c r="A1238" s="16" t="s">
-        <v>1799</v>
+      <c r="A1238" s="17" t="s">
+        <v>2047</v>
       </c>
       <c r="B1238" s="2" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C1238" s="20" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="D1238" s="32">
         <v>46041</v>
@@ -79440,19 +79511,19 @@
       <c r="F1238" s="32"/>
       <c r="G1238" s="31"/>
       <c r="H1238" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I1238" s="5" t="s">
-        <v>137</v>
+        <v>469</v>
       </c>
       <c r="J1238" s="15">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K1238" s="20" t="s">
         <v>23</v>
       </c>
       <c r="L1238" s="14">
-        <v>1064.6600000000001</v>
+        <v>5905.6</v>
       </c>
       <c r="M1238" s="37">
         <v>1.18</v>
@@ -79461,63 +79532,65 @@
         <v>3.363</v>
       </c>
       <c r="O1238" s="5" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="P1238" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q1238" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="R1238" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="Q1238" s="4"/>
+      <c r="R1238" s="4"/>
     </row>
     <row r="1239" spans="1:18">
-      <c r="A1239" s="13" t="s">
-        <v>2048</v>
+      <c r="A1239" s="16" t="s">
+        <v>1799</v>
       </c>
       <c r="B1239" s="2" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C1239" s="20" t="s">
         <v>2049</v>
       </c>
       <c r="D1239" s="32">
-        <v>46042</v>
+        <v>46041</v>
       </c>
       <c r="E1239" s="32"/>
       <c r="F1239" s="32"/>
-      <c r="G1239" s="31"/>
+      <c r="G1239" s="31">
+        <v>46041</v>
+      </c>
       <c r="H1239" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="I1239" s="5" t="s">
-        <v>51</v>
+        <v>137</v>
       </c>
       <c r="J1239" s="15">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="K1239" s="20" t="s">
         <v>23</v>
       </c>
       <c r="L1239" s="14">
-        <v>3177.88</v>
+        <v>1064.6600000000001</v>
       </c>
       <c r="M1239" s="37">
         <v>1.18</v>
       </c>
       <c r="N1239" s="37">
-        <v>3.3660000000000001</v>
+        <v>3.363</v>
       </c>
       <c r="O1239" s="5" t="s">
-        <v>553</v>
+        <v>52</v>
       </c>
       <c r="P1239" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q1239" s="4"/>
-      <c r="R1239" s="4"/>
+      <c r="Q1239" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1239" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="1240" spans="1:18">
       <c r="A1240" s="13" t="s">
@@ -79548,7 +79621,7 @@
         <v>23</v>
       </c>
       <c r="L1240" s="14">
-        <v>26212.83</v>
+        <v>3177.88</v>
       </c>
       <c r="M1240" s="37">
         <v>1.18</v>
@@ -79557,7 +79630,7 @@
         <v>3.3660000000000001</v>
       </c>
       <c r="O1240" s="5" t="s">
-        <v>48</v>
+        <v>553</v>
       </c>
       <c r="P1240" s="4" t="s">
         <v>25</v>
@@ -79566,7 +79639,7 @@
       <c r="R1240" s="4"/>
     </row>
     <row r="1241" spans="1:18">
-      <c r="A1241" s="16" t="s">
+      <c r="A1241" s="13" t="s">
         <v>2052</v>
       </c>
       <c r="B1241" s="2" t="s">
@@ -79594,7 +79667,7 @@
         <v>23</v>
       </c>
       <c r="L1241" s="14">
-        <v>4754.2</v>
+        <v>26212.83</v>
       </c>
       <c r="M1241" s="37">
         <v>1.18</v>
@@ -79640,7 +79713,7 @@
         <v>23</v>
       </c>
       <c r="L1242" s="14">
-        <v>10321.11</v>
+        <v>4754.2</v>
       </c>
       <c r="M1242" s="37">
         <v>1.18</v>
@@ -79649,7 +79722,7 @@
         <v>3.3660000000000001</v>
       </c>
       <c r="O1242" s="5" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="P1242" s="4" t="s">
         <v>25</v>
@@ -79686,7 +79759,7 @@
         <v>23</v>
       </c>
       <c r="L1243" s="14">
-        <v>1084.3499999999999</v>
+        <v>10321.11</v>
       </c>
       <c r="M1243" s="37">
         <v>1.18</v>
@@ -79695,7 +79768,7 @@
         <v>3.3660000000000001</v>
       </c>
       <c r="O1243" s="5" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="P1243" s="4" t="s">
         <v>25</v>
@@ -79704,7 +79777,7 @@
       <c r="R1243" s="4"/>
     </row>
     <row r="1244" spans="1:18">
-      <c r="A1244" s="50" t="s">
+      <c r="A1244" s="16" t="s">
         <v>2058</v>
       </c>
       <c r="B1244" s="2" t="s">
@@ -79732,7 +79805,7 @@
         <v>23</v>
       </c>
       <c r="L1244" s="14">
-        <v>916.2</v>
+        <v>1084.3499999999999</v>
       </c>
       <c r="M1244" s="37">
         <v>1.18</v>
@@ -79741,7 +79814,7 @@
         <v>3.3660000000000001</v>
       </c>
       <c r="O1244" s="5" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="P1244" s="4" t="s">
         <v>25</v>
@@ -79751,13 +79824,13 @@
     </row>
     <row r="1245" spans="1:18">
       <c r="A1245" s="50" t="s">
-        <v>2058</v>
+        <v>2060</v>
       </c>
       <c r="B1245" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C1245" s="20" t="s">
-        <v>2059</v>
+        <v>2061</v>
       </c>
       <c r="D1245" s="32">
         <v>46042</v>
@@ -79778,7 +79851,7 @@
         <v>23</v>
       </c>
       <c r="L1245" s="14">
-        <v>8027.32</v>
+        <v>916.2</v>
       </c>
       <c r="M1245" s="37">
         <v>1.18</v>
@@ -79787,7 +79860,7 @@
         <v>3.3660000000000001</v>
       </c>
       <c r="O1245" s="5" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="P1245" s="4" t="s">
         <v>25</v>
@@ -79796,7 +79869,7 @@
       <c r="R1245" s="4"/>
     </row>
     <row r="1246" spans="1:18">
-      <c r="A1246" s="16" t="s">
+      <c r="A1246" s="50" t="s">
         <v>2060</v>
       </c>
       <c r="B1246" s="2" t="s">
@@ -79824,7 +79897,7 @@
         <v>23</v>
       </c>
       <c r="L1246" s="14">
-        <v>7262.56</v>
+        <v>8027.32</v>
       </c>
       <c r="M1246" s="37">
         <v>1.18</v>
@@ -79833,7 +79906,7 @@
         <v>3.3660000000000001</v>
       </c>
       <c r="O1246" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="P1246" s="4" t="s">
         <v>25</v>
@@ -79870,7 +79943,7 @@
         <v>23</v>
       </c>
       <c r="L1247" s="14">
-        <v>6022.65</v>
+        <v>7262.56</v>
       </c>
       <c r="M1247" s="37">
         <v>1.18</v>
@@ -79879,7 +79952,7 @@
         <v>3.3660000000000001</v>
       </c>
       <c r="O1247" s="5" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="P1247" s="4" t="s">
         <v>25</v>
@@ -79888,14 +79961,14 @@
       <c r="R1247" s="4"/>
     </row>
     <row r="1248" spans="1:18">
-      <c r="A1248" s="13" t="s">
-        <v>1700</v>
+      <c r="A1248" s="16" t="s">
+        <v>2064</v>
       </c>
       <c r="B1248" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C1248" s="20" t="s">
-        <v>2064</v>
+        <v>2065</v>
       </c>
       <c r="D1248" s="32">
         <v>46042</v>
@@ -79916,7 +79989,7 @@
         <v>23</v>
       </c>
       <c r="L1248" s="14">
-        <v>2800</v>
+        <v>6022.65</v>
       </c>
       <c r="M1248" s="37">
         <v>1.18</v>
@@ -79925,7 +79998,7 @@
         <v>3.3660000000000001</v>
       </c>
       <c r="O1248" s="5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="P1248" s="4" t="s">
         <v>25</v>
@@ -79934,8 +80007,8 @@
       <c r="R1248" s="4"/>
     </row>
     <row r="1249" spans="1:18">
-      <c r="A1249" s="16" t="s">
-        <v>2065</v>
+      <c r="A1249" s="13" t="s">
+        <v>1700</v>
       </c>
       <c r="B1249" s="2" t="s">
         <v>39</v>
@@ -79962,7 +80035,7 @@
         <v>23</v>
       </c>
       <c r="L1249" s="14">
-        <v>1017.23</v>
+        <v>2800</v>
       </c>
       <c r="M1249" s="37">
         <v>1.18</v>
@@ -79971,7 +80044,7 @@
         <v>3.3660000000000001</v>
       </c>
       <c r="O1249" s="5" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="P1249" s="4" t="s">
         <v>25</v>
@@ -80008,7 +80081,7 @@
         <v>23</v>
       </c>
       <c r="L1250" s="14">
-        <v>8597.92</v>
+        <v>1017.23</v>
       </c>
       <c r="M1250" s="37">
         <v>1.18</v>
@@ -80054,7 +80127,7 @@
         <v>23</v>
       </c>
       <c r="L1251" s="14">
-        <v>20746.62</v>
+        <v>8597.92</v>
       </c>
       <c r="M1251" s="37">
         <v>1.18</v>
@@ -80063,7 +80136,7 @@
         <v>3.3660000000000001</v>
       </c>
       <c r="O1251" s="5" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="P1251" s="4" t="s">
         <v>25</v>
@@ -80073,13 +80146,13 @@
     </row>
     <row r="1252" spans="1:18">
       <c r="A1252" s="16" t="s">
-        <v>2069</v>
+        <v>2071</v>
       </c>
       <c r="B1252" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C1252" s="20" t="s">
-        <v>2070</v>
+        <v>2072</v>
       </c>
       <c r="D1252" s="32">
         <v>46042</v>
@@ -80100,7 +80173,7 @@
         <v>23</v>
       </c>
       <c r="L1252" s="14">
-        <v>2794.16</v>
+        <v>20746.62</v>
       </c>
       <c r="M1252" s="37">
         <v>1.18</v>
@@ -80109,7 +80182,7 @@
         <v>3.3660000000000001</v>
       </c>
       <c r="O1252" s="5" t="s">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="P1252" s="4" t="s">
         <v>25</v>
@@ -80146,7 +80219,7 @@
         <v>23</v>
       </c>
       <c r="L1253" s="14">
-        <v>837.42</v>
+        <v>2794.16</v>
       </c>
       <c r="M1253" s="37">
         <v>1.18</v>
@@ -80157,56 +80230,60 @@
       <c r="O1253" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="P1253" s="4"/>
+      <c r="P1253" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="Q1253" s="4"/>
       <c r="R1253" s="4"/>
     </row>
     <row r="1254" spans="1:18">
-      <c r="A1254" s="5"/>
+      <c r="A1254" s="16" t="s">
+        <v>2073</v>
+      </c>
       <c r="B1254" s="2" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C1254" s="20" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="D1254" s="32">
-        <v>46043</v>
+        <v>46042</v>
       </c>
       <c r="E1254" s="32"/>
       <c r="F1254" s="32"/>
       <c r="G1254" s="31"/>
       <c r="H1254" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="I1254" s="5" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="J1254" s="15">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="K1254" s="20" t="s">
         <v>23</v>
       </c>
       <c r="L1254" s="14">
-        <v>4684.25</v>
+        <v>837.42</v>
       </c>
       <c r="M1254" s="37">
         <v>1.18</v>
       </c>
       <c r="N1254" s="37">
-        <v>3.363</v>
-      </c>
-      <c r="O1254" s="5"/>
+        <v>3.3660000000000001</v>
+      </c>
+      <c r="O1254" s="5" t="s">
+        <v>120</v>
+      </c>
       <c r="P1254" s="4"/>
       <c r="Q1254" s="4"/>
       <c r="R1254" s="4"/>
     </row>
     <row r="1255" spans="1:18">
-      <c r="A1255" s="16" t="s">
-        <v>2074</v>
-      </c>
+      <c r="A1255" s="5"/>
       <c r="B1255" s="2" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C1255" s="20" t="s">
         <v>2075</v>
@@ -80218,19 +80295,19 @@
       <c r="F1255" s="32"/>
       <c r="G1255" s="31"/>
       <c r="H1255" s="2" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="I1255" s="5" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="J1255" s="15">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="K1255" s="20" t="s">
         <v>23</v>
       </c>
       <c r="L1255" s="14">
-        <v>2616.1799999999998</v>
+        <v>4684.25</v>
       </c>
       <c r="M1255" s="37">
         <v>1.18</v>
@@ -80238,9 +80315,7 @@
       <c r="N1255" s="37">
         <v>3.363</v>
       </c>
-      <c r="O1255" s="5" t="s">
-        <v>553</v>
-      </c>
+      <c r="O1255" s="5"/>
       <c r="P1255" s="4"/>
       <c r="Q1255" s="4"/>
       <c r="R1255" s="4"/>
@@ -80274,7 +80349,7 @@
         <v>23</v>
       </c>
       <c r="L1256" s="14">
-        <v>10873.76</v>
+        <v>2616.1799999999998</v>
       </c>
       <c r="M1256" s="37">
         <v>1.18</v>
@@ -80283,7 +80358,7 @@
         <v>3.363</v>
       </c>
       <c r="O1256" s="5" t="s">
-        <v>74</v>
+        <v>553</v>
       </c>
       <c r="P1256" s="4"/>
       <c r="Q1256" s="4"/>
@@ -80291,13 +80366,13 @@
     </row>
     <row r="1257" spans="1:18">
       <c r="A1257" s="16" t="s">
-        <v>2076</v>
+        <v>2078</v>
       </c>
       <c r="B1257" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C1257" s="20" t="s">
-        <v>2077</v>
+        <v>2079</v>
       </c>
       <c r="D1257" s="32">
         <v>46043</v>
@@ -80318,7 +80393,7 @@
         <v>23</v>
       </c>
       <c r="L1257" s="14">
-        <v>5304.84</v>
+        <v>10873.76</v>
       </c>
       <c r="M1257" s="37">
         <v>1.18</v>
@@ -80327,7 +80402,7 @@
         <v>3.363</v>
       </c>
       <c r="O1257" s="5" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="P1257" s="4"/>
       <c r="Q1257" s="4"/>
@@ -80335,13 +80410,13 @@
     </row>
     <row r="1258" spans="1:18">
       <c r="A1258" s="16" t="s">
-        <v>2076</v>
+        <v>2078</v>
       </c>
       <c r="B1258" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C1258" s="20" t="s">
-        <v>2077</v>
+        <v>2079</v>
       </c>
       <c r="D1258" s="32">
         <v>46043</v>
@@ -80362,7 +80437,7 @@
         <v>23</v>
       </c>
       <c r="L1258" s="14">
-        <v>316.02</v>
+        <v>5304.84</v>
       </c>
       <c r="M1258" s="37">
         <v>1.18</v>
@@ -80371,7 +80446,7 @@
         <v>3.363</v>
       </c>
       <c r="O1258" s="5" t="s">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="P1258" s="4"/>
       <c r="Q1258" s="4"/>
@@ -80397,16 +80472,16 @@
         <v>46</v>
       </c>
       <c r="I1259" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J1259" s="15">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K1259" s="20" t="s">
         <v>23</v>
       </c>
       <c r="L1259" s="14">
-        <v>24921.599999999999</v>
+        <v>316.02</v>
       </c>
       <c r="M1259" s="37">
         <v>1.18</v>
@@ -80415,7 +80490,7 @@
         <v>3.363</v>
       </c>
       <c r="O1259" s="5" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="P1259" s="4"/>
       <c r="Q1259" s="4"/>
@@ -80426,7 +80501,7 @@
         <v>2080</v>
       </c>
       <c r="B1260" s="2" t="s">
-        <v>498</v>
+        <v>39</v>
       </c>
       <c r="C1260" s="20" t="s">
         <v>2081</v>
@@ -80450,7 +80525,7 @@
         <v>23</v>
       </c>
       <c r="L1260" s="14">
-        <v>13706.88</v>
+        <v>24921.599999999999</v>
       </c>
       <c r="M1260" s="37">
         <v>1.18</v>
@@ -80470,7 +80545,7 @@
         <v>2082</v>
       </c>
       <c r="B1261" s="2" t="s">
-        <v>39</v>
+        <v>498</v>
       </c>
       <c r="C1261" s="20" t="s">
         <v>2083</v>
@@ -80494,7 +80569,7 @@
         <v>23</v>
       </c>
       <c r="L1261" s="14">
-        <v>19937.28</v>
+        <v>13706.88</v>
       </c>
       <c r="M1261" s="37">
         <v>1.18</v>
@@ -80538,7 +80613,7 @@
         <v>23</v>
       </c>
       <c r="L1262" s="14">
-        <v>5786.19</v>
+        <v>19937.28</v>
       </c>
       <c r="M1262" s="37">
         <v>1.18</v>
@@ -80582,7 +80657,7 @@
         <v>23</v>
       </c>
       <c r="L1263" s="14">
-        <v>7476.48</v>
+        <v>5786.19</v>
       </c>
       <c r="M1263" s="37">
         <v>1.18</v>
@@ -80599,16 +80674,16 @@
     </row>
     <row r="1264" spans="1:18">
       <c r="A1264" s="16" t="s">
-        <v>2080</v>
+        <v>2088</v>
       </c>
       <c r="B1264" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C1264" s="20" t="s">
-        <v>2088</v>
+        <v>2089</v>
       </c>
       <c r="D1264" s="32">
-        <v>46044</v>
+        <v>46043</v>
       </c>
       <c r="E1264" s="32"/>
       <c r="F1264" s="32"/>
@@ -80626,13 +80701,13 @@
         <v>23</v>
       </c>
       <c r="L1264" s="14">
-        <v>12460.8</v>
+        <v>7476.48</v>
       </c>
       <c r="M1264" s="37">
         <v>1.18</v>
       </c>
       <c r="N1264" s="37">
-        <v>3.359</v>
+        <v>3.363</v>
       </c>
       <c r="O1264" s="5" t="s">
         <v>48</v>
@@ -80642,12 +80717,14 @@
       <c r="R1264" s="4"/>
     </row>
     <row r="1265" spans="1:18">
-      <c r="A1265" s="5"/>
+      <c r="A1265" s="16" t="s">
+        <v>2082</v>
+      </c>
       <c r="B1265" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C1265" s="20" t="s">
-        <v>2089</v>
+        <v>2090</v>
       </c>
       <c r="D1265" s="32">
         <v>46044</v>
@@ -80656,19 +80733,19 @@
       <c r="F1265" s="32"/>
       <c r="G1265" s="31"/>
       <c r="H1265" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="I1265" s="5" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="J1265" s="15">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="K1265" s="20" t="s">
         <v>23</v>
       </c>
       <c r="L1265" s="14">
-        <v>3847.78</v>
+        <v>12460.8</v>
       </c>
       <c r="M1265" s="37">
         <v>1.18</v>
@@ -80676,7 +80753,9 @@
       <c r="N1265" s="37">
         <v>3.359</v>
       </c>
-      <c r="O1265" s="5"/>
+      <c r="O1265" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="P1265" s="4"/>
       <c r="Q1265" s="4"/>
       <c r="R1265" s="4"/>
@@ -80687,7 +80766,7 @@
         <v>39</v>
       </c>
       <c r="C1266" s="20" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="D1266" s="32">
         <v>46044</v>
@@ -80696,10 +80775,10 @@
       <c r="F1266" s="32"/>
       <c r="G1266" s="31"/>
       <c r="H1266" s="2" t="s">
-        <v>221</v>
+        <v>21</v>
       </c>
       <c r="I1266" s="5" t="s">
-        <v>305</v>
+        <v>22</v>
       </c>
       <c r="J1266" s="15">
         <v>5</v>
@@ -80708,7 +80787,7 @@
         <v>23</v>
       </c>
       <c r="L1266" s="14">
-        <v>490</v>
+        <v>3847.78</v>
       </c>
       <c r="M1266" s="37">
         <v>1.18</v>
@@ -80722,9 +80801,7 @@
       <c r="R1266" s="4"/>
     </row>
     <row r="1267" spans="1:18">
-      <c r="A1267" s="13" t="s">
-        <v>2091</v>
-      </c>
+      <c r="A1267" s="5"/>
       <c r="B1267" s="2" t="s">
         <v>39</v>
       </c>
@@ -80738,19 +80815,19 @@
       <c r="F1267" s="32"/>
       <c r="G1267" s="31"/>
       <c r="H1267" s="2" t="s">
-        <v>46</v>
+        <v>221</v>
       </c>
       <c r="I1267" s="5" t="s">
-        <v>51</v>
+        <v>305</v>
       </c>
       <c r="J1267" s="15">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="K1267" s="20" t="s">
         <v>23</v>
       </c>
       <c r="L1267" s="14">
-        <v>30020.38</v>
+        <v>490</v>
       </c>
       <c r="M1267" s="37">
         <v>1.18</v>
@@ -80758,15 +80835,13 @@
       <c r="N1267" s="37">
         <v>3.359</v>
       </c>
-      <c r="O1267" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="O1267" s="5"/>
       <c r="P1267" s="4"/>
       <c r="Q1267" s="4"/>
       <c r="R1267" s="4"/>
     </row>
     <row r="1268" spans="1:18">
-      <c r="A1268" s="16" t="s">
+      <c r="A1268" s="13" t="s">
         <v>2093</v>
       </c>
       <c r="B1268" s="2" t="s">
@@ -80794,7 +80869,7 @@
         <v>23</v>
       </c>
       <c r="L1268" s="14">
-        <v>5522.81</v>
+        <v>30020.38</v>
       </c>
       <c r="M1268" s="37">
         <v>1.18</v>
@@ -80803,7 +80878,7 @@
         <v>3.359</v>
       </c>
       <c r="O1268" s="5" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="P1268" s="4"/>
       <c r="Q1268" s="4"/>
@@ -80811,13 +80886,13 @@
     </row>
     <row r="1269" spans="1:18">
       <c r="A1269" s="16" t="s">
-        <v>2093</v>
+        <v>2095</v>
       </c>
       <c r="B1269" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C1269" s="20" t="s">
-        <v>2094</v>
+        <v>2096</v>
       </c>
       <c r="D1269" s="32">
         <v>46044</v>
@@ -80838,7 +80913,7 @@
         <v>23</v>
       </c>
       <c r="L1269" s="14">
-        <v>1791.76</v>
+        <v>5522.81</v>
       </c>
       <c r="M1269" s="37">
         <v>1.18</v>
@@ -80847,7 +80922,7 @@
         <v>3.359</v>
       </c>
       <c r="O1269" s="5" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="P1269" s="4"/>
       <c r="Q1269" s="4"/>
@@ -80864,7 +80939,7 @@
         <v>2096</v>
       </c>
       <c r="D1270" s="32">
-        <v>46045</v>
+        <v>46044</v>
       </c>
       <c r="E1270" s="32"/>
       <c r="F1270" s="32"/>
@@ -80873,25 +80948,25 @@
         <v>46</v>
       </c>
       <c r="I1270" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J1270" s="15">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K1270" s="20" t="s">
         <v>23</v>
       </c>
       <c r="L1270" s="14">
-        <v>561.57000000000005</v>
+        <v>1791.76</v>
       </c>
       <c r="M1270" s="37">
         <v>1.18</v>
       </c>
       <c r="N1270" s="37">
-        <v>3.36</v>
+        <v>3.359</v>
       </c>
       <c r="O1270" s="5" t="s">
-        <v>1196</v>
+        <v>48</v>
       </c>
       <c r="P1270" s="4"/>
       <c r="Q1270" s="4"/>
@@ -80917,16 +80992,16 @@
         <v>46</v>
       </c>
       <c r="I1271" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J1271" s="15">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K1271" s="20" t="s">
         <v>23</v>
       </c>
       <c r="L1271" s="14">
-        <v>2351.87</v>
+        <v>561.57000000000005</v>
       </c>
       <c r="M1271" s="37">
         <v>1.18</v>
@@ -80935,7 +81010,7 @@
         <v>3.36</v>
       </c>
       <c r="O1271" s="5" t="s">
-        <v>74</v>
+        <v>1196</v>
       </c>
       <c r="P1271" s="4"/>
       <c r="Q1271" s="4"/>
@@ -80970,7 +81045,7 @@
         <v>23</v>
       </c>
       <c r="L1272" s="14">
-        <v>1645.97</v>
+        <v>2351.87</v>
       </c>
       <c r="M1272" s="37">
         <v>1.18</v>
@@ -80979,7 +81054,7 @@
         <v>3.36</v>
       </c>
       <c r="O1272" s="5" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="P1272" s="4"/>
       <c r="Q1272" s="4"/>
@@ -81005,16 +81080,16 @@
         <v>46</v>
       </c>
       <c r="I1273" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J1273" s="15">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K1273" s="20" t="s">
         <v>23</v>
       </c>
       <c r="L1273" s="14">
-        <v>16210.54</v>
+        <v>1645.97</v>
       </c>
       <c r="M1273" s="37">
         <v>1.18</v>
@@ -81023,7 +81098,7 @@
         <v>3.36</v>
       </c>
       <c r="O1273" s="5" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="P1273" s="4"/>
       <c r="Q1273" s="4"/>
@@ -81049,16 +81124,16 @@
         <v>46</v>
       </c>
       <c r="I1274" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J1274" s="15">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K1274" s="20" t="s">
         <v>23</v>
       </c>
       <c r="L1274" s="14">
-        <v>2365.92</v>
+        <v>16210.54</v>
       </c>
       <c r="M1274" s="37">
         <v>1.18</v>
@@ -81067,7 +81142,7 @@
         <v>3.36</v>
       </c>
       <c r="O1274" s="5" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="P1274" s="4"/>
       <c r="Q1274" s="4"/>
@@ -81102,7 +81177,7 @@
         <v>23</v>
       </c>
       <c r="L1275" s="14">
-        <v>7177.6</v>
+        <v>2365.92</v>
       </c>
       <c r="M1275" s="37">
         <v>1.18</v>
@@ -81111,7 +81186,7 @@
         <v>3.36</v>
       </c>
       <c r="O1275" s="5" t="s">
-        <v>1452</v>
+        <v>48</v>
       </c>
       <c r="P1275" s="4"/>
       <c r="Q1275" s="4"/>
@@ -81146,7 +81221,7 @@
         <v>23</v>
       </c>
       <c r="L1276" s="14">
-        <v>2881.17</v>
+        <v>7177.6</v>
       </c>
       <c r="M1276" s="37">
         <v>1.18</v>
@@ -81155,7 +81230,7 @@
         <v>3.36</v>
       </c>
       <c r="O1276" s="5" t="s">
-        <v>30</v>
+        <v>1452</v>
       </c>
       <c r="P1276" s="4"/>
       <c r="Q1276" s="4"/>
@@ -81181,16 +81256,16 @@
         <v>46</v>
       </c>
       <c r="I1277" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J1277" s="15">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K1277" s="20" t="s">
         <v>23</v>
       </c>
       <c r="L1277" s="14">
-        <v>21787.88</v>
+        <v>2881.17</v>
       </c>
       <c r="M1277" s="37">
         <v>1.18</v>
@@ -81199,28 +81274,52 @@
         <v>3.36</v>
       </c>
       <c r="O1277" s="5" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="P1277" s="4"/>
       <c r="Q1277" s="4"/>
       <c r="R1277" s="4"/>
     </row>
     <row r="1278" spans="1:18">
-      <c r="A1278" s="5"/>
-      <c r="B1278" s="2"/>
-      <c r="C1278" s="20"/>
-      <c r="D1278" s="32"/>
+      <c r="A1278" s="16" t="s">
+        <v>2111</v>
+      </c>
+      <c r="B1278" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1278" s="20" t="s">
+        <v>2112</v>
+      </c>
+      <c r="D1278" s="32">
+        <v>46045</v>
+      </c>
       <c r="E1278" s="32"/>
       <c r="F1278" s="32"/>
       <c r="G1278" s="31"/>
-      <c r="H1278" s="2"/>
-      <c r="I1278" s="5"/>
-      <c r="J1278" s="15"/>
-      <c r="K1278" s="20"/>
-      <c r="L1278" s="14"/>
-      <c r="M1278" s="53"/>
-      <c r="N1278" s="53"/>
-      <c r="O1278" s="5"/>
+      <c r="H1278" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1278" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1278" s="15">
+        <v>60</v>
+      </c>
+      <c r="K1278" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1278" s="14">
+        <v>21787.88</v>
+      </c>
+      <c r="M1278" s="37">
+        <v>1.18</v>
+      </c>
+      <c r="N1278" s="37">
+        <v>3.36</v>
+      </c>
+      <c r="O1278" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="P1278" s="4"/>
       <c r="Q1278" s="4"/>
       <c r="R1278" s="4"/>
@@ -81384,6 +81483,26 @@
       <c r="P1286" s="4"/>
       <c r="Q1286" s="4"/>
       <c r="R1286" s="4"/>
+    </row>
+    <row r="1287" spans="1:18">
+      <c r="A1287" s="5"/>
+      <c r="B1287" s="2"/>
+      <c r="C1287" s="20"/>
+      <c r="D1287" s="32"/>
+      <c r="E1287" s="32"/>
+      <c r="F1287" s="32"/>
+      <c r="G1287" s="31"/>
+      <c r="H1287" s="2"/>
+      <c r="I1287" s="5"/>
+      <c r="J1287" s="15"/>
+      <c r="K1287" s="20"/>
+      <c r="L1287" s="14"/>
+      <c r="M1287" s="53"/>
+      <c r="N1287" s="53"/>
+      <c r="O1287" s="5"/>
+      <c r="P1287" s="4"/>
+      <c r="Q1287" s="4"/>
+      <c r="R1287" s="4"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H31:H35">
@@ -82159,76 +82278,76 @@
   <conditionalFormatting sqref="A1114">
     <cfRule type="duplicateValues" dxfId="178" priority="118"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1148">
+  <conditionalFormatting sqref="A1149">
     <cfRule type="duplicateValues" dxfId="177" priority="117"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1139">
+  <conditionalFormatting sqref="A1139:A1140">
     <cfRule type="duplicateValues" dxfId="176" priority="116"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1140">
+  <conditionalFormatting sqref="A1141">
     <cfRule type="duplicateValues" dxfId="175" priority="115"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1141:A1142">
+  <conditionalFormatting sqref="A1142:A1143">
     <cfRule type="duplicateValues" dxfId="174" priority="114"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1143">
+  <conditionalFormatting sqref="A1144">
     <cfRule type="duplicateValues" dxfId="173" priority="113"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1145">
+  <conditionalFormatting sqref="A1146">
     <cfRule type="duplicateValues" dxfId="172" priority="112"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1146">
+  <conditionalFormatting sqref="A1147">
     <cfRule type="duplicateValues" dxfId="171" priority="111"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1147">
+  <conditionalFormatting sqref="A1148">
     <cfRule type="duplicateValues" dxfId="170" priority="110"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1149:A1152">
+  <conditionalFormatting sqref="A1150:A1153">
     <cfRule type="duplicateValues" dxfId="169" priority="109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A457">
     <cfRule type="duplicateValues" dxfId="168" priority="108"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1144 A1027 A1008:A1009 A950 A865:A866 A5:A138 A810:A811 A140:A332 A825 A756:A778 A798:A804 A780:A794 A829 A968 A1084 A1104 A1107 A334:A456 A1158 A458:A505 A507:A556 A558:A750">
+  <conditionalFormatting sqref="A1145 A1027 A1008:A1009 A950 A865:A866 A5:A138 A810:A811 A140:A332 A825 A756:A778 A798:A804 A780:A794 A829 A968 A1084 A1104 A1107 A334:A456 A1159 A458:A505 A507:A556 A558:A750">
     <cfRule type="duplicateValues" dxfId="167" priority="1104"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1161">
+  <conditionalFormatting sqref="A1162">
     <cfRule type="duplicateValues" dxfId="166" priority="107"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1159:A1160">
+  <conditionalFormatting sqref="A1160:A1161">
     <cfRule type="duplicateValues" dxfId="165" priority="106"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1162:A1164">
+  <conditionalFormatting sqref="A1163:A1165">
     <cfRule type="duplicateValues" dxfId="164" priority="104"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1165">
+  <conditionalFormatting sqref="A1166">
     <cfRule type="duplicateValues" dxfId="163" priority="103"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1166">
+  <conditionalFormatting sqref="A1167">
     <cfRule type="duplicateValues" dxfId="162" priority="102"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1167">
+  <conditionalFormatting sqref="A1168">
     <cfRule type="duplicateValues" dxfId="161" priority="101"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1153">
+  <conditionalFormatting sqref="A1154">
     <cfRule type="duplicateValues" dxfId="160" priority="100"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1157">
+  <conditionalFormatting sqref="A1158">
     <cfRule type="duplicateValues" dxfId="159" priority="98"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1154">
+  <conditionalFormatting sqref="A1155">
     <cfRule type="duplicateValues" dxfId="158" priority="97"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1155">
+  <conditionalFormatting sqref="A1156">
     <cfRule type="duplicateValues" dxfId="157" priority="96"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1156">
+  <conditionalFormatting sqref="A1157">
     <cfRule type="duplicateValues" dxfId="156" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A830:A841">
     <cfRule type="duplicateValues" dxfId="155" priority="1127"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:C1286">
+  <conditionalFormatting sqref="C5:C1287">
     <cfRule type="duplicateValues" dxfId="154" priority="1149"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A506">
@@ -82252,276 +82371,276 @@
   <conditionalFormatting sqref="A1081">
     <cfRule type="duplicateValues" dxfId="147" priority="88"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1168">
+  <conditionalFormatting sqref="A1169">
     <cfRule type="duplicateValues" dxfId="146" priority="87"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1169">
+  <conditionalFormatting sqref="A1170">
     <cfRule type="duplicateValues" dxfId="145" priority="86"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1170">
+  <conditionalFormatting sqref="A1171">
     <cfRule type="duplicateValues" dxfId="144" priority="85"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1171">
+  <conditionalFormatting sqref="A1172">
     <cfRule type="duplicateValues" dxfId="143" priority="84"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1172">
+  <conditionalFormatting sqref="A1173">
     <cfRule type="duplicateValues" dxfId="142" priority="83"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1173">
+  <conditionalFormatting sqref="A1174">
     <cfRule type="duplicateValues" dxfId="141" priority="82"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1242 A1193:A1194 A1210:A1213 A1249">
+  <conditionalFormatting sqref="A1243 A1194:A1195 A1211:A1214 A1250">
     <cfRule type="duplicateValues" dxfId="140" priority="81"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1174">
+  <conditionalFormatting sqref="A1175">
     <cfRule type="duplicateValues" dxfId="139" priority="80"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1175">
+  <conditionalFormatting sqref="A1176">
     <cfRule type="duplicateValues" dxfId="138" priority="79"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1176">
+  <conditionalFormatting sqref="A1177">
     <cfRule type="duplicateValues" dxfId="137" priority="78"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1177">
+  <conditionalFormatting sqref="A1178">
     <cfRule type="duplicateValues" dxfId="136" priority="77"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1184">
+  <conditionalFormatting sqref="A1185">
     <cfRule type="duplicateValues" dxfId="135" priority="76"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1178">
+  <conditionalFormatting sqref="A1179">
     <cfRule type="duplicateValues" dxfId="134" priority="75"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1183">
+  <conditionalFormatting sqref="A1184">
     <cfRule type="duplicateValues" dxfId="133" priority="74"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1179:A1182">
+  <conditionalFormatting sqref="A1180:A1183">
     <cfRule type="duplicateValues" dxfId="132" priority="73"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1185">
+  <conditionalFormatting sqref="A1186">
     <cfRule type="duplicateValues" dxfId="131" priority="72"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1186">
+  <conditionalFormatting sqref="A1187">
     <cfRule type="duplicateValues" dxfId="130" priority="71"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1187">
+  <conditionalFormatting sqref="A1188">
     <cfRule type="duplicateValues" dxfId="129" priority="70"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1188">
+  <conditionalFormatting sqref="A1189">
     <cfRule type="duplicateValues" dxfId="128" priority="69"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1189">
+  <conditionalFormatting sqref="A1190">
     <cfRule type="duplicateValues" dxfId="127" priority="68"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1190">
+  <conditionalFormatting sqref="A1191">
     <cfRule type="duplicateValues" dxfId="126" priority="67"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1191">
+  <conditionalFormatting sqref="A1192">
     <cfRule type="duplicateValues" dxfId="125" priority="66"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1192">
+  <conditionalFormatting sqref="A1193">
     <cfRule type="duplicateValues" dxfId="124" priority="65"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1195:A1198">
+  <conditionalFormatting sqref="A1196:A1199">
     <cfRule type="duplicateValues" dxfId="123" priority="64"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1199">
+  <conditionalFormatting sqref="A1200">
     <cfRule type="duplicateValues" dxfId="122" priority="63"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1200">
+  <conditionalFormatting sqref="A1201">
     <cfRule type="duplicateValues" dxfId="121" priority="62"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1201">
+  <conditionalFormatting sqref="A1202">
     <cfRule type="duplicateValues" dxfId="120" priority="61"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1202">
+  <conditionalFormatting sqref="A1203">
     <cfRule type="duplicateValues" dxfId="119" priority="60"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1203:A1204">
+  <conditionalFormatting sqref="A1204:A1205">
     <cfRule type="duplicateValues" dxfId="118" priority="59"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1205">
+  <conditionalFormatting sqref="A1206">
     <cfRule type="duplicateValues" dxfId="117" priority="58"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1206">
+  <conditionalFormatting sqref="A1207">
     <cfRule type="duplicateValues" dxfId="116" priority="57"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1207">
+  <conditionalFormatting sqref="A1208">
     <cfRule type="duplicateValues" dxfId="115" priority="55"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1208">
+  <conditionalFormatting sqref="A1209">
     <cfRule type="duplicateValues" dxfId="114" priority="54"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1215">
+  <conditionalFormatting sqref="A1216">
     <cfRule type="duplicateValues" dxfId="113" priority="53"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1214">
+  <conditionalFormatting sqref="A1215">
     <cfRule type="duplicateValues" dxfId="112" priority="52"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1216">
+  <conditionalFormatting sqref="A1217">
     <cfRule type="duplicateValues" dxfId="111" priority="50"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1217">
+  <conditionalFormatting sqref="A1218">
     <cfRule type="duplicateValues" dxfId="110" priority="49"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1218">
+  <conditionalFormatting sqref="A1219">
     <cfRule type="duplicateValues" dxfId="109" priority="48"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1219">
+  <conditionalFormatting sqref="A1220">
     <cfRule type="duplicateValues" dxfId="108" priority="47"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1220:A1221">
+  <conditionalFormatting sqref="A1221:A1222">
     <cfRule type="duplicateValues" dxfId="107" priority="46"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1222:A1223">
+  <conditionalFormatting sqref="A1223:A1224">
     <cfRule type="duplicateValues" dxfId="106" priority="45"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1224">
+  <conditionalFormatting sqref="A1225">
     <cfRule type="duplicateValues" dxfId="105" priority="44"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1225">
+  <conditionalFormatting sqref="A1226">
     <cfRule type="duplicateValues" dxfId="104" priority="43"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1226">
+  <conditionalFormatting sqref="A1227">
     <cfRule type="duplicateValues" dxfId="103" priority="42"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1227">
+  <conditionalFormatting sqref="A1228">
     <cfRule type="duplicateValues" dxfId="102" priority="41"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1228">
+  <conditionalFormatting sqref="A1229">
     <cfRule type="duplicateValues" dxfId="101" priority="40"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1229:A1230">
+  <conditionalFormatting sqref="A1230:A1231">
     <cfRule type="duplicateValues" dxfId="100" priority="39"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1231">
+  <conditionalFormatting sqref="A1232">
     <cfRule type="duplicateValues" dxfId="99" priority="38"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1232">
+  <conditionalFormatting sqref="A1233">
     <cfRule type="duplicateValues" dxfId="98" priority="37"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1233">
+  <conditionalFormatting sqref="A1234">
     <cfRule type="duplicateValues" dxfId="97" priority="36"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1234">
+  <conditionalFormatting sqref="A1235">
     <cfRule type="duplicateValues" dxfId="96" priority="35"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1235">
+  <conditionalFormatting sqref="A1236">
     <cfRule type="duplicateValues" dxfId="95" priority="34"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1236">
+  <conditionalFormatting sqref="A1237">
     <cfRule type="duplicateValues" dxfId="94" priority="33"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1209">
+  <conditionalFormatting sqref="A1210">
     <cfRule type="duplicateValues" dxfId="93" priority="32"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1237">
+  <conditionalFormatting sqref="A1238">
     <cfRule type="duplicateValues" dxfId="92" priority="31"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1238">
+  <conditionalFormatting sqref="A1239">
     <cfRule type="duplicateValues" dxfId="91" priority="30"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1239">
+  <conditionalFormatting sqref="A1240">
     <cfRule type="duplicateValues" dxfId="90" priority="29"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1240">
+  <conditionalFormatting sqref="A1241">
     <cfRule type="duplicateValues" dxfId="89" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1241">
+  <conditionalFormatting sqref="A1242">
     <cfRule type="duplicateValues" dxfId="88" priority="27"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1243">
+  <conditionalFormatting sqref="A1244">
     <cfRule type="duplicateValues" dxfId="87" priority="26"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1244:A1245">
+  <conditionalFormatting sqref="A1245:A1246">
     <cfRule type="duplicateValues" dxfId="86" priority="25"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1246">
+  <conditionalFormatting sqref="A1247">
     <cfRule type="duplicateValues" dxfId="85" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1247">
+  <conditionalFormatting sqref="A1248">
     <cfRule type="duplicateValues" dxfId="84" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1248">
+  <conditionalFormatting sqref="A1249">
     <cfRule type="duplicateValues" dxfId="83" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1250">
+  <conditionalFormatting sqref="A1251">
     <cfRule type="duplicateValues" dxfId="82" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1251:A1252">
+  <conditionalFormatting sqref="A1252:A1253">
     <cfRule type="duplicateValues" dxfId="81" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1253">
+  <conditionalFormatting sqref="A1254">
     <cfRule type="duplicateValues" dxfId="80" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1255">
+  <conditionalFormatting sqref="A1256">
     <cfRule type="duplicateValues" dxfId="79" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1256:A1258">
+  <conditionalFormatting sqref="A1257:A1259">
     <cfRule type="duplicateValues" dxfId="78" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1259">
+  <conditionalFormatting sqref="A1260">
     <cfRule type="duplicateValues" dxfId="77" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1260">
+  <conditionalFormatting sqref="A1261">
     <cfRule type="duplicateValues" dxfId="76" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1261">
+  <conditionalFormatting sqref="A1262">
     <cfRule type="duplicateValues" dxfId="75" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1262">
+  <conditionalFormatting sqref="A1263">
     <cfRule type="duplicateValues" dxfId="74" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1263">
+  <conditionalFormatting sqref="A1264">
     <cfRule type="duplicateValues" dxfId="73" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1264">
+  <conditionalFormatting sqref="A1265">
     <cfRule type="duplicateValues" dxfId="72" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1267">
+  <conditionalFormatting sqref="A1268">
     <cfRule type="duplicateValues" dxfId="71" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1268:A1269">
+  <conditionalFormatting sqref="A1269:A1270">
     <cfRule type="duplicateValues" dxfId="70" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1270">
+  <conditionalFormatting sqref="A1271">
     <cfRule type="duplicateValues" dxfId="69" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1271">
+  <conditionalFormatting sqref="A1272">
     <cfRule type="duplicateValues" dxfId="68" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1272">
+  <conditionalFormatting sqref="A1273">
     <cfRule type="duplicateValues" dxfId="67" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1273">
+  <conditionalFormatting sqref="A1274">
     <cfRule type="duplicateValues" dxfId="66" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1274">
+  <conditionalFormatting sqref="A1275">
     <cfRule type="duplicateValues" dxfId="65" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1275">
+  <conditionalFormatting sqref="A1276">
     <cfRule type="duplicateValues" dxfId="64" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1276">
+  <conditionalFormatting sqref="A1277">
     <cfRule type="duplicateValues" dxfId="63" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1277">
+  <conditionalFormatting sqref="A1278">
     <cfRule type="duplicateValues" dxfId="62" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H442 H445:H1277" xr:uid="{D78E5263-009F-4169-9D43-5AC7F53EA8E4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H442 H445:H1278" xr:uid="{D78E5263-009F-4169-9D43-5AC7F53EA8E4}">
       <formula1>L_Categoria_Forma_Pago</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J442 J445:J1253 J1255:J1264" xr:uid="{872D18BB-0B5C-46BF-82A3-D08D1154E2FE}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O5:O523 O1159:O1160 O1162:O1165 O525:O1157 O1168:O1286" xr:uid="{1BFDD124-CCE9-4570-868F-5B263AD53025}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J442 J1256:J1265 J445:J1254" xr:uid="{872D18BB-0B5C-46BF-82A3-D08D1154E2FE}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O5:O523 O1160:O1161 O1163:O1166 O525:O1158 O1169:O1287" xr:uid="{1BFDD124-CCE9-4570-868F-5B263AD53025}">
       <formula1>L_CRM_Productos</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K1286" xr:uid="{58405B9E-20DF-454D-BC62-E451163F9E41}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K1287" xr:uid="{58405B9E-20DF-454D-BC62-E451163F9E41}">
       <formula1>L_Moneda</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I1286" xr:uid="{A0979DBF-EEDC-4D67-A284-CA018BD1E8B8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I1287" xr:uid="{A0979DBF-EEDC-4D67-A284-CA018BD1E8B8}">
       <formula1>L_Forma_Pago</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B1286" xr:uid="{97AE782A-CC4E-4AA8-8CE3-8093060E1D19}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B1287" xr:uid="{97AE782A-CC4E-4AA8-8CE3-8093060E1D19}">
       <formula1>L_Status_Factura</formula1>
     </dataValidation>
   </dataValidations>
@@ -82560,23 +82679,23 @@
     </row>
     <row r="2" spans="1:2" ht="30" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>2111</v>
+        <v>2113</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>2112</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="10" t="s">
-        <v>2111</v>
+        <v>2113</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>2112</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
-        <v>2113</v>
+        <v>2115</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>113</v>
@@ -82584,7 +82703,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
-        <v>2114</v>
+        <v>2116</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>30</v>
@@ -82592,7 +82711,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
-        <v>2115</v>
+        <v>2117</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>48</v>
@@ -82600,7 +82719,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
-        <v>2116</v>
+        <v>2118</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>24</v>
@@ -82608,7 +82727,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="5" t="s">
-        <v>2117</v>
+        <v>2119</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>34</v>
@@ -82616,7 +82735,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="5" t="s">
-        <v>2118</v>
+        <v>2120</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>42</v>
@@ -82624,7 +82743,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
-        <v>2119</v>
+        <v>2121</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>43</v>
@@ -82632,7 +82751,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="5" t="s">
-        <v>2120</v>
+        <v>2122</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>52</v>
@@ -82640,7 +82759,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
-        <v>2121</v>
+        <v>2123</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>60</v>
@@ -82648,7 +82767,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="5" t="s">
-        <v>2122</v>
+        <v>2124</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>61</v>
@@ -82656,7 +82775,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
-        <v>2123</v>
+        <v>2125</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>74</v>
@@ -82664,7 +82783,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="5" t="s">
-        <v>2124</v>
+        <v>2126</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>79</v>
@@ -82672,7 +82791,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="5" t="s">
-        <v>2125</v>
+        <v>2127</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>81</v>
@@ -82680,7 +82799,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="5" t="s">
-        <v>2126</v>
+        <v>2128</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>86</v>
@@ -82688,7 +82807,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="5" t="s">
-        <v>2127</v>
+        <v>2129</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>90</v>
@@ -82696,7 +82815,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="5" t="s">
-        <v>2128</v>
+        <v>2130</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>104</v>
@@ -82704,7 +82823,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="5" t="s">
-        <v>2129</v>
+        <v>2131</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>120</v>
@@ -82712,7 +82831,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="5" t="s">
-        <v>2130</v>
+        <v>2132</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>129</v>
@@ -82720,7 +82839,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="5" t="s">
-        <v>2131</v>
+        <v>2133</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>127</v>
@@ -82728,7 +82847,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="5" t="s">
-        <v>2132</v>
+        <v>2134</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>139</v>
@@ -82736,7 +82855,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="5" t="s">
-        <v>2133</v>
+        <v>2135</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>163</v>
@@ -82744,7 +82863,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="5" t="s">
-        <v>2134</v>
+        <v>2136</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>232</v>
@@ -82752,7 +82871,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="5" t="s">
-        <v>2135</v>
+        <v>2137</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>249</v>
@@ -82760,7 +82879,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="5" t="s">
-        <v>2136</v>
+        <v>2138</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>290</v>
@@ -82768,7 +82887,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="5" t="s">
-        <v>2137</v>
+        <v>2139</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>351</v>
@@ -82776,7 +82895,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="5" t="s">
-        <v>2138</v>
+        <v>2140</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>1519</v>
@@ -82784,7 +82903,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="5" t="s">
-        <v>2139</v>
+        <v>2141</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>816</v>
@@ -82792,7 +82911,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="5" t="s">
-        <v>2140</v>
+        <v>2142</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>819</v>
@@ -82800,7 +82919,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="5" t="s">
-        <v>2141</v>
+        <v>2143</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>355</v>
@@ -82808,7 +82927,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="5" t="s">
-        <v>2142</v>
+        <v>2144</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>371</v>
@@ -82816,7 +82935,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="5" t="s">
-        <v>2143</v>
+        <v>2145</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>376</v>
@@ -82824,7 +82943,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="5" t="s">
-        <v>2144</v>
+        <v>2146</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>423</v>
@@ -82832,7 +82951,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="5" t="s">
-        <v>2145</v>
+        <v>2147</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>500</v>
@@ -82840,7 +82959,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="5" t="s">
-        <v>2146</v>
+        <v>2148</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>550</v>
@@ -82848,7 +82967,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="5" t="s">
-        <v>2147</v>
+        <v>2149</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>552</v>
@@ -82856,7 +82975,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="5" t="s">
-        <v>2148</v>
+        <v>2150</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>553</v>
@@ -82864,7 +82983,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="5" t="s">
-        <v>2149</v>
+        <v>2151</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>576</v>
@@ -82872,7 +82991,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="5" t="s">
-        <v>2150</v>
+        <v>2152</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>624</v>
@@ -82880,7 +82999,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="5" t="s">
-        <v>2151</v>
+        <v>2153</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>629</v>
@@ -82888,7 +83007,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="5" t="s">
-        <v>2152</v>
+        <v>2154</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>663</v>
@@ -82896,7 +83015,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="5" t="s">
-        <v>2153</v>
+        <v>2155</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>668</v>
@@ -82904,7 +83023,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="5" t="s">
-        <v>2154</v>
+        <v>2156</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>718</v>
@@ -82912,7 +83031,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="5" t="s">
-        <v>2155</v>
+        <v>2157</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>719</v>
@@ -82920,7 +83039,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="5" t="s">
-        <v>2156</v>
+        <v>2158</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>741</v>
@@ -82928,7 +83047,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="5" t="s">
-        <v>2157</v>
+        <v>2159</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>783</v>
@@ -82936,7 +83055,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="5" t="s">
-        <v>2158</v>
+        <v>2160</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>775</v>
@@ -82944,7 +83063,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="5" t="s">
-        <v>2159</v>
+        <v>2161</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>817</v>
@@ -82952,7 +83071,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="5" t="s">
-        <v>2160</v>
+        <v>2162</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>818</v>
@@ -82966,7 +83085,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="5" t="s">
-        <v>2161</v>
+        <v>2163</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>1125</v>
@@ -82974,7 +83093,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="5" t="s">
-        <v>2162</v>
+        <v>2164</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>1182</v>
@@ -82982,7 +83101,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="5" t="s">
-        <v>2163</v>
+        <v>2165</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>1192</v>
@@ -82990,7 +83109,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="5" t="s">
-        <v>2164</v>
+        <v>2166</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>1195</v>
@@ -82998,7 +83117,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="5" t="s">
-        <v>2165</v>
+        <v>2167</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>1196</v>
@@ -83006,7 +83125,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="5" t="s">
-        <v>2166</v>
+        <v>2168</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>789</v>
@@ -83020,7 +83139,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="5" t="s">
-        <v>2167</v>
+        <v>2169</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>836</v>
@@ -83028,7 +83147,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="5" t="s">
-        <v>2168</v>
+        <v>2170</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>873</v>
@@ -83036,7 +83155,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="5" t="s">
-        <v>2169</v>
+        <v>2171</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>895</v>
@@ -83044,7 +83163,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="5" t="s">
-        <v>2170</v>
+        <v>2172</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>906</v>
@@ -83052,7 +83171,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="5" t="s">
-        <v>2171</v>
+        <v>2173</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>503</v>
@@ -83060,7 +83179,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="5" t="s">
-        <v>2172</v>
+        <v>2174</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>926</v>
@@ -83068,7 +83187,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="5" t="s">
-        <v>2173</v>
+        <v>2175</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>1310</v>
@@ -83076,7 +83195,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="5" t="s">
-        <v>2174</v>
+        <v>2176</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>1328</v>
@@ -83090,7 +83209,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="5" t="s">
-        <v>2175</v>
+        <v>2177</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>1452</v>
@@ -83098,7 +83217,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="5" t="s">
-        <v>2176</v>
+        <v>2178</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>1479</v>
@@ -83106,7 +83225,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="5" t="s">
-        <v>2177</v>
+        <v>2179</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>1534</v>
@@ -83114,7 +83233,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="5" t="s">
-        <v>2178</v>
+        <v>2180</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>1537</v>
@@ -83122,7 +83241,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="5" t="s">
-        <v>2179</v>
+        <v>2181</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>1538</v>
@@ -83136,7 +83255,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="5" t="s">
-        <v>2180</v>
+        <v>2182</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>1656</v>
@@ -83144,7 +83263,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="5" t="s">
-        <v>2181</v>
+        <v>2183</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>1768</v>
@@ -83152,15 +83271,15 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="5" t="s">
-        <v>2182</v>
+        <v>2184</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>1899</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="5" t="s">
-        <v>2183</v>
+        <v>2185</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>1408</v>
@@ -83168,10 +83287,10 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="5" t="s">
-        <v>2119</v>
+        <v>2121</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>1981</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -83708,7 +83827,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>2184</v>
+        <v>2186</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>10</v>
@@ -83717,7 +83836,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>2185</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -83728,13 +83847,13 @@
         <v>305</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>2186</v>
+        <v>2188</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>2187</v>
+        <v>2189</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>27</v>
@@ -83748,7 +83867,7 @@
         <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>2188</v>
+        <v>2190</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>138</v>
@@ -83769,25 +83888,25 @@
       </c>
       <c r="E5" s="2"/>
       <c r="G5" s="5" t="s">
-        <v>2189</v>
+        <v>2191</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>1366</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>2190</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>2191</v>
+        <v>2193</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>221</v>
       </c>
       <c r="E6" s="2"/>
       <c r="G6" s="5" t="s">
-        <v>2192</v>
+        <v>2194</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>19</v>
@@ -83795,7 +83914,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="12" t="s">
-        <v>2193</v>
+        <v>2195</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>469</v>
@@ -83803,7 +83922,7 @@
       <c r="E7" s="2"/>
       <c r="G7" s="2"/>
       <c r="I7" s="1" t="s">
-        <v>2194</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -83816,7 +83935,7 @@
       <c r="E8" s="2"/>
       <c r="G8" s="2"/>
       <c r="I8" s="4" t="s">
-        <v>2195</v>
+        <v>2197</v>
       </c>
       <c r="K8" s="4"/>
     </row>
@@ -83953,23 +84072,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="257080c7-9622-479d-89bc-907499b6443f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="28f7f61b-94d0-4d97-951c-1733a6279ffd" xsi:nil="true"/>
-    <Fecha xmlns="257080c7-9622-479d-89bc-907499b6443f" xsi:nil="true"/>
-    <Comentario xmlns="257080c7-9622-479d-89bc-907499b6443f" xsi:nil="true"/>
-    <Rubro xmlns="257080c7-9622-479d-89bc-907499b6443f" xsi:nil="true"/>
-    <A_x00f1_o xmlns="257080c7-9622-479d-89bc-907499b6443f" xsi:nil="true"/>
-    <Ciudad xmlns="257080c7-9622-479d-89bc-907499b6443f" xsi:nil="true"/>
-    <Categor_x00ed_a xmlns="257080c7-9622-479d-89bc-907499b6443f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -83978,7 +84080,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C76B110CEDEF034FAE6C1BCFB6DFEC7D" ma:contentTypeVersion="19" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="c61e8c96e65a7b9070da814edea44073">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="257080c7-9622-479d-89bc-907499b6443f" xmlns:ns3="28f7f61b-94d0-4d97-951c-1733a6279ffd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ad1bb3bc9a52fc65c3b4930178d60dac" ns2:_="" ns3:_="">
     <xsd:import namespace="257080c7-9622-479d-89bc-907499b6443f"/>
@@ -84233,14 +84335,31 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="257080c7-9622-479d-89bc-907499b6443f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="28f7f61b-94d0-4d97-951c-1733a6279ffd" xsi:nil="true"/>
+    <Fecha xmlns="257080c7-9622-479d-89bc-907499b6443f" xsi:nil="true"/>
+    <Comentario xmlns="257080c7-9622-479d-89bc-907499b6443f" xsi:nil="true"/>
+    <Rubro xmlns="257080c7-9622-479d-89bc-907499b6443f" xsi:nil="true"/>
+    <A_x00f1_o xmlns="257080c7-9622-479d-89bc-907499b6443f" xsi:nil="true"/>
+    <Ciudad xmlns="257080c7-9622-479d-89bc-907499b6443f" xsi:nil="true"/>
+    <Categor_x00ed_a xmlns="257080c7-9622-479d-89bc-907499b6443f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B683B234-EF84-41CA-9446-286D36F1A01A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD92B995-AF9C-492F-BB6E-ABE13CB95540}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD92B995-AF9C-492F-BB6E-ABE13CB95540}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A735827-28DB-467A-9140-13C79B88125F}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A735827-28DB-467A-9140-13C79B88125F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B683B234-EF84-41CA-9446-286D36F1A01A}"/>
 </file>